--- a/Tests/res_in_new_2.xlsx
+++ b/Tests/res_in_new_2.xlsx
@@ -25,9 +25,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,11 +53,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -68,43 +68,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,46 +98,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,9 +116,69 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -197,7 +197,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,13 +239,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,139 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,6 +382,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -396,21 +405,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,7 +428,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,168 +482,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,8 +632,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,7 +783,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>res_in_new_2!$A$1:$A$250</c:f>
+              <c:f>res_in_new_2!$Q$1:$Q$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="250"/>
@@ -1536,7 +1542,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>res_in_new_2!$B$1:$B$250</c:f>
+              <c:f>res_in_new_2!$R$1:$R$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="250"/>
@@ -6135,7 +6141,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="7200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6157,7 +6163,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="7200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6179,7 +6185,29 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="7200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6208,7 +6236,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="7200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6346,7 +6374,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>res_in_new_2!$A$1:$A$270</c:f>
+              <c:f>res_in_new_2!$Q$1:$Q$270</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="270"/>
@@ -7165,7 +7193,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>res_in_new_2!$B$1:$B$270</c:f>
+              <c:f>res_in_new_2!$R$1:$R$270</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="270"/>
@@ -9359,14 +9387,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95885</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
       <xdr:row>214</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -9376,8 +9404,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4816475" y="5582285"/>
-        <a:ext cx="37795200" cy="43528615"/>
+        <a:off x="10807700" y="39814500"/>
+        <a:ext cx="9505950" cy="9296400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9406,8 +9434,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3635375" y="904875"/>
-        <a:ext cx="5953125" cy="3218815"/>
+        <a:off x="3702050" y="904875"/>
+        <a:ext cx="6086475" cy="3218815"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9680,82 +9708,146 @@
   <sheetPr/>
   <dimension ref="A1:CH602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.54545454545455" defaultRowHeight="18"/>
   <cols>
+    <col min="2" max="2" width="7.18181818181818"/>
+    <col min="10" max="10" width="7.18181818181818"/>
+    <col min="12" max="12" width="7.18181818181818"/>
+    <col min="18" max="19" width="8.18181818181818"/>
     <col min="85" max="85" width="12.3636363636364"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1">
+    <row r="1" spans="1:20">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>29319.5</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.34107</v>
+      </c>
+      <c r="D1" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q1">
         <v>3</v>
       </c>
-      <c r="B1">
+      <c r="R1">
         <v>92452.8</v>
       </c>
-      <c r="C1">
+      <c r="S1">
         <v>0.32449</v>
       </c>
-      <c r="D1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="T1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>58078.8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.34436</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="R2">
         <v>89592.4</v>
       </c>
-      <c r="C2">
+      <c r="S2">
         <v>0.33485</v>
       </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="T2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
+        <v>85394.7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.35131</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
         <v>90090.1</v>
       </c>
-      <c r="C3">
+      <c r="S3">
         <v>0.333</v>
       </c>
-      <c r="D3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="T3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>109200</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.3663</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="R4">
         <v>92873.5</v>
       </c>
-      <c r="C4">
+      <c r="S4">
         <v>0.32302</v>
       </c>
-      <c r="D4">
+      <c r="T4">
         <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:86">
-      <c r="A5">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>181955</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.38471</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="R5">
         <v>92449.9</v>
       </c>
-      <c r="C5">
+      <c r="S5">
         <v>0.3245</v>
       </c>
-      <c r="D5">
+      <c r="T5">
         <v>10000</v>
       </c>
       <c r="BT5">
@@ -9776,16 +9868,28 @@
       </c>
     </row>
     <row r="6" spans="1:86">
-      <c r="A6">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>208366</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.38394</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q6">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="R6">
         <v>88809.9</v>
       </c>
-      <c r="C6">
+      <c r="S6">
         <v>0.3378</v>
       </c>
-      <c r="D6">
+      <c r="T6">
         <v>10000</v>
       </c>
       <c r="BT6">
@@ -9806,16 +9910,28 @@
       </c>
     </row>
     <row r="7" spans="1:86">
-      <c r="A7">
+      <c r="A7" s="1">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>219912</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.68209</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="R7">
         <v>92092.3</v>
       </c>
-      <c r="C7">
+      <c r="S7">
         <v>0.32576</v>
       </c>
-      <c r="D7">
+      <c r="T7">
         <v>10000</v>
       </c>
       <c r="BT7">
@@ -9836,16 +9952,28 @@
       </c>
     </row>
     <row r="8" spans="1:86">
-      <c r="A8">
+      <c r="A8" s="1">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>235360</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.67981</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q8">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="R8">
         <v>91636.6</v>
       </c>
-      <c r="C8">
+      <c r="S8">
         <v>0.32738</v>
       </c>
-      <c r="D8">
+      <c r="T8">
         <v>10000</v>
       </c>
       <c r="BT8">
@@ -9866,16 +9994,28 @@
       </c>
     </row>
     <row r="9" spans="1:86">
-      <c r="A9">
+      <c r="A9" s="1">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1">
+        <v>387389</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.80023</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q9">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="R9">
         <v>92606.9</v>
       </c>
-      <c r="C9">
+      <c r="S9">
         <v>0.32395</v>
       </c>
-      <c r="D9">
+      <c r="T9">
         <v>10000</v>
       </c>
       <c r="BT9">
@@ -9896,16 +10036,28 @@
       </c>
     </row>
     <row r="10" spans="1:86">
-      <c r="A10">
+      <c r="A10" s="1">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
+        <v>400205</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.79959</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q10">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="R10">
         <v>93095.4</v>
       </c>
-      <c r="C10">
+      <c r="S10">
         <v>0.32225</v>
       </c>
-      <c r="D10">
+      <c r="T10">
         <v>10000</v>
       </c>
       <c r="BT10">
@@ -9926,16 +10078,28 @@
       </c>
     </row>
     <row r="11" spans="1:86">
-      <c r="A11">
+      <c r="A11" s="1">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1">
+        <v>520549</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.21026</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q11">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="R11">
         <v>32132.6</v>
       </c>
-      <c r="C11">
+      <c r="S11">
         <v>0.31121</v>
       </c>
-      <c r="D11">
+      <c r="T11">
         <v>10000</v>
       </c>
       <c r="BT11">
@@ -9956,16 +10120,28 @@
       </c>
     </row>
     <row r="12" spans="1:86">
-      <c r="A12">
+      <c r="A12" s="1">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1">
+        <v>422964</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.51313</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q12">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="R12">
         <v>58305.6</v>
       </c>
-      <c r="C12">
+      <c r="S12">
         <v>0.34302</v>
       </c>
-      <c r="D12">
+      <c r="T12">
         <v>10000</v>
       </c>
       <c r="BT12">
@@ -9986,16 +10162,28 @@
       </c>
     </row>
     <row r="13" spans="1:86">
-      <c r="A13">
+      <c r="A13" s="1">
+        <v>127</v>
+      </c>
+      <c r="B13" s="1">
+        <v>653571</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.94317</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q13">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="R13">
         <v>112953</v>
       </c>
-      <c r="C13">
+      <c r="S13">
         <v>0.35413</v>
       </c>
-      <c r="D13">
+      <c r="T13">
         <v>10000</v>
       </c>
       <c r="BT13">
@@ -10016,16 +10204,28 @@
       </c>
     </row>
     <row r="14" spans="1:85">
-      <c r="A14">
+      <c r="A14" s="1">
+        <v>128</v>
+      </c>
+      <c r="B14" s="1">
+        <v>571822</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.23846</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q14">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="R14">
         <v>206532</v>
       </c>
-      <c r="C14">
+      <c r="S14">
         <v>0.38735</v>
       </c>
-      <c r="D14">
+      <c r="T14">
         <v>10000</v>
       </c>
       <c r="BT14">
@@ -10043,16 +10243,28 @@
       </c>
     </row>
     <row r="15" spans="1:86">
-      <c r="A15">
+      <c r="A15" s="1">
+        <v>255</v>
+      </c>
+      <c r="B15" s="1">
+        <v>751773</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.39198</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q15">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="R15">
         <v>351363</v>
       </c>
-      <c r="C15">
+      <c r="S15">
         <v>0.45537</v>
       </c>
-      <c r="D15">
+      <c r="T15">
         <v>10000</v>
       </c>
       <c r="BT15">
@@ -10073,16 +10285,28 @@
       </c>
     </row>
     <row r="16" spans="1:86">
-      <c r="A16">
+      <c r="A16" s="1">
+        <v>256</v>
+      </c>
+      <c r="B16" s="1">
+        <v>684543</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.73972</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q16">
         <v>32</v>
       </c>
-      <c r="B16">
+      <c r="R16">
         <v>496447</v>
       </c>
-      <c r="C16">
+      <c r="S16">
         <v>0.64458</v>
       </c>
-      <c r="D16">
+      <c r="T16">
         <v>10000</v>
       </c>
       <c r="BT16">
@@ -10103,16 +10327,28 @@
       </c>
     </row>
     <row r="17" spans="1:86">
-      <c r="A17">
+      <c r="A17" s="1">
+        <v>511</v>
+      </c>
+      <c r="B17" s="1">
+        <v>791307</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.45767</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q17">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="R17">
         <v>31237.3</v>
       </c>
-      <c r="C17">
+      <c r="S17">
         <v>0.32013</v>
       </c>
-      <c r="D17">
+      <c r="T17">
         <v>10000</v>
       </c>
       <c r="BT17">
@@ -10133,16 +10369,28 @@
       </c>
     </row>
     <row r="18" spans="1:86">
-      <c r="A18">
+      <c r="A18" s="1">
+        <v>512</v>
+      </c>
+      <c r="B18" s="1">
+        <v>788063</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.49694</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q18">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="R18">
         <v>60413.8</v>
       </c>
-      <c r="C18">
+      <c r="S18">
         <v>0.33105</v>
       </c>
-      <c r="D18">
+      <c r="T18">
         <v>10000</v>
       </c>
       <c r="BT18">
@@ -10163,16 +10411,28 @@
       </c>
     </row>
     <row r="19" spans="1:86">
-      <c r="A19">
+      <c r="A19" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B19" s="1">
+        <v>810010</v>
+      </c>
+      <c r="C19" s="1">
+        <v>12.6295</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q19">
         <v>4</v>
       </c>
-      <c r="B19">
+      <c r="R19">
         <v>115221</v>
       </c>
-      <c r="C19">
+      <c r="S19">
         <v>0.34716</v>
       </c>
-      <c r="D19">
+      <c r="T19">
         <v>10000</v>
       </c>
       <c r="BT19">
@@ -10193,16 +10453,28 @@
       </c>
     </row>
     <row r="20" spans="1:86">
-      <c r="A20">
+      <c r="A20" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B20" s="1">
+        <v>814026</v>
+      </c>
+      <c r="C20" s="1">
+        <v>12.5794</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q20">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="R20">
         <v>203723</v>
       </c>
-      <c r="C20">
+      <c r="S20">
         <v>0.39269</v>
       </c>
-      <c r="D20">
+      <c r="T20">
         <v>10000</v>
       </c>
       <c r="BT20">
@@ -10223,16 +10495,28 @@
       </c>
     </row>
     <row r="21" spans="1:86">
-      <c r="A21">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>29385.8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.3403</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q21">
         <v>16</v>
       </c>
-      <c r="B21">
+      <c r="R21">
         <v>346891</v>
       </c>
-      <c r="C21">
+      <c r="S21">
         <v>0.46124</v>
       </c>
-      <c r="D21">
+      <c r="T21">
         <v>10000</v>
       </c>
       <c r="BT21">
@@ -10253,16 +10537,28 @@
       </c>
     </row>
     <row r="22" spans="1:86">
-      <c r="A22">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>57873.7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.34558</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q22">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="R22">
         <v>485275</v>
       </c>
-      <c r="C22">
+      <c r="S22">
         <v>0.65942</v>
       </c>
-      <c r="D22">
+      <c r="T22">
         <v>10000</v>
       </c>
       <c r="BT22">
@@ -10283,16 +10579,28 @@
       </c>
     </row>
     <row r="23" spans="1:86">
-      <c r="A23">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>83222.4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.36048</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q23">
         <v>1</v>
       </c>
-      <c r="B23">
+      <c r="R23">
         <v>31400.1</v>
       </c>
-      <c r="C23">
+      <c r="S23">
         <v>0.31847</v>
       </c>
-      <c r="D23">
+      <c r="T23">
         <v>10000</v>
       </c>
       <c r="BT23">
@@ -10313,16 +10621,28 @@
       </c>
     </row>
     <row r="24" spans="1:86">
-      <c r="A24">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>109278</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.36604</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q24">
         <v>2</v>
       </c>
-      <c r="B24">
+      <c r="R24">
         <v>61779.9</v>
       </c>
-      <c r="C24">
+      <c r="S24">
         <v>0.32373</v>
       </c>
-      <c r="D24">
+      <c r="T24">
         <v>10000</v>
       </c>
       <c r="BT24">
@@ -10343,16 +10663,28 @@
       </c>
     </row>
     <row r="25" spans="1:86">
-      <c r="A25">
+      <c r="A25" s="1">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>181927</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.38477</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q25">
         <v>4</v>
       </c>
-      <c r="B25">
+      <c r="R25">
         <v>114768</v>
       </c>
-      <c r="C25">
+      <c r="S25">
         <v>0.34853</v>
       </c>
-      <c r="D25">
+      <c r="T25">
         <v>10000</v>
       </c>
       <c r="BT25">
@@ -10373,16 +10705,28 @@
       </c>
     </row>
     <row r="26" spans="1:86">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>8</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
+        <v>208035</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.38455</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
         <v>209052</v>
       </c>
-      <c r="C26">
+      <c r="S26">
         <v>0.38268</v>
       </c>
-      <c r="D26">
+      <c r="T26">
         <v>10000</v>
       </c>
       <c r="BT26">
@@ -10403,16 +10747,28 @@
       </c>
     </row>
     <row r="27" spans="1:86">
-      <c r="A27">
+      <c r="A27" s="1">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1">
+        <v>220627</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.67988</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q27">
         <v>16</v>
       </c>
-      <c r="B27">
+      <c r="R27">
         <v>346463</v>
       </c>
-      <c r="C27">
+      <c r="S27">
         <v>0.46181</v>
       </c>
-      <c r="D27">
+      <c r="T27">
         <v>10000</v>
       </c>
       <c r="BT27">
@@ -10433,16 +10789,28 @@
       </c>
     </row>
     <row r="28" spans="1:86">
-      <c r="A28">
+      <c r="A28" s="1">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1">
+        <v>235156</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.6804</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q28">
         <v>32</v>
       </c>
-      <c r="B28">
+      <c r="R28">
         <v>460101</v>
       </c>
-      <c r="C28">
+      <c r="S28">
         <v>0.6955</v>
       </c>
-      <c r="D28">
+      <c r="T28">
         <v>10000</v>
       </c>
       <c r="BT28">
@@ -10463,16 +10831,28 @@
       </c>
     </row>
     <row r="29" spans="1:86">
-      <c r="A29">
+      <c r="A29" s="1">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>387728</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.79953</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q29">
         <v>1</v>
       </c>
-      <c r="B29">
+      <c r="R29">
         <v>28645.9</v>
       </c>
-      <c r="C29">
+      <c r="S29">
         <v>0.34909</v>
       </c>
-      <c r="D29">
+      <c r="T29">
         <v>10000</v>
       </c>
       <c r="BT29">
@@ -10493,16 +10873,28 @@
       </c>
     </row>
     <row r="30" spans="1:86">
-      <c r="A30">
+      <c r="A30" s="1">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>399975</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.80005</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q30">
         <v>2</v>
       </c>
-      <c r="B30">
+      <c r="R30">
         <v>59710.4</v>
       </c>
-      <c r="C30">
+      <c r="S30">
         <v>0.33495</v>
       </c>
-      <c r="D30">
+      <c r="T30">
         <v>10000</v>
       </c>
       <c r="BT30">
@@ -10523,16 +10915,28 @@
       </c>
     </row>
     <row r="31" spans="1:86">
-      <c r="A31">
+      <c r="A31" s="1">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1">
+        <v>521066</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.20906</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q31">
         <v>4</v>
       </c>
-      <c r="B31">
+      <c r="R31">
         <v>115450</v>
       </c>
-      <c r="C31">
+      <c r="S31">
         <v>0.34647</v>
       </c>
-      <c r="D31">
+      <c r="T31">
         <v>10000</v>
       </c>
       <c r="BT31">
@@ -10553,16 +10957,28 @@
       </c>
     </row>
     <row r="32" spans="1:86">
-      <c r="A32">
+      <c r="A32" s="1">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1">
+        <v>424175</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.50881</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q32">
         <v>8</v>
       </c>
-      <c r="B32">
+      <c r="R32">
         <v>209946</v>
       </c>
-      <c r="C32">
+      <c r="S32">
         <v>0.38105</v>
       </c>
-      <c r="D32">
+      <c r="T32">
         <v>10000</v>
       </c>
       <c r="BT32">
@@ -10583,16 +10999,28 @@
       </c>
     </row>
     <row r="33" spans="1:86">
-      <c r="A33">
+      <c r="A33" s="1">
+        <v>127</v>
+      </c>
+      <c r="B33" s="1">
+        <v>653215</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.94423</v>
+      </c>
+      <c r="D33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q33">
         <v>16</v>
       </c>
-      <c r="B33">
+      <c r="R33">
         <v>346741</v>
       </c>
-      <c r="C33">
+      <c r="S33">
         <v>0.46144</v>
       </c>
-      <c r="D33">
+      <c r="T33">
         <v>10000</v>
       </c>
       <c r="BT33">
@@ -10613,16 +11041,28 @@
       </c>
     </row>
     <row r="34" spans="1:86">
-      <c r="A34">
+      <c r="A34" s="1">
+        <v>128</v>
+      </c>
+      <c r="B34" s="1">
+        <v>571988</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.23781</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q34">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="R34">
         <v>491461</v>
       </c>
-      <c r="C34">
+      <c r="S34">
         <v>0.65112</v>
       </c>
-      <c r="D34">
+      <c r="T34">
         <v>10000</v>
       </c>
       <c r="BT34">
@@ -10643,16 +11083,28 @@
       </c>
     </row>
     <row r="35" spans="1:86">
-      <c r="A35">
+      <c r="A35" s="1">
+        <v>255</v>
+      </c>
+      <c r="B35" s="1">
+        <v>752106</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3.39048</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q35">
         <v>1</v>
       </c>
-      <c r="B35">
+      <c r="R35">
         <v>30298.4</v>
       </c>
-      <c r="C35">
+      <c r="S35">
         <v>0.33005</v>
       </c>
-      <c r="D35">
+      <c r="T35">
         <v>10000</v>
       </c>
       <c r="BT35">
@@ -10673,16 +11125,28 @@
       </c>
     </row>
     <row r="36" spans="1:86">
-      <c r="A36">
+      <c r="A36" s="1">
+        <v>256</v>
+      </c>
+      <c r="B36" s="1">
+        <v>685115</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3.7366</v>
+      </c>
+      <c r="D36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q36">
         <v>2</v>
       </c>
-      <c r="B36">
+      <c r="R36">
         <v>61544.1</v>
       </c>
-      <c r="C36">
+      <c r="S36">
         <v>0.32497</v>
       </c>
-      <c r="D36">
+      <c r="T36">
         <v>10000</v>
       </c>
       <c r="BT36">
@@ -10703,16 +11167,28 @@
       </c>
     </row>
     <row r="37" spans="1:86">
-      <c r="A37">
+      <c r="A37" s="1">
+        <v>511</v>
+      </c>
+      <c r="B37" s="1">
+        <v>791372</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6.45714</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q37">
         <v>4</v>
       </c>
-      <c r="B37">
+      <c r="R37">
         <v>116492</v>
       </c>
-      <c r="C37">
+      <c r="S37">
         <v>0.34337</v>
       </c>
-      <c r="D37">
+      <c r="T37">
         <v>10000</v>
       </c>
       <c r="BT37">
@@ -10733,16 +11209,28 @@
       </c>
     </row>
     <row r="38" spans="1:86">
-      <c r="A38">
+      <c r="A38" s="1">
+        <v>512</v>
+      </c>
+      <c r="B38" s="1">
+        <v>788199</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6.49582</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q38">
         <v>8</v>
       </c>
-      <c r="B38">
+      <c r="R38">
         <v>209304</v>
       </c>
-      <c r="C38">
+      <c r="S38">
         <v>0.38222</v>
       </c>
-      <c r="D38">
+      <c r="T38">
         <v>10000</v>
       </c>
       <c r="BT38">
@@ -10763,16 +11251,28 @@
       </c>
     </row>
     <row r="39" spans="1:86">
-      <c r="A39">
+      <c r="A39" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B39" s="1">
+        <v>810372</v>
+      </c>
+      <c r="C39" s="1">
+        <v>12.6238</v>
+      </c>
+      <c r="D39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q39">
         <v>16</v>
       </c>
-      <c r="B39">
+      <c r="R39">
         <v>358648</v>
       </c>
-      <c r="C39">
+      <c r="S39">
         <v>0.44612</v>
       </c>
-      <c r="D39">
+      <c r="T39">
         <v>10000</v>
       </c>
       <c r="BT39">
@@ -10793,16 +11293,28 @@
       </c>
     </row>
     <row r="40" spans="1:86">
-      <c r="A40">
+      <c r="A40" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B40" s="1">
+        <v>813978</v>
+      </c>
+      <c r="C40" s="1">
+        <v>12.5802</v>
+      </c>
+      <c r="D40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q40">
         <v>32</v>
       </c>
-      <c r="B40">
+      <c r="R40">
         <v>502576</v>
       </c>
-      <c r="C40">
+      <c r="S40">
         <v>0.63672</v>
       </c>
-      <c r="D40">
+      <c r="T40">
         <v>10000</v>
       </c>
       <c r="BT40">
@@ -10823,16 +11335,28 @@
       </c>
     </row>
     <row r="41" spans="1:86">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>1</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
+        <v>29157.1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.34297</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
         <v>32010.2</v>
       </c>
-      <c r="C41">
+      <c r="S41">
         <v>0.3124</v>
       </c>
-      <c r="D41">
+      <c r="T41">
         <v>10000</v>
       </c>
       <c r="BT41">
@@ -10853,16 +11377,28 @@
       </c>
     </row>
     <row r="42" spans="1:86">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>2</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
+        <v>57818.5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.34591</v>
+      </c>
+      <c r="D42" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="R42">
         <v>60337.3</v>
       </c>
-      <c r="C42">
+      <c r="S42">
         <v>0.33147</v>
       </c>
-      <c r="D42">
+      <c r="T42">
         <v>10000</v>
       </c>
       <c r="BT42">
@@ -10883,16 +11419,28 @@
       </c>
     </row>
     <row r="43" spans="1:86">
-      <c r="A43">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
+        <v>83280.1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.36023</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q43">
         <v>4</v>
       </c>
-      <c r="B43">
+      <c r="R43">
         <v>114643</v>
       </c>
-      <c r="C43">
+      <c r="S43">
         <v>0.34891</v>
       </c>
-      <c r="D43">
+      <c r="T43">
         <v>10000</v>
       </c>
       <c r="BT43">
@@ -10913,16 +11461,28 @@
       </c>
     </row>
     <row r="44" spans="1:86">
-      <c r="A44">
+      <c r="A44" s="1">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <v>109358</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.36577</v>
+      </c>
+      <c r="D44" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q44">
         <v>8</v>
       </c>
-      <c r="B44">
+      <c r="R44">
         <v>178579</v>
       </c>
-      <c r="C44">
+      <c r="S44">
         <v>0.44798</v>
       </c>
-      <c r="D44">
+      <c r="T44">
         <v>10000</v>
       </c>
       <c r="BT44">
@@ -10943,16 +11503,28 @@
       </c>
     </row>
     <row r="45" spans="1:86">
-      <c r="A45">
+      <c r="A45" s="1">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1">
+        <v>182734</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.38307</v>
+      </c>
+      <c r="D45" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q45">
         <v>16</v>
       </c>
-      <c r="B45">
+      <c r="R45">
         <v>329734</v>
       </c>
-      <c r="C45">
+      <c r="S45">
         <v>0.48524</v>
       </c>
-      <c r="D45">
+      <c r="T45">
         <v>10000</v>
       </c>
       <c r="BT45">
@@ -10973,16 +11545,28 @@
       </c>
     </row>
     <row r="46" spans="1:86">
-      <c r="A46">
+      <c r="A46" s="1">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1">
+        <v>207781</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.38502</v>
+      </c>
+      <c r="D46" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q46">
         <v>32</v>
       </c>
-      <c r="B46">
+      <c r="R46">
         <v>502971</v>
       </c>
-      <c r="C46">
+      <c r="S46">
         <v>0.63622</v>
       </c>
-      <c r="D46">
+      <c r="T46">
         <v>10000</v>
       </c>
       <c r="BT46">
@@ -11003,16 +11587,28 @@
       </c>
     </row>
     <row r="47" spans="1:86">
-      <c r="A47">
+      <c r="A47" s="1">
+        <v>15</v>
+      </c>
+      <c r="B47" s="1">
+        <v>220653</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.6798</v>
+      </c>
+      <c r="D47" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q47">
         <v>1</v>
       </c>
-      <c r="B47">
+      <c r="R47">
         <v>31727.9</v>
       </c>
-      <c r="C47">
+      <c r="S47">
         <v>0.31518</v>
       </c>
-      <c r="D47">
+      <c r="T47">
         <v>10000</v>
       </c>
       <c r="BT47">
@@ -11033,16 +11629,28 @@
       </c>
     </row>
     <row r="48" spans="1:86">
-      <c r="A48">
+      <c r="A48" s="1">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1">
+        <v>235388</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.67973</v>
+      </c>
+      <c r="D48" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q48">
         <v>2</v>
       </c>
-      <c r="B48">
+      <c r="R48">
         <v>61610.5</v>
       </c>
-      <c r="C48">
+      <c r="S48">
         <v>0.32462</v>
       </c>
-      <c r="D48">
+      <c r="T48">
         <v>10000</v>
       </c>
       <c r="BT48">
@@ -11063,16 +11671,28 @@
       </c>
     </row>
     <row r="49" spans="1:86">
-      <c r="A49">
+      <c r="A49" s="1">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1">
+        <v>387932</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.79911</v>
+      </c>
+      <c r="D49" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q49">
         <v>4</v>
       </c>
-      <c r="B49">
+      <c r="R49">
         <v>104819</v>
       </c>
-      <c r="C49">
+      <c r="S49">
         <v>0.38161</v>
       </c>
-      <c r="D49">
+      <c r="T49">
         <v>10000</v>
       </c>
       <c r="BT49">
@@ -11093,16 +11713,28 @@
       </c>
     </row>
     <row r="50" spans="1:86">
-      <c r="A50">
+      <c r="A50" s="1">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1">
+        <v>400305</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.79939</v>
+      </c>
+      <c r="D50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q50">
         <v>8</v>
       </c>
-      <c r="B50">
+      <c r="R50">
         <v>195074</v>
       </c>
-      <c r="C50">
+      <c r="S50">
         <v>0.4101</v>
       </c>
-      <c r="D50">
+      <c r="T50">
         <v>10000</v>
       </c>
       <c r="BT50">
@@ -11123,16 +11755,28 @@
       </c>
     </row>
     <row r="51" spans="1:86">
-      <c r="A51">
+      <c r="A51" s="1">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1">
+        <v>520571</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.21021</v>
+      </c>
+      <c r="D51" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q51">
         <v>16</v>
       </c>
-      <c r="B51">
+      <c r="R51">
         <v>325740</v>
       </c>
-      <c r="C51">
+      <c r="S51">
         <v>0.49119</v>
       </c>
-      <c r="D51">
+      <c r="T51">
         <v>10000</v>
       </c>
       <c r="BT51">
@@ -11153,16 +11797,28 @@
       </c>
     </row>
     <row r="52" spans="1:86">
-      <c r="A52">
+      <c r="A52" s="1">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1">
+        <v>423614</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.51081</v>
+      </c>
+      <c r="D52" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q52">
         <v>32</v>
       </c>
-      <c r="B52">
+      <c r="R52">
         <v>486300</v>
       </c>
-      <c r="C52">
+      <c r="S52">
         <v>0.65803</v>
       </c>
-      <c r="D52">
+      <c r="T52">
         <v>10000</v>
       </c>
       <c r="BT52">
@@ -11183,16 +11839,28 @@
       </c>
     </row>
     <row r="53" spans="1:86">
-      <c r="A53">
+      <c r="A53" s="1">
+        <v>127</v>
+      </c>
+      <c r="B53" s="1">
+        <v>655690</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.93689</v>
+      </c>
+      <c r="D53" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q53">
         <v>1</v>
       </c>
-      <c r="B53">
+      <c r="R53">
         <v>27319.4</v>
       </c>
-      <c r="C53">
+      <c r="S53">
         <v>0.36604</v>
       </c>
-      <c r="D53">
+      <c r="T53">
         <v>10000</v>
       </c>
       <c r="BT53">
@@ -11213,16 +11881,28 @@
       </c>
     </row>
     <row r="54" spans="1:86">
-      <c r="A54">
+      <c r="A54" s="1">
+        <v>128</v>
+      </c>
+      <c r="B54" s="1">
+        <v>572902</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2.23424</v>
+      </c>
+      <c r="D54" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q54">
         <v>2</v>
       </c>
-      <c r="B54">
+      <c r="R54">
         <v>59308.5</v>
       </c>
-      <c r="C54">
+      <c r="S54">
         <v>0.33722</v>
       </c>
-      <c r="D54">
+      <c r="T54">
         <v>10000</v>
       </c>
       <c r="BT54">
@@ -11243,16 +11923,28 @@
       </c>
     </row>
     <row r="55" spans="1:86">
-      <c r="A55">
+      <c r="A55" s="1">
+        <v>255</v>
+      </c>
+      <c r="B55" s="1">
+        <v>751855</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3.39161</v>
+      </c>
+      <c r="D55" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q55">
         <v>4</v>
       </c>
-      <c r="B55">
+      <c r="R55">
         <v>108595</v>
       </c>
-      <c r="C55">
+      <c r="S55">
         <v>0.36834</v>
       </c>
-      <c r="D55">
+      <c r="T55">
         <v>10000</v>
       </c>
       <c r="BT55">
@@ -11273,16 +11965,28 @@
       </c>
     </row>
     <row r="56" spans="1:86">
-      <c r="A56">
+      <c r="A56" s="1">
+        <v>256</v>
+      </c>
+      <c r="B56" s="1">
+        <v>685495</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3.73453</v>
+      </c>
+      <c r="D56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q56">
         <v>8</v>
       </c>
-      <c r="B56">
+      <c r="R56">
         <v>189385</v>
       </c>
-      <c r="C56">
+      <c r="S56">
         <v>0.42242</v>
       </c>
-      <c r="D56">
+      <c r="T56">
         <v>10000</v>
       </c>
       <c r="BT56">
@@ -11303,16 +12007,28 @@
       </c>
     </row>
     <row r="57" spans="1:86">
-      <c r="A57">
+      <c r="A57" s="1">
+        <v>511</v>
+      </c>
+      <c r="B57" s="1">
+        <v>791237</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6.45824</v>
+      </c>
+      <c r="D57" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q57">
         <v>16</v>
       </c>
-      <c r="B57">
+      <c r="R57">
         <v>310475</v>
       </c>
-      <c r="C57">
+      <c r="S57">
         <v>0.51534</v>
       </c>
-      <c r="D57">
+      <c r="T57">
         <v>10000</v>
       </c>
       <c r="BT57">
@@ -11333,16 +12049,28 @@
       </c>
     </row>
     <row r="58" spans="1:86">
-      <c r="A58">
+      <c r="A58" s="1">
+        <v>512</v>
+      </c>
+      <c r="B58" s="1">
+        <v>787995</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6.4975</v>
+      </c>
+      <c r="D58" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q58">
         <v>32</v>
       </c>
-      <c r="B58">
+      <c r="R58">
         <v>461115</v>
       </c>
-      <c r="C58">
+      <c r="S58">
         <v>0.69397</v>
       </c>
-      <c r="D58">
+      <c r="T58">
         <v>10000</v>
       </c>
       <c r="BT58">
@@ -11363,16 +12091,28 @@
       </c>
     </row>
     <row r="59" spans="1:86">
-      <c r="A59">
+      <c r="A59" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B59" s="1">
+        <v>809995</v>
+      </c>
+      <c r="C59" s="1">
+        <v>12.6297</v>
+      </c>
+      <c r="D59" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q59">
         <v>1</v>
       </c>
-      <c r="B59">
+      <c r="R59">
         <v>29596.3</v>
       </c>
-      <c r="C59">
+      <c r="S59">
         <v>0.33788</v>
       </c>
-      <c r="D59">
+      <c r="T59">
         <v>10000</v>
       </c>
       <c r="BT59">
@@ -11393,16 +12133,28 @@
       </c>
     </row>
     <row r="60" spans="1:86">
-      <c r="A60">
+      <c r="A60" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B60" s="1">
+        <v>813949</v>
+      </c>
+      <c r="C60" s="1">
+        <v>12.5806</v>
+      </c>
+      <c r="D60" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q60">
         <v>2</v>
       </c>
-      <c r="B60">
+      <c r="R60">
         <v>58754.4</v>
       </c>
-      <c r="C60">
+      <c r="S60">
         <v>0.3404</v>
       </c>
-      <c r="D60">
+      <c r="T60">
         <v>10000</v>
       </c>
       <c r="BT60">
@@ -11423,16 +12175,28 @@
       </c>
     </row>
     <row r="61" spans="1:86">
-      <c r="A61">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>29368.6</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.3405</v>
+      </c>
+      <c r="D61" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q61">
         <v>4</v>
       </c>
-      <c r="B61">
+      <c r="R61">
         <v>114966</v>
       </c>
-      <c r="C61">
+      <c r="S61">
         <v>0.34793</v>
       </c>
-      <c r="D61">
+      <c r="T61">
         <v>10000</v>
       </c>
       <c r="BT61">
@@ -11453,16 +12217,28 @@
       </c>
     </row>
     <row r="62" spans="1:86">
-      <c r="A62">
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1">
+        <v>58616.6</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.3412</v>
+      </c>
+      <c r="D62" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q62">
         <v>8</v>
       </c>
-      <c r="B62">
+      <c r="R62">
         <v>197902</v>
       </c>
-      <c r="C62">
+      <c r="S62">
         <v>0.40424</v>
       </c>
-      <c r="D62">
+      <c r="T62">
         <v>10000</v>
       </c>
       <c r="BT62">
@@ -11483,16 +12259,28 @@
       </c>
     </row>
     <row r="63" spans="1:86">
-      <c r="A63">
+      <c r="A63" s="1">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1">
+        <v>83224.7</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.36047</v>
+      </c>
+      <c r="D63" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q63">
         <v>16</v>
       </c>
-      <c r="B63">
+      <c r="R63">
         <v>346141</v>
       </c>
-      <c r="C63">
+      <c r="S63">
         <v>0.46224</v>
       </c>
-      <c r="D63">
+      <c r="T63">
         <v>10000</v>
       </c>
       <c r="BT63">
@@ -11513,16 +12301,28 @@
       </c>
     </row>
     <row r="64" spans="1:86">
-      <c r="A64">
+      <c r="A64" s="1">
+        <v>4</v>
+      </c>
+      <c r="B64" s="1">
+        <v>109260</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.3661</v>
+      </c>
+      <c r="D64" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q64">
         <v>32</v>
       </c>
-      <c r="B64">
+      <c r="R64">
         <v>464529</v>
       </c>
-      <c r="C64">
+      <c r="S64">
         <v>0.68887</v>
       </c>
-      <c r="D64">
+      <c r="T64">
         <v>10000</v>
       </c>
       <c r="BT64">
@@ -11543,16 +12343,28 @@
       </c>
     </row>
     <row r="65" spans="1:86">
-      <c r="A65">
+      <c r="A65" s="1">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1">
+        <v>180231</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.38839</v>
+      </c>
+      <c r="D65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q65">
         <v>1</v>
       </c>
-      <c r="B65">
+      <c r="R65">
         <v>31940.7</v>
       </c>
-      <c r="C65">
+      <c r="S65">
         <v>0.31308</v>
       </c>
-      <c r="D65">
+      <c r="T65">
         <v>10000</v>
       </c>
       <c r="BT65">
@@ -11573,16 +12385,28 @@
       </c>
     </row>
     <row r="66" spans="1:86">
-      <c r="A66">
+      <c r="A66" s="1">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>208572</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.38356</v>
+      </c>
+      <c r="D66" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q66">
         <v>2</v>
       </c>
-      <c r="B66">
+      <c r="R66">
         <v>53803.9</v>
       </c>
-      <c r="C66">
+      <c r="S66">
         <v>0.37172</v>
       </c>
-      <c r="D66">
+      <c r="T66">
         <v>10000</v>
       </c>
       <c r="BT66">
@@ -11603,16 +12427,28 @@
       </c>
     </row>
     <row r="67" spans="1:86">
-      <c r="A67">
+      <c r="A67" s="1">
+        <v>15</v>
+      </c>
+      <c r="B67" s="1">
+        <v>220287</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.68093</v>
+      </c>
+      <c r="D67" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q67">
         <v>4</v>
       </c>
-      <c r="B67">
+      <c r="R67">
         <v>108000</v>
       </c>
-      <c r="C67">
+      <c r="S67">
         <v>0.37037</v>
       </c>
-      <c r="D67">
+      <c r="T67">
         <v>10000</v>
       </c>
       <c r="BT67">
@@ -11633,16 +12469,28 @@
       </c>
     </row>
     <row r="68" spans="1:86">
-      <c r="A68">
+      <c r="A68" s="1">
+        <v>16</v>
+      </c>
+      <c r="B68" s="1">
+        <v>235166</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.68037</v>
+      </c>
+      <c r="D68" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q68">
         <v>8</v>
       </c>
-      <c r="B68">
+      <c r="R68">
         <v>202194</v>
       </c>
-      <c r="C68">
+      <c r="S68">
         <v>0.39566</v>
       </c>
-      <c r="D68">
+      <c r="T68">
         <v>10000</v>
       </c>
       <c r="BT68">
@@ -11663,16 +12511,28 @@
       </c>
     </row>
     <row r="69" spans="1:86">
-      <c r="A69">
+      <c r="A69" s="1">
+        <v>31</v>
+      </c>
+      <c r="B69" s="1">
+        <v>387563</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.79987</v>
+      </c>
+      <c r="D69" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q69">
         <v>16</v>
       </c>
-      <c r="B69">
+      <c r="R69">
         <v>341829</v>
       </c>
-      <c r="C69">
+      <c r="S69">
         <v>0.46807</v>
       </c>
-      <c r="D69">
+      <c r="T69">
         <v>10000</v>
       </c>
       <c r="BT69">
@@ -11693,16 +12553,28 @@
       </c>
     </row>
     <row r="70" spans="1:86">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>32</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
+        <v>400380</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.79924</v>
+      </c>
+      <c r="D70" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q70">
+        <v>32</v>
+      </c>
+      <c r="R70">
         <v>479839</v>
       </c>
-      <c r="C70">
+      <c r="S70">
         <v>0.66689</v>
       </c>
-      <c r="D70">
+      <c r="T70">
         <v>10000</v>
       </c>
       <c r="BT70">
@@ -11723,16 +12595,28 @@
       </c>
     </row>
     <row r="71" spans="1:86">
-      <c r="A71">
+      <c r="A71" s="1">
+        <v>63</v>
+      </c>
+      <c r="B71" s="1">
+        <v>520635</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.21006</v>
+      </c>
+      <c r="D71" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q71">
         <v>1</v>
       </c>
-      <c r="B71">
+      <c r="R71">
         <v>32104.8</v>
       </c>
-      <c r="C71">
+      <c r="S71">
         <v>0.31148</v>
       </c>
-      <c r="D71">
+      <c r="T71">
         <v>10000</v>
       </c>
       <c r="BT71">
@@ -11753,16 +12637,28 @@
       </c>
     </row>
     <row r="72" spans="1:86">
-      <c r="A72">
+      <c r="A72" s="1">
+        <v>64</v>
+      </c>
+      <c r="B72" s="1">
+        <v>422741</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1.51393</v>
+      </c>
+      <c r="D72" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q72">
         <v>2</v>
       </c>
-      <c r="B72">
+      <c r="R72">
         <v>58290.3</v>
       </c>
-      <c r="C72">
+      <c r="S72">
         <v>0.34311</v>
       </c>
-      <c r="D72">
+      <c r="T72">
         <v>10000</v>
       </c>
       <c r="BT72">
@@ -11783,16 +12679,28 @@
       </c>
     </row>
     <row r="73" spans="1:86">
-      <c r="A73">
+      <c r="A73" s="1">
+        <v>127</v>
+      </c>
+      <c r="B73" s="1">
+        <v>655173</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1.93842</v>
+      </c>
+      <c r="D73" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q73">
         <v>3</v>
       </c>
-      <c r="B73">
+      <c r="R73">
         <v>87711.6</v>
       </c>
-      <c r="C73">
+      <c r="S73">
         <v>0.34203</v>
       </c>
-      <c r="D73">
+      <c r="T73">
         <v>10000</v>
       </c>
       <c r="BT73">
@@ -11813,16 +12721,28 @@
       </c>
     </row>
     <row r="74" spans="1:86">
-      <c r="A74">
+      <c r="A74" s="1">
+        <v>128</v>
+      </c>
+      <c r="B74" s="1">
+        <v>573528</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2.2318</v>
+      </c>
+      <c r="D74" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q74">
         <v>4</v>
       </c>
-      <c r="B74">
+      <c r="R74">
         <v>114048</v>
       </c>
-      <c r="C74">
+      <c r="S74">
         <v>0.35073</v>
       </c>
-      <c r="D74">
+      <c r="T74">
         <v>10000</v>
       </c>
       <c r="BT74">
@@ -11843,16 +12763,28 @@
       </c>
     </row>
     <row r="75" spans="1:86">
-      <c r="A75">
+      <c r="A75" s="1">
+        <v>255</v>
+      </c>
+      <c r="B75" s="1">
+        <v>751955</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3.39116</v>
+      </c>
+      <c r="D75" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q75">
         <v>7</v>
       </c>
-      <c r="B75">
+      <c r="R75">
         <v>188304</v>
       </c>
-      <c r="C75">
+      <c r="S75">
         <v>0.37174</v>
       </c>
-      <c r="D75">
+      <c r="T75">
         <v>10000</v>
       </c>
       <c r="BT75">
@@ -11873,16 +12805,28 @@
       </c>
     </row>
     <row r="76" spans="1:86">
-      <c r="A76">
+      <c r="A76" s="1">
+        <v>256</v>
+      </c>
+      <c r="B76" s="1">
+        <v>684961</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3.73744</v>
+      </c>
+      <c r="D76" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q76">
         <v>8</v>
       </c>
-      <c r="B76">
+      <c r="R76">
         <v>205497</v>
       </c>
-      <c r="C76">
+      <c r="S76">
         <v>0.3893</v>
       </c>
-      <c r="D76">
+      <c r="T76">
         <v>10000</v>
       </c>
       <c r="BT76">
@@ -11903,16 +12847,28 @@
       </c>
     </row>
     <row r="77" spans="1:86">
-      <c r="A77">
+      <c r="A77" s="1">
+        <v>511</v>
+      </c>
+      <c r="B77" s="1">
+        <v>791606</v>
+      </c>
+      <c r="C77" s="1">
+        <v>6.45523</v>
+      </c>
+      <c r="D77" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q77">
         <v>15</v>
       </c>
-      <c r="B77">
+      <c r="R77">
         <v>330135</v>
       </c>
-      <c r="C77">
+      <c r="S77">
         <v>0.45436</v>
       </c>
-      <c r="D77">
+      <c r="T77">
         <v>10000</v>
       </c>
       <c r="BT77">
@@ -11933,16 +12889,28 @@
       </c>
     </row>
     <row r="78" spans="1:86">
-      <c r="A78">
+      <c r="A78" s="1">
+        <v>512</v>
+      </c>
+      <c r="B78" s="1">
+        <v>788046</v>
+      </c>
+      <c r="C78" s="1">
+        <v>6.49708</v>
+      </c>
+      <c r="D78" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q78">
         <v>16</v>
       </c>
-      <c r="B78">
+      <c r="R78">
         <v>342027</v>
       </c>
-      <c r="C78">
+      <c r="S78">
         <v>0.4678</v>
       </c>
-      <c r="D78">
+      <c r="T78">
         <v>10000</v>
       </c>
       <c r="BT78">
@@ -11963,16 +12931,28 @@
       </c>
     </row>
     <row r="79" spans="1:86">
-      <c r="A79">
+      <c r="A79" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B79" s="1">
+        <v>809990</v>
+      </c>
+      <c r="C79" s="1">
+        <v>12.6298</v>
+      </c>
+      <c r="D79" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q79">
         <v>31</v>
       </c>
-      <c r="B79">
+      <c r="R79">
         <v>459920</v>
       </c>
-      <c r="C79">
+      <c r="S79">
         <v>0.67403</v>
       </c>
-      <c r="D79">
+      <c r="T79">
         <v>10000</v>
       </c>
       <c r="BT79">
@@ -11993,16 +12973,28 @@
       </c>
     </row>
     <row r="80" spans="1:86">
-      <c r="A80">
+      <c r="A80" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B80" s="1">
+        <v>813970</v>
+      </c>
+      <c r="C80" s="1">
+        <v>12.5803</v>
+      </c>
+      <c r="D80" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q80">
         <v>32</v>
       </c>
-      <c r="B80">
+      <c r="R80">
         <v>476772</v>
       </c>
-      <c r="C80">
+      <c r="S80">
         <v>0.67118</v>
       </c>
-      <c r="D80">
+      <c r="T80">
         <v>10000</v>
       </c>
       <c r="BT80">
@@ -12023,16 +13015,28 @@
       </c>
     </row>
     <row r="81" spans="1:86">
-      <c r="A81">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
+      <c r="B81" s="1">
+        <v>29419.6</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.33991</v>
+      </c>
+      <c r="D81" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q81">
         <v>63</v>
       </c>
-      <c r="B81">
+      <c r="R81">
         <v>664837</v>
       </c>
-      <c r="C81">
+      <c r="S81">
         <v>0.9476</v>
       </c>
-      <c r="D81">
+      <c r="T81">
         <v>10000</v>
       </c>
       <c r="BT81">
@@ -12053,16 +13057,28 @@
       </c>
     </row>
     <row r="82" spans="1:86">
-      <c r="A82">
+      <c r="A82" s="1">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1">
+        <v>58285.2</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.34314</v>
+      </c>
+      <c r="D82" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q82">
         <v>64</v>
       </c>
-      <c r="B82">
+      <c r="R82">
         <v>603239</v>
       </c>
-      <c r="C82">
+      <c r="S82">
         <v>1.06094</v>
       </c>
-      <c r="D82">
+      <c r="T82">
         <v>10000</v>
       </c>
       <c r="BT82">
@@ -12083,16 +13099,28 @@
       </c>
     </row>
     <row r="83" spans="1:86">
-      <c r="A83">
+      <c r="A83" s="1">
+        <v>3</v>
+      </c>
+      <c r="B83" s="1">
+        <v>82955.4</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.36164</v>
+      </c>
+      <c r="D83" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q83">
         <v>127</v>
       </c>
-      <c r="B83">
+      <c r="R83">
         <v>748600</v>
       </c>
-      <c r="C83">
+      <c r="S83">
         <v>1.6965</v>
       </c>
-      <c r="D83">
+      <c r="T83">
         <v>10000</v>
       </c>
       <c r="BT83">
@@ -12113,16 +13141,28 @@
       </c>
     </row>
     <row r="84" spans="1:86">
-      <c r="A84">
+      <c r="A84" s="1">
+        <v>4</v>
+      </c>
+      <c r="B84" s="1">
+        <v>109182</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.36636</v>
+      </c>
+      <c r="D84" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q84">
         <v>128</v>
       </c>
-      <c r="B84">
+      <c r="R84">
         <v>759558</v>
       </c>
-      <c r="C84">
+      <c r="S84">
         <v>1.68519</v>
       </c>
-      <c r="D84">
+      <c r="T84">
         <v>10000</v>
       </c>
       <c r="BT84">
@@ -12143,16 +13183,28 @@
       </c>
     </row>
     <row r="85" spans="1:86">
-      <c r="A85">
+      <c r="A85" s="1">
+        <v>7</v>
+      </c>
+      <c r="B85" s="1">
+        <v>181507</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.38566</v>
+      </c>
+      <c r="D85" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q85">
         <v>255</v>
       </c>
-      <c r="B85">
+      <c r="R85">
         <v>755218</v>
       </c>
-      <c r="C85">
+      <c r="S85">
         <v>3.37651</v>
       </c>
-      <c r="D85">
+      <c r="T85">
         <v>10000</v>
       </c>
       <c r="BT85">
@@ -12173,16 +13225,28 @@
       </c>
     </row>
     <row r="86" spans="1:86">
-      <c r="A86">
+      <c r="A86" s="1">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>201918</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.3962</v>
+      </c>
+      <c r="D86" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q86">
         <v>256</v>
       </c>
-      <c r="B86">
+      <c r="R86">
         <v>758467</v>
       </c>
-      <c r="C86">
+      <c r="S86">
         <v>3.37523</v>
       </c>
-      <c r="D86">
+      <c r="T86">
         <v>10000</v>
       </c>
       <c r="BT86">
@@ -12203,16 +13267,28 @@
       </c>
     </row>
     <row r="87" spans="1:86">
-      <c r="A87">
+      <c r="A87" s="1">
+        <v>15</v>
+      </c>
+      <c r="B87" s="1">
+        <v>220216</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.68115</v>
+      </c>
+      <c r="D87" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q87">
         <v>511</v>
       </c>
-      <c r="B87">
+      <c r="R87">
         <v>802364</v>
       </c>
-      <c r="C87">
+      <c r="S87">
         <v>6.36868</v>
       </c>
-      <c r="D87">
+      <c r="T87">
         <v>10000</v>
       </c>
       <c r="BT87">
@@ -12233,16 +13309,28 @@
       </c>
     </row>
     <row r="88" spans="1:73">
-      <c r="A88">
+      <c r="A88" s="1">
+        <v>16</v>
+      </c>
+      <c r="B88" s="1">
+        <v>235426</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.67962</v>
+      </c>
+      <c r="D88" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q88">
         <v>512</v>
       </c>
-      <c r="B88">
+      <c r="R88">
         <v>791188</v>
       </c>
-      <c r="C88">
+      <c r="S88">
         <v>6.47128</v>
       </c>
-      <c r="D88">
+      <c r="T88">
         <v>10000</v>
       </c>
       <c r="BT88">
@@ -12253,16 +13341,28 @@
       </c>
     </row>
     <row r="89" spans="1:73">
-      <c r="A89">
+      <c r="A89" s="1">
+        <v>31</v>
+      </c>
+      <c r="B89" s="1">
+        <v>387355</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.8003</v>
+      </c>
+      <c r="D89" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q89">
         <v>1</v>
       </c>
-      <c r="B89">
+      <c r="R89">
         <v>32014.3</v>
       </c>
-      <c r="C89">
+      <c r="S89">
         <v>0.31236</v>
       </c>
-      <c r="D89">
+      <c r="T89">
         <v>10000</v>
       </c>
       <c r="BT89">
@@ -12273,16 +13373,28 @@
       </c>
     </row>
     <row r="90" spans="1:73">
-      <c r="A90">
+      <c r="A90" s="1">
+        <v>32</v>
+      </c>
+      <c r="B90" s="1">
+        <v>400140</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.79972</v>
+      </c>
+      <c r="D90" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q90">
         <v>2</v>
       </c>
-      <c r="B90">
+      <c r="R90">
         <v>54108.2</v>
       </c>
-      <c r="C90">
+      <c r="S90">
         <v>0.36963</v>
       </c>
-      <c r="D90">
+      <c r="T90">
         <v>10000</v>
       </c>
       <c r="BT90">
@@ -12293,16 +13405,28 @@
       </c>
     </row>
     <row r="91" spans="1:73">
-      <c r="A91">
+      <c r="A91" s="1">
+        <v>63</v>
+      </c>
+      <c r="B91" s="1">
+        <v>519305</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1.21316</v>
+      </c>
+      <c r="D91" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q91">
         <v>3</v>
       </c>
-      <c r="B91">
+      <c r="R91">
         <v>85684.9</v>
       </c>
-      <c r="C91">
+      <c r="S91">
         <v>0.35012</v>
       </c>
-      <c r="D91">
+      <c r="T91">
         <v>10000</v>
       </c>
       <c r="BT91">
@@ -12313,16 +13437,28 @@
       </c>
     </row>
     <row r="92" spans="1:73">
-      <c r="A92">
+      <c r="A92" s="1">
+        <v>64</v>
+      </c>
+      <c r="B92" s="1">
+        <v>424482</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1.50772</v>
+      </c>
+      <c r="D92" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q92">
         <v>4</v>
       </c>
-      <c r="B92">
+      <c r="R92">
         <v>115861</v>
       </c>
-      <c r="C92">
+      <c r="S92">
         <v>0.34524</v>
       </c>
-      <c r="D92">
+      <c r="T92">
         <v>10000</v>
       </c>
       <c r="BT92">
@@ -12333,16 +13469,28 @@
       </c>
     </row>
     <row r="93" spans="1:73">
-      <c r="A93">
+      <c r="A93" s="1">
+        <v>127</v>
+      </c>
+      <c r="B93" s="1">
+        <v>655105</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1.93862</v>
+      </c>
+      <c r="D93" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q93">
         <v>7</v>
       </c>
-      <c r="B93">
+      <c r="R93">
         <v>191597</v>
       </c>
-      <c r="C93">
+      <c r="S93">
         <v>0.36535</v>
       </c>
-      <c r="D93">
+      <c r="T93">
         <v>10000</v>
       </c>
       <c r="BT93">
@@ -12353,16 +13501,28 @@
       </c>
     </row>
     <row r="94" spans="1:73">
-      <c r="A94">
+      <c r="A94" s="1">
+        <v>128</v>
+      </c>
+      <c r="B94" s="1">
+        <v>573680</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2.23121</v>
+      </c>
+      <c r="D94" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q94">
         <v>8</v>
       </c>
-      <c r="B94">
+      <c r="R94">
         <v>209561</v>
       </c>
-      <c r="C94">
+      <c r="S94">
         <v>0.38175</v>
       </c>
-      <c r="D94">
+      <c r="T94">
         <v>10000</v>
       </c>
       <c r="BT94">
@@ -12373,16 +13533,28 @@
       </c>
     </row>
     <row r="95" spans="1:73">
-      <c r="A95">
+      <c r="A95" s="1">
+        <v>255</v>
+      </c>
+      <c r="B95" s="1">
+        <v>752055</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3.39071</v>
+      </c>
+      <c r="D95" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q95">
         <v>15</v>
       </c>
-      <c r="B95">
+      <c r="R95">
         <v>349422</v>
       </c>
-      <c r="C95">
+      <c r="S95">
         <v>0.42928</v>
       </c>
-      <c r="D95">
+      <c r="T95">
         <v>10000</v>
       </c>
       <c r="BT95">
@@ -12393,16 +13565,28 @@
       </c>
     </row>
     <row r="96" spans="1:73">
-      <c r="A96">
+      <c r="A96" s="1">
+        <v>256</v>
+      </c>
+      <c r="B96" s="1">
+        <v>685954</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3.73203</v>
+      </c>
+      <c r="D96" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q96">
         <v>16</v>
       </c>
-      <c r="B96">
+      <c r="R96">
         <v>355232</v>
       </c>
-      <c r="C96">
+      <c r="S96">
         <v>0.45041</v>
       </c>
-      <c r="D96">
+      <c r="T96">
         <v>10000</v>
       </c>
       <c r="BT96">
@@ -12413,16 +13597,28 @@
       </c>
     </row>
     <row r="97" spans="1:73">
-      <c r="A97">
+      <c r="A97" s="1">
+        <v>511</v>
+      </c>
+      <c r="B97" s="1">
+        <v>791703</v>
+      </c>
+      <c r="C97" s="1">
+        <v>6.45444</v>
+      </c>
+      <c r="D97" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q97">
         <v>31</v>
       </c>
-      <c r="B97">
+      <c r="R97">
         <v>482318</v>
       </c>
-      <c r="C97">
+      <c r="S97">
         <v>0.64273</v>
       </c>
-      <c r="D97">
+      <c r="T97">
         <v>10000</v>
       </c>
       <c r="BT97">
@@ -12433,16 +13629,28 @@
       </c>
     </row>
     <row r="98" spans="1:73">
-      <c r="A98">
+      <c r="A98" s="1">
+        <v>512</v>
+      </c>
+      <c r="B98" s="1">
+        <v>787932</v>
+      </c>
+      <c r="C98" s="1">
+        <v>6.49802</v>
+      </c>
+      <c r="D98" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q98">
         <v>32</v>
       </c>
-      <c r="B98">
+      <c r="R98">
         <v>455620</v>
       </c>
-      <c r="C98">
+      <c r="S98">
         <v>0.70234</v>
       </c>
-      <c r="D98">
+      <c r="T98">
         <v>10000</v>
       </c>
       <c r="BT98">
@@ -12453,16 +13661,28 @@
       </c>
     </row>
     <row r="99" spans="1:73">
-      <c r="A99">
+      <c r="A99" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B99" s="1">
+        <v>810037</v>
+      </c>
+      <c r="C99" s="1">
+        <v>12.6291</v>
+      </c>
+      <c r="D99" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q99">
         <v>63</v>
       </c>
-      <c r="B99">
+      <c r="R99">
         <v>617956</v>
       </c>
-      <c r="C99">
+      <c r="S99">
         <v>1.01949</v>
       </c>
-      <c r="D99">
+      <c r="T99">
         <v>10000</v>
       </c>
       <c r="BT99">
@@ -12473,16 +13693,28 @@
       </c>
     </row>
     <row r="100" spans="1:73">
-      <c r="A100">
+      <c r="A100" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B100" s="1">
+        <v>813977</v>
+      </c>
+      <c r="C100" s="1">
+        <v>12.5802</v>
+      </c>
+      <c r="D100" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q100">
         <v>64</v>
       </c>
-      <c r="B100">
+      <c r="R100">
         <v>608128</v>
       </c>
-      <c r="C100">
+      <c r="S100">
         <v>1.05241</v>
       </c>
-      <c r="D100">
+      <c r="T100">
         <v>10000</v>
       </c>
       <c r="BT100">
@@ -12493,16 +13725,28 @@
       </c>
     </row>
     <row r="101" spans="1:73">
-      <c r="A101">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1">
+        <v>29442.1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.33965</v>
+      </c>
+      <c r="D101" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q101">
         <v>127</v>
       </c>
-      <c r="B101">
+      <c r="R101">
         <v>730809</v>
       </c>
-      <c r="C101">
+      <c r="S101">
         <v>1.7378</v>
       </c>
-      <c r="D101">
+      <c r="T101">
         <v>10000</v>
       </c>
       <c r="BT101">
@@ -12513,16 +13757,28 @@
       </c>
     </row>
     <row r="102" spans="1:73">
-      <c r="A102">
+      <c r="A102" s="1">
+        <v>2</v>
+      </c>
+      <c r="B102" s="1">
+        <v>58046.7</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.34455</v>
+      </c>
+      <c r="D102" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q102">
         <v>128</v>
       </c>
-      <c r="B102">
+      <c r="R102">
         <v>744797</v>
       </c>
-      <c r="C102">
+      <c r="S102">
         <v>1.71859</v>
       </c>
-      <c r="D102">
+      <c r="T102">
         <v>10000</v>
       </c>
       <c r="BT102">
@@ -12533,16 +13789,28 @@
       </c>
     </row>
     <row r="103" spans="1:73">
-      <c r="A103">
+      <c r="A103" s="1">
+        <v>3</v>
+      </c>
+      <c r="B103" s="1">
+        <v>82708.4</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.36272</v>
+      </c>
+      <c r="D103" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q103">
         <v>255</v>
       </c>
-      <c r="B103">
+      <c r="R103">
         <v>754730</v>
       </c>
-      <c r="C103">
+      <c r="S103">
         <v>3.37869</v>
       </c>
-      <c r="D103">
+      <c r="T103">
         <v>10000</v>
       </c>
       <c r="BT103">
@@ -12553,16 +13821,28 @@
       </c>
     </row>
     <row r="104" spans="1:73">
-      <c r="A104">
+      <c r="A104" s="1">
+        <v>4</v>
+      </c>
+      <c r="B104" s="1">
+        <v>109236</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.36618</v>
+      </c>
+      <c r="D104" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q104">
         <v>256</v>
       </c>
-      <c r="B104">
+      <c r="R104">
         <v>759734</v>
       </c>
-      <c r="C104">
+      <c r="S104">
         <v>3.3696</v>
       </c>
-      <c r="D104">
+      <c r="T104">
         <v>10000</v>
       </c>
       <c r="BT104">
@@ -12573,16 +13853,28 @@
       </c>
     </row>
     <row r="105" spans="1:73">
-      <c r="A105">
+      <c r="A105" s="1">
+        <v>7</v>
+      </c>
+      <c r="B105" s="1">
+        <v>176647</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.39627</v>
+      </c>
+      <c r="D105" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q105">
         <v>511</v>
       </c>
-      <c r="B105">
+      <c r="R105">
         <v>802321</v>
       </c>
-      <c r="C105">
+      <c r="S105">
         <v>6.36902</v>
       </c>
-      <c r="D105">
+      <c r="T105">
         <v>10000</v>
       </c>
       <c r="BT105">
@@ -12593,16 +13885,28 @@
       </c>
     </row>
     <row r="106" spans="1:73">
-      <c r="A106">
+      <c r="A106" s="1">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>202122</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.3958</v>
+      </c>
+      <c r="D106" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q106">
         <v>512</v>
       </c>
-      <c r="B106">
+      <c r="R106">
         <v>792274</v>
       </c>
-      <c r="C106">
+      <c r="S106">
         <v>6.46241</v>
       </c>
-      <c r="D106">
+      <c r="T106">
         <v>10000</v>
       </c>
       <c r="BT106">
@@ -12613,16 +13917,28 @@
       </c>
     </row>
     <row r="107" spans="1:73">
-      <c r="A107">
+      <c r="A107" s="1">
+        <v>15</v>
+      </c>
+      <c r="B107" s="1">
+        <v>219690</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.68278</v>
+      </c>
+      <c r="D107" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q107">
         <v>1</v>
       </c>
-      <c r="B107">
+      <c r="R107">
         <v>29967.9</v>
       </c>
-      <c r="C107">
+      <c r="S107">
         <v>0.33369</v>
       </c>
-      <c r="D107">
+      <c r="T107">
         <v>10000</v>
       </c>
       <c r="BT107">
@@ -12633,16 +13949,28 @@
       </c>
     </row>
     <row r="108" spans="1:73">
-      <c r="A108">
+      <c r="A108" s="1">
+        <v>16</v>
+      </c>
+      <c r="B108" s="1">
+        <v>235294</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="D108" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q108">
         <v>2</v>
       </c>
-      <c r="B108">
+      <c r="R108">
         <v>61385.5</v>
       </c>
-      <c r="C108">
+      <c r="S108">
         <v>0.32581</v>
       </c>
-      <c r="D108">
+      <c r="T108">
         <v>10000</v>
       </c>
       <c r="BT108">
@@ -12653,16 +13981,28 @@
       </c>
     </row>
     <row r="109" spans="1:73">
-      <c r="A109">
+      <c r="A109" s="1">
+        <v>31</v>
+      </c>
+      <c r="B109" s="1">
+        <v>387820</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.79934</v>
+      </c>
+      <c r="D109" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q109">
         <v>3</v>
       </c>
-      <c r="B109">
+      <c r="R109">
         <v>88157.5</v>
       </c>
-      <c r="C109">
+      <c r="S109">
         <v>0.3403</v>
       </c>
-      <c r="D109">
+      <c r="T109">
         <v>10000</v>
       </c>
       <c r="BT109">
@@ -12673,16 +14013,28 @@
       </c>
     </row>
     <row r="110" spans="1:73">
-      <c r="A110">
+      <c r="A110" s="1">
+        <v>32</v>
+      </c>
+      <c r="B110" s="1">
+        <v>400310</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.79938</v>
+      </c>
+      <c r="D110" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q110">
         <v>4</v>
       </c>
-      <c r="B110">
+      <c r="R110">
         <v>107296</v>
       </c>
-      <c r="C110">
+      <c r="S110">
         <v>0.3728</v>
       </c>
-      <c r="D110">
+      <c r="T110">
         <v>10000</v>
       </c>
       <c r="BT110">
@@ -12693,16 +14045,28 @@
       </c>
     </row>
     <row r="111" spans="1:73">
-      <c r="A111">
+      <c r="A111" s="1">
+        <v>63</v>
+      </c>
+      <c r="B111" s="1">
+        <v>520339</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1.21075</v>
+      </c>
+      <c r="D111" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q111">
         <v>7</v>
       </c>
-      <c r="B111">
+      <c r="R111">
         <v>187945</v>
       </c>
-      <c r="C111">
+      <c r="S111">
         <v>0.37245</v>
       </c>
-      <c r="D111">
+      <c r="T111">
         <v>10000</v>
       </c>
       <c r="BT111">
@@ -12713,16 +14077,28 @@
       </c>
     </row>
     <row r="112" spans="1:73">
-      <c r="A112">
+      <c r="A112" s="1">
+        <v>64</v>
+      </c>
+      <c r="B112" s="1">
+        <v>424116</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1.50902</v>
+      </c>
+      <c r="D112" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q112">
         <v>8</v>
       </c>
-      <c r="B112">
+      <c r="R112">
         <v>190858</v>
       </c>
-      <c r="C112">
+      <c r="S112">
         <v>0.41916</v>
       </c>
-      <c r="D112">
+      <c r="T112">
         <v>10000</v>
       </c>
       <c r="BT112">
@@ -12733,16 +14109,28 @@
       </c>
     </row>
     <row r="113" spans="1:73">
-      <c r="A113">
+      <c r="A113" s="1">
+        <v>127</v>
+      </c>
+      <c r="B113" s="1">
+        <v>654541</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1.94029</v>
+      </c>
+      <c r="D113" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q113">
         <v>15</v>
       </c>
-      <c r="B113">
+      <c r="R113">
         <v>333430</v>
       </c>
-      <c r="C113">
+      <c r="S113">
         <v>0.44987</v>
       </c>
-      <c r="D113">
+      <c r="T113">
         <v>10000</v>
       </c>
       <c r="BT113">
@@ -12753,16 +14141,28 @@
       </c>
     </row>
     <row r="114" spans="1:73">
-      <c r="A114">
+      <c r="A114" s="1">
+        <v>128</v>
+      </c>
+      <c r="B114" s="1">
+        <v>572689</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2.23507</v>
+      </c>
+      <c r="D114" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q114">
         <v>16</v>
       </c>
-      <c r="B114">
+      <c r="R114">
         <v>354539</v>
       </c>
-      <c r="C114">
+      <c r="S114">
         <v>0.45129</v>
       </c>
-      <c r="D114">
+      <c r="T114">
         <v>10000</v>
       </c>
       <c r="BT114">
@@ -12773,16 +14173,28 @@
       </c>
     </row>
     <row r="115" spans="1:73">
-      <c r="A115">
+      <c r="A115" s="1">
+        <v>255</v>
+      </c>
+      <c r="B115" s="1">
+        <v>752057</v>
+      </c>
+      <c r="C115" s="1">
+        <v>3.3907</v>
+      </c>
+      <c r="D115" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q115">
         <v>31</v>
       </c>
-      <c r="B115">
+      <c r="R115">
         <v>482723</v>
       </c>
-      <c r="C115">
+      <c r="S115">
         <v>0.64219</v>
       </c>
-      <c r="D115">
+      <c r="T115">
         <v>10000</v>
       </c>
       <c r="BT115">
@@ -12793,16 +14205,28 @@
       </c>
     </row>
     <row r="116" spans="1:73">
-      <c r="A116">
+      <c r="A116" s="1">
+        <v>256</v>
+      </c>
+      <c r="B116" s="1">
+        <v>685807</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3.73283</v>
+      </c>
+      <c r="D116" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q116">
         <v>32</v>
       </c>
-      <c r="B116">
+      <c r="R116">
         <v>490752</v>
       </c>
-      <c r="C116">
+      <c r="S116">
         <v>0.65206</v>
       </c>
-      <c r="D116">
+      <c r="T116">
         <v>10000</v>
       </c>
       <c r="BT116">
@@ -12813,16 +14237,28 @@
       </c>
     </row>
     <row r="117" spans="1:73">
-      <c r="A117">
+      <c r="A117" s="1">
+        <v>511</v>
+      </c>
+      <c r="B117" s="1">
+        <v>791682</v>
+      </c>
+      <c r="C117" s="1">
+        <v>6.45461</v>
+      </c>
+      <c r="D117" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q117">
         <v>63</v>
       </c>
-      <c r="B117">
+      <c r="R117">
         <v>642077</v>
       </c>
-      <c r="C117">
+      <c r="S117">
         <v>0.98119</v>
       </c>
-      <c r="D117">
+      <c r="T117">
         <v>10000</v>
       </c>
       <c r="BT117">
@@ -12833,16 +14269,28 @@
       </c>
     </row>
     <row r="118" spans="1:73">
-      <c r="A118">
+      <c r="A118" s="1">
+        <v>512</v>
+      </c>
+      <c r="B118" s="1">
+        <v>787772</v>
+      </c>
+      <c r="C118" s="1">
+        <v>6.49934</v>
+      </c>
+      <c r="D118" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q118">
         <v>64</v>
       </c>
-      <c r="B118">
+      <c r="R118">
         <v>570960</v>
       </c>
-      <c r="C118">
+      <c r="S118">
         <v>1.12092</v>
       </c>
-      <c r="D118">
+      <c r="T118">
         <v>10000</v>
       </c>
       <c r="BT118">
@@ -12853,16 +14301,28 @@
       </c>
     </row>
     <row r="119" spans="1:73">
-      <c r="A119">
+      <c r="A119" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B119" s="1">
+        <v>810089</v>
+      </c>
+      <c r="C119" s="1">
+        <v>12.6282</v>
+      </c>
+      <c r="D119" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q119">
         <v>127</v>
       </c>
-      <c r="B119">
+      <c r="R119">
         <v>740888</v>
       </c>
-      <c r="C119">
+      <c r="S119">
         <v>1.71416</v>
       </c>
-      <c r="D119">
+      <c r="T119">
         <v>10000</v>
       </c>
       <c r="BT119">
@@ -12873,16 +14333,28 @@
       </c>
     </row>
     <row r="120" spans="1:73">
-      <c r="A120">
+      <c r="A120" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B120" s="1">
+        <v>814024</v>
+      </c>
+      <c r="C120" s="1">
+        <v>12.5795</v>
+      </c>
+      <c r="D120" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q120">
         <v>128</v>
       </c>
-      <c r="B120">
+      <c r="R120">
         <v>735396</v>
       </c>
-      <c r="C120">
+      <c r="S120">
         <v>1.74056</v>
       </c>
-      <c r="D120">
+      <c r="T120">
         <v>10000</v>
       </c>
       <c r="BT120">
@@ -12893,16 +14365,28 @@
       </c>
     </row>
     <row r="121" spans="1:73">
-      <c r="A121">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1">
+        <v>29242.3</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.34197</v>
+      </c>
+      <c r="D121" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q121">
         <v>255</v>
       </c>
-      <c r="B121">
+      <c r="R121">
         <v>745577</v>
       </c>
-      <c r="C121">
+      <c r="S121">
         <v>3.42017</v>
       </c>
-      <c r="D121">
+      <c r="T121">
         <v>10000</v>
       </c>
       <c r="BT121">
@@ -12913,16 +14397,28 @@
       </c>
     </row>
     <row r="122" spans="1:73">
-      <c r="A122">
+      <c r="A122" s="1">
+        <v>2</v>
+      </c>
+      <c r="B122" s="1">
+        <v>58253</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.34333</v>
+      </c>
+      <c r="D122" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q122">
         <v>256</v>
       </c>
-      <c r="B122">
+      <c r="R122">
         <v>761080</v>
       </c>
-      <c r="C122">
+      <c r="S122">
         <v>3.36364</v>
       </c>
-      <c r="D122">
+      <c r="T122">
         <v>10000</v>
       </c>
       <c r="BT122">
@@ -12933,16 +14429,28 @@
       </c>
     </row>
     <row r="123" spans="1:73">
-      <c r="A123">
+      <c r="A123" s="1">
+        <v>3</v>
+      </c>
+      <c r="B123" s="1">
+        <v>82710.7</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.36271</v>
+      </c>
+      <c r="D123" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q123">
         <v>511</v>
       </c>
-      <c r="B123">
+      <c r="R123">
         <v>798133</v>
       </c>
-      <c r="C123">
+      <c r="S123">
         <v>6.40244</v>
       </c>
-      <c r="D123">
+      <c r="T123">
         <v>10000</v>
       </c>
       <c r="BT123">
@@ -12953,16 +14461,28 @@
       </c>
     </row>
     <row r="124" spans="1:73">
-      <c r="A124">
+      <c r="A124" s="1">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1">
+        <v>109099</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.36664</v>
+      </c>
+      <c r="D124" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q124">
         <v>512</v>
       </c>
-      <c r="B124">
+      <c r="R124">
         <v>791303</v>
       </c>
-      <c r="C124">
+      <c r="S124">
         <v>6.47034</v>
       </c>
-      <c r="D124">
+      <c r="T124">
         <v>10000</v>
       </c>
       <c r="BT124">
@@ -12973,16 +14493,28 @@
       </c>
     </row>
     <row r="125" spans="1:73">
-      <c r="A125">
+      <c r="A125" s="1">
+        <v>7</v>
+      </c>
+      <c r="B125" s="1">
+        <v>175840</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.39809</v>
+      </c>
+      <c r="D125" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q125">
         <v>1</v>
       </c>
-      <c r="B125">
+      <c r="R125">
         <v>29931.2</v>
       </c>
-      <c r="C125">
+      <c r="S125">
         <v>0.3341</v>
       </c>
-      <c r="D125">
+      <c r="T125">
         <v>10000</v>
       </c>
       <c r="BT125">
@@ -12993,16 +14525,28 @@
       </c>
     </row>
     <row r="126" spans="1:73">
-      <c r="A126">
+      <c r="A126" s="1">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>202250</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.39555</v>
+      </c>
+      <c r="D126" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q126">
         <v>2</v>
       </c>
-      <c r="B126">
+      <c r="R126">
         <v>60432.1</v>
       </c>
-      <c r="C126">
+      <c r="S126">
         <v>0.33095</v>
       </c>
-      <c r="D126">
+      <c r="T126">
         <v>10000</v>
       </c>
       <c r="BT126">
@@ -13013,16 +14557,28 @@
       </c>
     </row>
     <row r="127" spans="1:73">
-      <c r="A127">
+      <c r="A127" s="1">
+        <v>15</v>
+      </c>
+      <c r="B127" s="1">
+        <v>219729</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.68266</v>
+      </c>
+      <c r="D127" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q127">
         <v>3</v>
       </c>
-      <c r="B127">
+      <c r="R127">
         <v>92980</v>
       </c>
-      <c r="C127">
+      <c r="S127">
         <v>0.32265</v>
       </c>
-      <c r="D127">
+      <c r="T127">
         <v>10000</v>
       </c>
       <c r="BT127">
@@ -13033,16 +14589,28 @@
       </c>
     </row>
     <row r="128" spans="1:73">
-      <c r="A128">
+      <c r="A128" s="1">
+        <v>16</v>
+      </c>
+      <c r="B128" s="1">
+        <v>235194</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.68029</v>
+      </c>
+      <c r="D128" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q128">
         <v>4</v>
       </c>
-      <c r="B128">
+      <c r="R128">
         <v>117661</v>
       </c>
-      <c r="C128">
+      <c r="S128">
         <v>0.33996</v>
       </c>
-      <c r="D128">
+      <c r="T128">
         <v>10000</v>
       </c>
       <c r="BT128">
@@ -13053,16 +14621,28 @@
       </c>
     </row>
     <row r="129" spans="1:73">
-      <c r="A129">
+      <c r="A129" s="1">
+        <v>31</v>
+      </c>
+      <c r="B129" s="1">
+        <v>387757</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.79947</v>
+      </c>
+      <c r="D129" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q129">
         <v>7</v>
       </c>
-      <c r="B129">
+      <c r="R129">
         <v>197050</v>
       </c>
-      <c r="C129">
+      <c r="S129">
         <v>0.35524</v>
       </c>
-      <c r="D129">
+      <c r="T129">
         <v>10000</v>
       </c>
       <c r="BT129">
@@ -13073,16 +14653,28 @@
       </c>
     </row>
     <row r="130" spans="1:73">
-      <c r="A130">
+      <c r="A130" s="1">
+        <v>32</v>
+      </c>
+      <c r="B130" s="1">
+        <v>400095</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.79981</v>
+      </c>
+      <c r="D130" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q130">
         <v>8</v>
       </c>
-      <c r="B130">
+      <c r="R130">
         <v>211032</v>
       </c>
-      <c r="C130">
+      <c r="S130">
         <v>0.37909</v>
       </c>
-      <c r="D130">
+      <c r="T130">
         <v>10000</v>
       </c>
       <c r="BT130">
@@ -13093,16 +14685,28 @@
       </c>
     </row>
     <row r="131" spans="1:73">
-      <c r="A131">
+      <c r="A131" s="1">
+        <v>63</v>
+      </c>
+      <c r="B131" s="1">
+        <v>520433</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1.21053</v>
+      </c>
+      <c r="D131" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q131">
         <v>15</v>
       </c>
-      <c r="B131">
+      <c r="R131">
         <v>350508</v>
       </c>
-      <c r="C131">
+      <c r="S131">
         <v>0.42795</v>
       </c>
-      <c r="D131">
+      <c r="T131">
         <v>10000</v>
       </c>
       <c r="BT131">
@@ -13113,16 +14717,28 @@
       </c>
     </row>
     <row r="132" spans="1:73">
-      <c r="A132">
+      <c r="A132" s="1">
+        <v>64</v>
+      </c>
+      <c r="B132" s="1">
+        <v>424783</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1.50665</v>
+      </c>
+      <c r="D132" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q132">
         <v>16</v>
       </c>
-      <c r="B132">
+      <c r="R132">
         <v>363364</v>
       </c>
-      <c r="C132">
+      <c r="S132">
         <v>0.44033</v>
       </c>
-      <c r="D132">
+      <c r="T132">
         <v>10000</v>
       </c>
       <c r="BT132">
@@ -13133,16 +14749,28 @@
       </c>
     </row>
     <row r="133" spans="1:73">
-      <c r="A133">
+      <c r="A133" s="1">
+        <v>127</v>
+      </c>
+      <c r="B133" s="1">
+        <v>655497</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1.93746</v>
+      </c>
+      <c r="D133" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q133">
         <v>31</v>
       </c>
-      <c r="B133">
+      <c r="R133">
         <v>483861</v>
       </c>
-      <c r="C133">
+      <c r="S133">
         <v>0.64068</v>
       </c>
-      <c r="D133">
+      <c r="T133">
         <v>10000</v>
       </c>
       <c r="BT133">
@@ -13153,16 +14781,28 @@
       </c>
     </row>
     <row r="134" spans="1:73">
-      <c r="A134">
+      <c r="A134" s="1">
+        <v>128</v>
+      </c>
+      <c r="B134" s="1">
+        <v>572638</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2.23527</v>
+      </c>
+      <c r="D134" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q134">
         <v>32</v>
       </c>
-      <c r="B134">
+      <c r="R134">
         <v>504350</v>
       </c>
-      <c r="C134">
+      <c r="S134">
         <v>0.63448</v>
       </c>
-      <c r="D134">
+      <c r="T134">
         <v>10000</v>
       </c>
       <c r="BT134">
@@ -13173,16 +14813,28 @@
       </c>
     </row>
     <row r="135" spans="1:73">
-      <c r="A135">
+      <c r="A135" s="1">
+        <v>255</v>
+      </c>
+      <c r="B135" s="1">
+        <v>751858</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3.3916</v>
+      </c>
+      <c r="D135" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q135">
         <v>63</v>
       </c>
-      <c r="B135">
+      <c r="R135">
         <v>673473</v>
       </c>
-      <c r="C135">
+      <c r="S135">
         <v>0.93545</v>
       </c>
-      <c r="D135">
+      <c r="T135">
         <v>10000</v>
       </c>
       <c r="BT135">
@@ -13193,16 +14845,28 @@
       </c>
     </row>
     <row r="136" spans="1:73">
-      <c r="A136">
+      <c r="A136" s="1">
+        <v>256</v>
+      </c>
+      <c r="B136" s="1">
+        <v>686870</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3.72705</v>
+      </c>
+      <c r="D136" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q136">
         <v>64</v>
       </c>
-      <c r="B136">
+      <c r="R136">
         <v>611972</v>
       </c>
-      <c r="C136">
+      <c r="S136">
         <v>1.0458</v>
       </c>
-      <c r="D136">
+      <c r="T136">
         <v>10000</v>
       </c>
       <c r="BT136">
@@ -13213,16 +14877,28 @@
       </c>
     </row>
     <row r="137" spans="1:73">
-      <c r="A137">
+      <c r="A137" s="1">
+        <v>511</v>
+      </c>
+      <c r="B137" s="1">
+        <v>791123</v>
+      </c>
+      <c r="C137" s="1">
+        <v>6.45917</v>
+      </c>
+      <c r="D137" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q137">
         <v>127</v>
       </c>
-      <c r="B137">
+      <c r="R137">
         <v>746006</v>
       </c>
-      <c r="C137">
+      <c r="S137">
         <v>1.7024</v>
       </c>
-      <c r="D137">
+      <c r="T137">
         <v>10000</v>
       </c>
       <c r="BT137">
@@ -13233,16 +14909,28 @@
       </c>
     </row>
     <row r="138" spans="1:73">
-      <c r="A138">
+      <c r="A138" s="1">
+        <v>512</v>
+      </c>
+      <c r="B138" s="1">
+        <v>787875</v>
+      </c>
+      <c r="C138" s="1">
+        <v>6.49849</v>
+      </c>
+      <c r="D138" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q138">
         <v>128</v>
       </c>
-      <c r="B138">
+      <c r="R138">
         <v>757526</v>
       </c>
-      <c r="C138">
+      <c r="S138">
         <v>1.68971</v>
       </c>
-      <c r="D138">
+      <c r="T138">
         <v>10000</v>
       </c>
       <c r="BT138">
@@ -13253,16 +14941,28 @@
       </c>
     </row>
     <row r="139" spans="1:73">
-      <c r="A139">
+      <c r="A139" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B139" s="1">
+        <v>809713</v>
+      </c>
+      <c r="C139" s="1">
+        <v>12.6341</v>
+      </c>
+      <c r="D139" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q139">
         <v>255</v>
       </c>
-      <c r="B139">
+      <c r="R139">
         <v>757715</v>
       </c>
-      <c r="C139">
+      <c r="S139">
         <v>3.36538</v>
       </c>
-      <c r="D139">
+      <c r="T139">
         <v>10000</v>
       </c>
       <c r="BT139">
@@ -13273,16 +14973,28 @@
       </c>
     </row>
     <row r="140" spans="1:73">
-      <c r="A140">
+      <c r="A140" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B140" s="1">
+        <v>813954</v>
+      </c>
+      <c r="C140" s="1">
+        <v>12.5806</v>
+      </c>
+      <c r="D140" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q140">
         <v>256</v>
       </c>
-      <c r="B140">
+      <c r="R140">
         <v>760574</v>
       </c>
-      <c r="C140">
+      <c r="S140">
         <v>3.36588</v>
       </c>
-      <c r="D140">
+      <c r="T140">
         <v>10000</v>
       </c>
       <c r="BT140">
@@ -13293,16 +15005,28 @@
       </c>
     </row>
     <row r="141" spans="1:73">
-      <c r="A141">
+      <c r="A141" s="1">
+        <v>1</v>
+      </c>
+      <c r="B141" s="1">
+        <v>29525.5</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.33869</v>
+      </c>
+      <c r="D141" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q141">
         <v>511</v>
       </c>
-      <c r="B141">
+      <c r="R141">
         <v>799909</v>
       </c>
-      <c r="C141">
+      <c r="S141">
         <v>6.38823</v>
       </c>
-      <c r="D141">
+      <c r="T141">
         <v>10000</v>
       </c>
       <c r="BT141">
@@ -13313,16 +15037,28 @@
       </c>
     </row>
     <row r="142" spans="1:73">
-      <c r="A142">
+      <c r="A142" s="1">
+        <v>2</v>
+      </c>
+      <c r="B142" s="1">
+        <v>58131.1</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.34405</v>
+      </c>
+      <c r="D142" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q142">
         <v>512</v>
       </c>
-      <c r="B142">
+      <c r="R142">
         <v>798124</v>
       </c>
-      <c r="C142">
+      <c r="S142">
         <v>6.41504</v>
       </c>
-      <c r="D142">
+      <c r="T142">
         <v>10000</v>
       </c>
       <c r="BT142">
@@ -13333,16 +15069,28 @@
       </c>
     </row>
     <row r="143" spans="1:73">
-      <c r="A143">
+      <c r="A143" s="1">
+        <v>3</v>
+      </c>
+      <c r="B143" s="1">
+        <v>82754.1</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.36252</v>
+      </c>
+      <c r="D143" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q143">
         <v>1</v>
       </c>
-      <c r="B143">
+      <c r="R143">
         <v>31289.1</v>
       </c>
-      <c r="C143">
+      <c r="S143">
         <v>0.3196</v>
       </c>
-      <c r="D143">
+      <c r="T143">
         <v>10000</v>
       </c>
       <c r="BT143">
@@ -13353,16 +15101,28 @@
       </c>
     </row>
     <row r="144" spans="1:73">
-      <c r="A144">
+      <c r="A144" s="1">
+        <v>4</v>
+      </c>
+      <c r="B144" s="1">
+        <v>109105</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.36662</v>
+      </c>
+      <c r="D144" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q144">
         <v>2</v>
       </c>
-      <c r="B144">
+      <c r="R144">
         <v>55225.7</v>
       </c>
-      <c r="C144">
+      <c r="S144">
         <v>0.36215</v>
       </c>
-      <c r="D144">
+      <c r="T144">
         <v>10000</v>
       </c>
       <c r="BT144">
@@ -13373,16 +15133,28 @@
       </c>
     </row>
     <row r="145" spans="1:73">
-      <c r="A145">
+      <c r="A145" s="1">
+        <v>7</v>
+      </c>
+      <c r="B145" s="1">
+        <v>182036</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0.38454</v>
+      </c>
+      <c r="D145" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q145">
         <v>3</v>
       </c>
-      <c r="B145">
+      <c r="R145">
         <v>91530.4</v>
       </c>
-      <c r="C145">
+      <c r="S145">
         <v>0.32776</v>
       </c>
-      <c r="D145">
+      <c r="T145">
         <v>10000</v>
       </c>
       <c r="BT145">
@@ -13393,16 +15165,28 @@
       </c>
     </row>
     <row r="146" spans="1:73">
-      <c r="A146">
+      <c r="A146" s="1">
+        <v>8</v>
+      </c>
+      <c r="B146" s="1">
+        <v>200557</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.39889</v>
+      </c>
+      <c r="D146" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q146">
         <v>4</v>
       </c>
-      <c r="B146">
+      <c r="R146">
         <v>114962</v>
       </c>
-      <c r="C146">
+      <c r="S146">
         <v>0.34794</v>
       </c>
-      <c r="D146">
+      <c r="T146">
         <v>10000</v>
       </c>
       <c r="BT146">
@@ -13413,16 +15197,28 @@
       </c>
     </row>
     <row r="147" spans="1:73">
-      <c r="A147">
+      <c r="A147" s="1">
+        <v>15</v>
+      </c>
+      <c r="B147" s="1">
+        <v>219893</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0.68215</v>
+      </c>
+      <c r="D147" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q147">
         <v>7</v>
       </c>
-      <c r="B147">
+      <c r="R147">
         <v>191970</v>
       </c>
-      <c r="C147">
+      <c r="S147">
         <v>0.36464</v>
       </c>
-      <c r="D147">
+      <c r="T147">
         <v>10000</v>
       </c>
       <c r="BT147">
@@ -13433,16 +15229,28 @@
       </c>
     </row>
     <row r="148" spans="1:73">
-      <c r="A148">
+      <c r="A148" s="1">
+        <v>16</v>
+      </c>
+      <c r="B148" s="1">
+        <v>235090</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.68059</v>
+      </c>
+      <c r="D148" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q148">
         <v>8</v>
       </c>
-      <c r="B148">
+      <c r="R148">
         <v>205149</v>
       </c>
-      <c r="C148">
+      <c r="S148">
         <v>0.38996</v>
       </c>
-      <c r="D148">
+      <c r="T148">
         <v>10000</v>
       </c>
       <c r="BT148">
@@ -13453,16 +15261,28 @@
       </c>
     </row>
     <row r="149" spans="1:73">
-      <c r="A149">
+      <c r="A149" s="1">
+        <v>31</v>
+      </c>
+      <c r="B149" s="1">
+        <v>387762</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0.79946</v>
+      </c>
+      <c r="D149" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q149">
         <v>15</v>
       </c>
-      <c r="B149">
+      <c r="R149">
         <v>354937</v>
       </c>
-      <c r="C149">
+      <c r="S149">
         <v>0.42261</v>
       </c>
-      <c r="D149">
+      <c r="T149">
         <v>10000</v>
       </c>
       <c r="BT149">
@@ -13473,16 +15293,28 @@
       </c>
     </row>
     <row r="150" spans="1:73">
-      <c r="A150">
+      <c r="A150" s="1">
+        <v>32</v>
+      </c>
+      <c r="B150" s="1">
+        <v>400410</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.79918</v>
+      </c>
+      <c r="D150" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q150">
         <v>16</v>
       </c>
-      <c r="B150">
+      <c r="R150">
         <v>357183</v>
       </c>
-      <c r="C150">
+      <c r="S150">
         <v>0.44795</v>
       </c>
-      <c r="D150">
+      <c r="T150">
         <v>10000</v>
       </c>
       <c r="BT150">
@@ -13493,16 +15325,28 @@
       </c>
     </row>
     <row r="151" spans="1:73">
-      <c r="A151">
+      <c r="A151" s="1">
+        <v>63</v>
+      </c>
+      <c r="B151" s="1">
+        <v>518501</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1.21504</v>
+      </c>
+      <c r="D151" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q151">
         <v>31</v>
       </c>
-      <c r="B151">
+      <c r="R151">
         <v>483808</v>
       </c>
-      <c r="C151">
+      <c r="S151">
         <v>0.64075</v>
       </c>
-      <c r="D151">
+      <c r="T151">
         <v>10000</v>
       </c>
       <c r="BT151">
@@ -13513,16 +15357,28 @@
       </c>
     </row>
     <row r="152" spans="1:73">
-      <c r="A152">
+      <c r="A152" s="1">
+        <v>64</v>
+      </c>
+      <c r="B152" s="1">
+        <v>425068</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1.50564</v>
+      </c>
+      <c r="D152" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q152">
         <v>32</v>
       </c>
-      <c r="B152">
+      <c r="R152">
         <v>506345</v>
       </c>
-      <c r="C152">
+      <c r="S152">
         <v>0.63198</v>
       </c>
-      <c r="D152">
+      <c r="T152">
         <v>10000</v>
       </c>
       <c r="BT152">
@@ -13533,16 +15389,28 @@
       </c>
     </row>
     <row r="153" spans="1:73">
-      <c r="A153">
+      <c r="A153" s="1">
+        <v>127</v>
+      </c>
+      <c r="B153" s="1">
+        <v>655589</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1.93719</v>
+      </c>
+      <c r="D153" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q153">
         <v>63</v>
       </c>
-      <c r="B153">
+      <c r="R153">
         <v>666956</v>
       </c>
-      <c r="C153">
+      <c r="S153">
         <v>0.94459</v>
       </c>
-      <c r="D153">
+      <c r="T153">
         <v>10000</v>
       </c>
       <c r="BT153">
@@ -13553,16 +15421,28 @@
       </c>
     </row>
     <row r="154" spans="1:73">
-      <c r="A154">
+      <c r="A154" s="1">
+        <v>128</v>
+      </c>
+      <c r="B154" s="1">
+        <v>573189</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2.23312</v>
+      </c>
+      <c r="D154" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q154">
         <v>64</v>
       </c>
-      <c r="B154">
+      <c r="R154">
         <v>625837</v>
       </c>
-      <c r="C154">
+      <c r="S154">
         <v>1.02263</v>
       </c>
-      <c r="D154">
+      <c r="T154">
         <v>10000</v>
       </c>
       <c r="BT154">
@@ -13573,16 +15453,28 @@
       </c>
     </row>
     <row r="155" spans="1:73">
-      <c r="A155">
+      <c r="A155" s="1">
+        <v>255</v>
+      </c>
+      <c r="B155" s="1">
+        <v>751833</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3.39171</v>
+      </c>
+      <c r="D155" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q155">
         <v>127</v>
       </c>
-      <c r="B155">
+      <c r="R155">
         <v>749962</v>
       </c>
-      <c r="C155">
+      <c r="S155">
         <v>1.69342</v>
       </c>
-      <c r="D155">
+      <c r="T155">
         <v>10000</v>
       </c>
       <c r="BT155">
@@ -13593,16 +15485,28 @@
       </c>
     </row>
     <row r="156" spans="1:73">
-      <c r="A156">
+      <c r="A156" s="1">
+        <v>256</v>
+      </c>
+      <c r="B156" s="1">
+        <v>687738</v>
+      </c>
+      <c r="C156" s="1">
+        <v>3.72235</v>
+      </c>
+      <c r="D156" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q156">
         <v>128</v>
       </c>
-      <c r="B156">
+      <c r="R156">
         <v>759139</v>
       </c>
-      <c r="C156">
+      <c r="S156">
         <v>1.68612</v>
       </c>
-      <c r="D156">
+      <c r="T156">
         <v>10000</v>
       </c>
       <c r="BT156">
@@ -13613,16 +15517,28 @@
       </c>
     </row>
     <row r="157" spans="1:73">
-      <c r="A157">
+      <c r="A157" s="1">
+        <v>511</v>
+      </c>
+      <c r="B157" s="1">
+        <v>791312</v>
+      </c>
+      <c r="C157" s="1">
+        <v>6.45763</v>
+      </c>
+      <c r="D157" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q157">
         <v>255</v>
       </c>
-      <c r="B157">
+      <c r="R157">
         <v>757756</v>
       </c>
-      <c r="C157">
+      <c r="S157">
         <v>3.3652</v>
       </c>
-      <c r="D157">
+      <c r="T157">
         <v>10000</v>
       </c>
       <c r="BT157">
@@ -13633,16 +15549,28 @@
       </c>
     </row>
     <row r="158" spans="1:73">
-      <c r="A158">
+      <c r="A158" s="1">
+        <v>512</v>
+      </c>
+      <c r="B158" s="1">
+        <v>787804</v>
+      </c>
+      <c r="C158" s="1">
+        <v>6.49908</v>
+      </c>
+      <c r="D158" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q158">
         <v>256</v>
       </c>
-      <c r="B158">
+      <c r="R158">
         <v>760727</v>
       </c>
-      <c r="C158">
+      <c r="S158">
         <v>3.3652</v>
       </c>
-      <c r="D158">
+      <c r="T158">
         <v>10000</v>
       </c>
       <c r="BT158">
@@ -13653,16 +15581,28 @@
       </c>
     </row>
     <row r="159" spans="1:73">
-      <c r="A159">
+      <c r="A159" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B159" s="1">
+        <v>809952</v>
+      </c>
+      <c r="C159" s="1">
+        <v>12.6304</v>
+      </c>
+      <c r="D159" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q159">
         <v>511</v>
       </c>
-      <c r="B159">
+      <c r="R159">
         <v>802345</v>
       </c>
-      <c r="C159">
+      <c r="S159">
         <v>6.36883</v>
       </c>
-      <c r="D159">
+      <c r="T159">
         <v>10000</v>
       </c>
       <c r="BT159">
@@ -13673,16 +15613,28 @@
       </c>
     </row>
     <row r="160" spans="1:73">
-      <c r="A160">
+      <c r="A160" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B160" s="1">
+        <v>813950</v>
+      </c>
+      <c r="C160" s="1">
+        <v>12.5806</v>
+      </c>
+      <c r="D160" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q160">
         <v>512</v>
       </c>
-      <c r="B160">
+      <c r="R160">
         <v>800673</v>
       </c>
-      <c r="C160">
+      <c r="S160">
         <v>6.39462</v>
       </c>
-      <c r="D160">
+      <c r="T160">
         <v>10000</v>
       </c>
       <c r="BT160">
@@ -13693,16 +15645,28 @@
       </c>
     </row>
     <row r="161" spans="1:73">
-      <c r="A161">
+      <c r="A161" s="1">
         <v>1</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
+        <v>29347.9</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0.34074</v>
+      </c>
+      <c r="D161" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q161">
+        <v>1</v>
+      </c>
+      <c r="R161">
         <v>32342.6</v>
       </c>
-      <c r="C161">
+      <c r="S161">
         <v>0.30919</v>
       </c>
-      <c r="D161">
+      <c r="T161">
         <v>10000</v>
       </c>
       <c r="BT161">
@@ -13713,16 +15677,28 @@
       </c>
     </row>
     <row r="162" spans="1:73">
-      <c r="A162">
+      <c r="A162" s="1">
         <v>2</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
+        <v>58038.3</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0.3446</v>
+      </c>
+      <c r="D162" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q162">
+        <v>2</v>
+      </c>
+      <c r="R162">
         <v>61852.5</v>
       </c>
-      <c r="C162">
+      <c r="S162">
         <v>0.32335</v>
       </c>
-      <c r="D162">
+      <c r="T162">
         <v>10000</v>
       </c>
       <c r="BT162">
@@ -13733,16 +15709,28 @@
       </c>
     </row>
     <row r="163" spans="1:73">
-      <c r="A163">
+      <c r="A163" s="1">
         <v>3</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
+        <v>83160.1</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0.36075</v>
+      </c>
+      <c r="D163" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q163">
+        <v>3</v>
+      </c>
+      <c r="R163">
         <v>91835.8</v>
       </c>
-      <c r="C163">
+      <c r="S163">
         <v>0.32667</v>
       </c>
-      <c r="D163">
+      <c r="T163">
         <v>10000</v>
       </c>
       <c r="BT163">
@@ -13753,16 +15741,28 @@
       </c>
     </row>
     <row r="164" spans="1:73">
-      <c r="A164">
+      <c r="A164" s="1">
         <v>4</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
+        <v>109299</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0.36597</v>
+      </c>
+      <c r="D164" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q164">
+        <v>4</v>
+      </c>
+      <c r="R164">
         <v>117751</v>
       </c>
-      <c r="C164">
+      <c r="S164">
         <v>0.3397</v>
       </c>
-      <c r="D164">
+      <c r="T164">
         <v>10000</v>
       </c>
       <c r="BT164">
@@ -13773,16 +15773,28 @@
       </c>
     </row>
     <row r="165" spans="1:73">
-      <c r="A165">
+      <c r="A165" s="1">
         <v>7</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
+        <v>181847</v>
+      </c>
+      <c r="C165" s="1">
+        <v>0.38494</v>
+      </c>
+      <c r="D165" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q165">
+        <v>7</v>
+      </c>
+      <c r="R165">
         <v>196243</v>
       </c>
-      <c r="C165">
+      <c r="S165">
         <v>0.3567</v>
       </c>
-      <c r="D165">
+      <c r="T165">
         <v>10000</v>
       </c>
       <c r="BT165">
@@ -13793,16 +15805,28 @@
       </c>
     </row>
     <row r="166" spans="1:73">
-      <c r="A166">
+      <c r="A166" s="1">
         <v>8</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
+        <v>208057</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0.38451</v>
+      </c>
+      <c r="D166" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q166">
+        <v>8</v>
+      </c>
+      <c r="R166">
         <v>211143</v>
       </c>
-      <c r="C166">
+      <c r="S166">
         <v>0.37889</v>
       </c>
-      <c r="D166">
+      <c r="T166">
         <v>10000</v>
       </c>
       <c r="BT166">
@@ -13813,16 +15837,28 @@
       </c>
     </row>
     <row r="167" spans="1:73">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>15</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
+        <v>220429</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0.68049</v>
+      </c>
+      <c r="D167" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q167">
+        <v>15</v>
+      </c>
+      <c r="R167">
         <v>351165</v>
       </c>
-      <c r="C167">
+      <c r="S167">
         <v>0.42715</v>
       </c>
-      <c r="D167">
+      <c r="T167">
         <v>10000</v>
       </c>
       <c r="BT167">
@@ -13833,16 +15869,28 @@
       </c>
     </row>
     <row r="168" spans="1:73">
-      <c r="A168">
+      <c r="A168" s="1">
         <v>16</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
+        <v>235384</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0.67974</v>
+      </c>
+      <c r="D168" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q168">
+        <v>16</v>
+      </c>
+      <c r="R168">
         <v>360255</v>
       </c>
-      <c r="C168">
+      <c r="S168">
         <v>0.44413</v>
       </c>
-      <c r="D168">
+      <c r="T168">
         <v>10000</v>
       </c>
       <c r="BT168">
@@ -13853,16 +15901,28 @@
       </c>
     </row>
     <row r="169" spans="1:73">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>31</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
+        <v>387437</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0.80013</v>
+      </c>
+      <c r="D169" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q169">
+        <v>31</v>
+      </c>
+      <c r="R169">
         <v>479661</v>
       </c>
-      <c r="C169">
+      <c r="S169">
         <v>0.64629</v>
       </c>
-      <c r="D169">
+      <c r="T169">
         <v>10000</v>
       </c>
       <c r="BT169">
@@ -13873,16 +15933,28 @@
       </c>
     </row>
     <row r="170" spans="1:73">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>32</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
+        <v>400125</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0.79975</v>
+      </c>
+      <c r="D170" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q170">
+        <v>32</v>
+      </c>
+      <c r="R170">
         <v>486463</v>
       </c>
-      <c r="C170">
+      <c r="S170">
         <v>0.65781</v>
       </c>
-      <c r="D170">
+      <c r="T170">
         <v>10000</v>
       </c>
       <c r="BT170">
@@ -13893,16 +15965,28 @@
       </c>
     </row>
     <row r="171" spans="1:73">
-      <c r="A171">
+      <c r="A171" s="1">
         <v>63</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
+        <v>520803</v>
+      </c>
+      <c r="C171" s="1">
+        <v>1.20967</v>
+      </c>
+      <c r="D171" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q171">
+        <v>63</v>
+      </c>
+      <c r="R171">
         <v>668911</v>
       </c>
-      <c r="C171">
+      <c r="S171">
         <v>0.94183</v>
       </c>
-      <c r="D171">
+      <c r="T171">
         <v>10000</v>
       </c>
       <c r="BT171">
@@ -13913,16 +15997,28 @@
       </c>
     </row>
     <row r="172" spans="1:73">
-      <c r="A172">
+      <c r="A172" s="1">
         <v>64</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="1">
+        <v>423844</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1.50999</v>
+      </c>
+      <c r="D172" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q172">
+        <v>64</v>
+      </c>
+      <c r="R172">
         <v>621438</v>
       </c>
-      <c r="C172">
+      <c r="S172">
         <v>1.02987</v>
       </c>
-      <c r="D172">
+      <c r="T172">
         <v>10000</v>
       </c>
       <c r="BT172">
@@ -13933,16 +16029,28 @@
       </c>
     </row>
     <row r="173" spans="1:73">
-      <c r="A173">
+      <c r="A173" s="1">
         <v>127</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="1">
+        <v>655406</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1.93773</v>
+      </c>
+      <c r="D173" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q173">
+        <v>127</v>
+      </c>
+      <c r="R173">
         <v>749869</v>
       </c>
-      <c r="C173">
+      <c r="S173">
         <v>1.69363</v>
       </c>
-      <c r="D173">
+      <c r="T173">
         <v>10000</v>
       </c>
       <c r="BT173">
@@ -13953,16 +16061,28 @@
       </c>
     </row>
     <row r="174" spans="1:73">
-      <c r="A174">
+      <c r="A174" s="1">
         <v>128</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="1">
+        <v>572563</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2.23556</v>
+      </c>
+      <c r="D174" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q174">
+        <v>128</v>
+      </c>
+      <c r="R174">
         <v>760032</v>
       </c>
-      <c r="C174">
+      <c r="S174">
         <v>1.68414</v>
       </c>
-      <c r="D174">
+      <c r="T174">
         <v>10000</v>
       </c>
       <c r="BT174">
@@ -13973,16 +16093,28 @@
       </c>
     </row>
     <row r="175" spans="1:73">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>255</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="1">
+        <v>751725</v>
+      </c>
+      <c r="C175" s="1">
+        <v>3.3922</v>
+      </c>
+      <c r="D175" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q175">
+        <v>255</v>
+      </c>
+      <c r="R175">
         <v>755797</v>
       </c>
-      <c r="C175">
+      <c r="S175">
         <v>3.37392</v>
       </c>
-      <c r="D175">
+      <c r="T175">
         <v>10000</v>
       </c>
       <c r="BT175">
@@ -13993,16 +16125,28 @@
       </c>
     </row>
     <row r="176" spans="1:73">
-      <c r="A176">
+      <c r="A176" s="1">
         <v>256</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="1">
+        <v>685899</v>
+      </c>
+      <c r="C176" s="1">
+        <v>3.73233</v>
+      </c>
+      <c r="D176" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q176">
+        <v>256</v>
+      </c>
+      <c r="R176">
         <v>760113</v>
       </c>
-      <c r="C176">
+      <c r="S176">
         <v>3.36792</v>
       </c>
-      <c r="D176">
+      <c r="T176">
         <v>10000</v>
       </c>
       <c r="BT176">
@@ -14013,16 +16157,28 @@
       </c>
     </row>
     <row r="177" spans="1:73">
-      <c r="A177">
+      <c r="A177" s="1">
         <v>511</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1">
+        <v>791511</v>
+      </c>
+      <c r="C177" s="1">
+        <v>6.45601</v>
+      </c>
+      <c r="D177" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q177">
+        <v>511</v>
+      </c>
+      <c r="R177">
         <v>802275</v>
       </c>
-      <c r="C177">
+      <c r="S177">
         <v>6.36939</v>
       </c>
-      <c r="D177">
+      <c r="T177">
         <v>10000</v>
       </c>
       <c r="BT177">
@@ -14033,16 +16189,28 @@
       </c>
     </row>
     <row r="178" spans="1:73">
-      <c r="A178">
+      <c r="A178" s="1">
         <v>512</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="1">
+        <v>787644</v>
+      </c>
+      <c r="C178" s="1">
+        <v>6.5004</v>
+      </c>
+      <c r="D178" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q178">
+        <v>512</v>
+      </c>
+      <c r="R178">
         <v>789065</v>
       </c>
-      <c r="C178">
+      <c r="S178">
         <v>6.48869</v>
       </c>
-      <c r="D178">
+      <c r="T178">
         <v>10000</v>
       </c>
       <c r="BT178">
@@ -14053,16 +16221,28 @@
       </c>
     </row>
     <row r="179" spans="1:73">
-      <c r="A179">
+      <c r="A179" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B179" s="1">
+        <v>810452</v>
+      </c>
+      <c r="C179" s="1">
+        <v>12.6226</v>
+      </c>
+      <c r="D179" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q179">
         <v>1</v>
       </c>
-      <c r="B179">
+      <c r="R179">
         <v>31715.8</v>
       </c>
-      <c r="C179">
+      <c r="S179">
         <v>0.3153</v>
       </c>
-      <c r="D179">
+      <c r="T179">
         <v>10000</v>
       </c>
       <c r="BT179">
@@ -14073,16 +16253,28 @@
       </c>
     </row>
     <row r="180" spans="1:73">
-      <c r="A180">
+      <c r="A180" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B180" s="1">
+        <v>814018</v>
+      </c>
+      <c r="C180" s="1">
+        <v>12.5796</v>
+      </c>
+      <c r="D180" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q180">
         <v>2</v>
       </c>
-      <c r="B180">
+      <c r="R180">
         <v>54836.6</v>
       </c>
-      <c r="C180">
+      <c r="S180">
         <v>0.36472</v>
       </c>
-      <c r="D180">
+      <c r="T180">
         <v>10000</v>
       </c>
       <c r="BT180">
@@ -14093,16 +16285,28 @@
       </c>
     </row>
     <row r="181" spans="1:73">
-      <c r="A181">
+      <c r="A181" s="1">
+        <v>1</v>
+      </c>
+      <c r="B181" s="1">
+        <v>29129</v>
+      </c>
+      <c r="C181" s="1">
+        <v>0.3433</v>
+      </c>
+      <c r="D181" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q181">
         <v>3</v>
       </c>
-      <c r="B181">
+      <c r="R181">
         <v>80508.8</v>
       </c>
-      <c r="C181">
+      <c r="S181">
         <v>0.37263</v>
       </c>
-      <c r="D181">
+      <c r="T181">
         <v>10000</v>
       </c>
       <c r="BT181">
@@ -14113,16 +16317,28 @@
       </c>
     </row>
     <row r="182" spans="1:73">
-      <c r="A182">
+      <c r="A182" s="1">
+        <v>2</v>
+      </c>
+      <c r="B182" s="1">
+        <v>59319</v>
+      </c>
+      <c r="C182" s="1">
+        <v>0.33716</v>
+      </c>
+      <c r="D182" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q182">
         <v>4</v>
       </c>
-      <c r="B182">
+      <c r="R182">
         <v>108826</v>
       </c>
-      <c r="C182">
+      <c r="S182">
         <v>0.36756</v>
       </c>
-      <c r="D182">
+      <c r="T182">
         <v>10000</v>
       </c>
       <c r="BT182">
@@ -14133,16 +16349,28 @@
       </c>
     </row>
     <row r="183" spans="1:73">
-      <c r="A183">
+      <c r="A183" s="1">
+        <v>3</v>
+      </c>
+      <c r="B183" s="1">
+        <v>83444.6</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0.35952</v>
+      </c>
+      <c r="D183" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q183">
         <v>7</v>
       </c>
-      <c r="B183">
+      <c r="R183">
         <v>183150</v>
       </c>
-      <c r="C183">
+      <c r="S183">
         <v>0.3822</v>
       </c>
-      <c r="D183">
+      <c r="T183">
         <v>10000</v>
       </c>
       <c r="BT183">
@@ -14153,16 +16381,28 @@
       </c>
     </row>
     <row r="184" spans="1:73">
-      <c r="A184">
+      <c r="A184" s="1">
+        <v>4</v>
+      </c>
+      <c r="B184" s="1">
+        <v>109254</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0.36612</v>
+      </c>
+      <c r="D184" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q184">
         <v>8</v>
       </c>
-      <c r="B184">
+      <c r="R184">
         <v>198891</v>
       </c>
-      <c r="C184">
+      <c r="S184">
         <v>0.40223</v>
       </c>
-      <c r="D184">
+      <c r="T184">
         <v>10000</v>
       </c>
       <c r="BT184">
@@ -14173,16 +16413,28 @@
       </c>
     </row>
     <row r="185" spans="1:73">
-      <c r="A185">
+      <c r="A185" s="1">
+        <v>7</v>
+      </c>
+      <c r="B185" s="1">
+        <v>181993</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0.38463</v>
+      </c>
+      <c r="D185" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q185">
         <v>15</v>
       </c>
-      <c r="B185">
+      <c r="R185">
         <v>344305</v>
       </c>
-      <c r="C185">
+      <c r="S185">
         <v>0.43566</v>
       </c>
-      <c r="D185">
+      <c r="T185">
         <v>10000</v>
       </c>
       <c r="BT185">
@@ -14193,16 +16445,28 @@
       </c>
     </row>
     <row r="186" spans="1:73">
-      <c r="A186">
+      <c r="A186" s="1">
+        <v>8</v>
+      </c>
+      <c r="B186" s="1">
+        <v>208263</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0.38413</v>
+      </c>
+      <c r="D186" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q186">
         <v>16</v>
       </c>
-      <c r="B186">
+      <c r="R186">
         <v>362229</v>
       </c>
-      <c r="C186">
+      <c r="S186">
         <v>0.44171</v>
       </c>
-      <c r="D186">
+      <c r="T186">
         <v>10000</v>
       </c>
       <c r="BT186">
@@ -14213,16 +16477,28 @@
       </c>
     </row>
     <row r="187" spans="1:73">
-      <c r="A187">
+      <c r="A187" s="1">
+        <v>15</v>
+      </c>
+      <c r="B187" s="1">
+        <v>220287</v>
+      </c>
+      <c r="C187" s="1">
+        <v>0.68093</v>
+      </c>
+      <c r="D187" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q187">
         <v>31</v>
       </c>
-      <c r="B187">
+      <c r="R187">
         <v>454366</v>
       </c>
-      <c r="C187">
+      <c r="S187">
         <v>0.68227</v>
       </c>
-      <c r="D187">
+      <c r="T187">
         <v>10000</v>
       </c>
       <c r="BT187">
@@ -14233,16 +16509,28 @@
       </c>
     </row>
     <row r="188" spans="1:73">
-      <c r="A188">
+      <c r="A188" s="1">
+        <v>16</v>
+      </c>
+      <c r="B188" s="1">
+        <v>235332</v>
+      </c>
+      <c r="C188" s="1">
+        <v>0.67989</v>
+      </c>
+      <c r="D188" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q188">
         <v>32</v>
       </c>
-      <c r="B188">
+      <c r="R188">
         <v>500133</v>
       </c>
-      <c r="C188">
+      <c r="S188">
         <v>0.63983</v>
       </c>
-      <c r="D188">
+      <c r="T188">
         <v>10000</v>
       </c>
       <c r="BT188">
@@ -14253,16 +16541,28 @@
       </c>
     </row>
     <row r="189" spans="1:73">
-      <c r="A189">
+      <c r="A189" s="1">
+        <v>31</v>
+      </c>
+      <c r="B189" s="1">
+        <v>387825</v>
+      </c>
+      <c r="C189" s="1">
+        <v>0.79933</v>
+      </c>
+      <c r="D189" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q189">
         <v>63</v>
       </c>
-      <c r="B189">
+      <c r="R189">
         <v>653283</v>
       </c>
-      <c r="C189">
+      <c r="S189">
         <v>0.96436</v>
       </c>
-      <c r="D189">
+      <c r="T189">
         <v>10000</v>
       </c>
       <c r="BT189">
@@ -14273,16 +16573,28 @@
       </c>
     </row>
     <row r="190" spans="1:73">
-      <c r="A190">
+      <c r="A190" s="1">
+        <v>32</v>
+      </c>
+      <c r="B190" s="1">
+        <v>400155</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0.79969</v>
+      </c>
+      <c r="D190" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q190">
         <v>64</v>
       </c>
-      <c r="B190">
+      <c r="R190">
         <v>624640</v>
       </c>
-      <c r="C190">
+      <c r="S190">
         <v>1.02459</v>
       </c>
-      <c r="D190">
+      <c r="T190">
         <v>10000</v>
       </c>
       <c r="BT190">
@@ -14293,16 +16605,28 @@
       </c>
     </row>
     <row r="191" spans="1:73">
-      <c r="A191">
+      <c r="A191" s="1">
+        <v>63</v>
+      </c>
+      <c r="B191" s="1">
+        <v>520696</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1.20992</v>
+      </c>
+      <c r="D191" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q191">
         <v>127</v>
       </c>
-      <c r="B191">
+      <c r="R191">
         <v>742703</v>
       </c>
-      <c r="C191">
+      <c r="S191">
         <v>1.70997</v>
       </c>
-      <c r="D191">
+      <c r="T191">
         <v>10000</v>
       </c>
       <c r="BT191">
@@ -14313,16 +16637,28 @@
       </c>
     </row>
     <row r="192" spans="1:73">
-      <c r="A192">
+      <c r="A192" s="1">
+        <v>64</v>
+      </c>
+      <c r="B192" s="1">
+        <v>425654</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1.50357</v>
+      </c>
+      <c r="D192" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q192">
         <v>128</v>
       </c>
-      <c r="B192">
+      <c r="R192">
         <v>752848</v>
       </c>
-      <c r="C192">
+      <c r="S192">
         <v>1.70021</v>
       </c>
-      <c r="D192">
+      <c r="T192">
         <v>10000</v>
       </c>
       <c r="BT192">
@@ -14332,1095 +16668,1311 @@
         <v>800969</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193">
+    <row r="193" spans="1:20">
+      <c r="A193" s="1">
+        <v>127</v>
+      </c>
+      <c r="B193" s="1">
+        <v>654670</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1.93991</v>
+      </c>
+      <c r="D193" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q193">
         <v>255</v>
       </c>
-      <c r="B193">
+      <c r="R193">
         <v>757376</v>
       </c>
-      <c r="C193">
+      <c r="S193">
         <v>3.36689</v>
       </c>
-      <c r="D193">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194">
+      <c r="T193">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20">
+      <c r="A194" s="1">
+        <v>128</v>
+      </c>
+      <c r="B194" s="1">
+        <v>571898</v>
+      </c>
+      <c r="C194" s="1">
+        <v>2.23816</v>
+      </c>
+      <c r="D194" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q194">
         <v>256</v>
       </c>
-      <c r="B194">
+      <c r="R194">
         <v>757150</v>
       </c>
-      <c r="C194">
+      <c r="S194">
         <v>3.3811</v>
       </c>
-      <c r="D194">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195">
+      <c r="T194">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20">
+      <c r="A195" s="1">
+        <v>255</v>
+      </c>
+      <c r="B195" s="1">
+        <v>751957</v>
+      </c>
+      <c r="C195" s="1">
+        <v>3.39115</v>
+      </c>
+      <c r="D195" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q195">
         <v>511</v>
       </c>
-      <c r="B195">
+      <c r="R195">
         <v>800870</v>
       </c>
-      <c r="C195">
+      <c r="S195">
         <v>6.38056</v>
       </c>
-      <c r="D195">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196">
+      <c r="T195">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20">
+      <c r="A196" s="1">
+        <v>256</v>
+      </c>
+      <c r="B196" s="1">
+        <v>685588</v>
+      </c>
+      <c r="C196" s="1">
+        <v>3.73402</v>
+      </c>
+      <c r="D196" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q196">
         <v>512</v>
       </c>
-      <c r="B196">
+      <c r="R196">
         <v>784358</v>
       </c>
-      <c r="C196">
+      <c r="S196">
         <v>6.52763</v>
       </c>
-      <c r="D196">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197">
+      <c r="T196">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
+      <c r="A197" s="1">
+        <v>511</v>
+      </c>
+      <c r="B197" s="1">
+        <v>791739</v>
+      </c>
+      <c r="C197" s="1">
+        <v>6.45415</v>
+      </c>
+      <c r="D197" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q197">
         <v>1</v>
       </c>
-      <c r="B197">
+      <c r="R197">
         <v>31103.2</v>
       </c>
-      <c r="C197">
+      <c r="S197">
         <v>0.32151</v>
       </c>
-      <c r="D197">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198">
+      <c r="T197">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20">
+      <c r="A198" s="1">
+        <v>512</v>
+      </c>
+      <c r="B198" s="1">
+        <v>788001</v>
+      </c>
+      <c r="C198" s="1">
+        <v>6.49745</v>
+      </c>
+      <c r="D198" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q198">
         <v>2</v>
       </c>
-      <c r="B198">
+      <c r="R198">
         <v>59959.2</v>
       </c>
-      <c r="C198">
+      <c r="S198">
         <v>0.33356</v>
       </c>
-      <c r="D198">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199">
+      <c r="T198">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20">
+      <c r="A199" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B199" s="1">
+        <v>810124</v>
+      </c>
+      <c r="C199" s="1">
+        <v>12.6277</v>
+      </c>
+      <c r="D199" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q199">
         <v>3</v>
       </c>
-      <c r="B199">
+      <c r="R199">
         <v>87222</v>
       </c>
-      <c r="C199">
+      <c r="S199">
         <v>0.34395</v>
       </c>
-      <c r="D199">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200">
+      <c r="T199">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20">
+      <c r="A200" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B200" s="1">
+        <v>814060</v>
+      </c>
+      <c r="C200" s="1">
+        <v>12.5789</v>
+      </c>
+      <c r="D200" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q200">
         <v>4</v>
       </c>
-      <c r="B200">
+      <c r="R200">
         <v>109114</v>
       </c>
-      <c r="C200">
+      <c r="S200">
         <v>0.36659</v>
       </c>
-      <c r="D200">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201">
+      <c r="T200">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="Q201">
         <v>7</v>
       </c>
-      <c r="B201">
+      <c r="R201">
         <v>179805</v>
       </c>
-      <c r="C201">
+      <c r="S201">
         <v>0.38931</v>
       </c>
-      <c r="D201">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202">
+      <c r="T201">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="Q202">
         <v>8</v>
       </c>
-      <c r="B202">
+      <c r="R202">
         <v>211193</v>
       </c>
-      <c r="C202">
+      <c r="S202">
         <v>0.3788</v>
       </c>
-      <c r="D202">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203">
+      <c r="T202">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="Q203">
         <v>15</v>
       </c>
-      <c r="B203">
+      <c r="R203">
         <v>355939</v>
       </c>
-      <c r="C203">
+      <c r="S203">
         <v>0.42142</v>
       </c>
-      <c r="D203">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204">
+      <c r="T203">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="Q204">
         <v>16</v>
       </c>
-      <c r="B204">
+      <c r="R204">
         <v>362557</v>
       </c>
-      <c r="C204">
+      <c r="S204">
         <v>0.44131</v>
       </c>
-      <c r="D204">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205">
+      <c r="T204">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="Q205">
         <v>31</v>
       </c>
-      <c r="B205">
+      <c r="R205">
         <v>484776</v>
       </c>
-      <c r="C205">
+      <c r="S205">
         <v>0.63947</v>
       </c>
-      <c r="D205">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206">
+      <c r="T205">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="Q206">
         <v>32</v>
       </c>
-      <c r="B206">
+      <c r="R206">
         <v>504080</v>
       </c>
-      <c r="C206">
+      <c r="S206">
         <v>0.63482</v>
       </c>
-      <c r="D206">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207">
+      <c r="T206">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="Q207">
         <v>63</v>
       </c>
-      <c r="B207">
+      <c r="R207">
         <v>662558</v>
       </c>
-      <c r="C207">
+      <c r="S207">
         <v>0.95086</v>
       </c>
-      <c r="D207">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208">
+      <c r="T207">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="Q208">
         <v>64</v>
       </c>
-      <c r="B208">
+      <c r="R208">
         <v>618178</v>
       </c>
-      <c r="C208">
+      <c r="S208">
         <v>1.0353</v>
       </c>
-      <c r="D208">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209">
+      <c r="T208">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="Q209">
         <v>127</v>
       </c>
-      <c r="B209">
+      <c r="R209">
         <v>751408</v>
       </c>
-      <c r="C209">
+      <c r="S209">
         <v>1.69016</v>
       </c>
-      <c r="D209">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210">
+      <c r="T209">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="Q210">
         <v>128</v>
       </c>
-      <c r="B210">
+      <c r="R210">
         <v>753939</v>
       </c>
-      <c r="C210">
+      <c r="S210">
         <v>1.69775</v>
       </c>
-      <c r="D210">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211">
+      <c r="T210">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="Q211">
         <v>255</v>
       </c>
-      <c r="B211">
+      <c r="R211">
         <v>755462</v>
       </c>
-      <c r="C211">
+      <c r="S211">
         <v>3.37542</v>
       </c>
-      <c r="D211">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212">
+      <c r="T211">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="Q212">
         <v>256</v>
       </c>
-      <c r="B212">
+      <c r="R212">
         <v>761327</v>
       </c>
-      <c r="C212">
+      <c r="S212">
         <v>3.36255</v>
       </c>
-      <c r="D212">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213">
+      <c r="T212">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="Q213">
         <v>511</v>
       </c>
-      <c r="B213">
+      <c r="R213">
         <v>799949</v>
       </c>
-      <c r="C213">
+      <c r="S213">
         <v>6.38791</v>
       </c>
-      <c r="D213">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214">
+      <c r="T213">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="Q214">
         <v>512</v>
       </c>
-      <c r="B214">
+      <c r="R214">
         <v>798393</v>
       </c>
-      <c r="C214">
+      <c r="S214">
         <v>6.41288</v>
       </c>
-      <c r="D214">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215">
+      <c r="T214">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="Q215">
         <v>1</v>
       </c>
-      <c r="B215">
+      <c r="R215">
         <v>31783.4</v>
       </c>
-      <c r="C215">
+      <c r="S215">
         <v>0.31463</v>
       </c>
-      <c r="D215">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216">
+      <c r="T215">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="Q216">
         <v>2</v>
       </c>
-      <c r="B216">
+      <c r="R216">
         <v>59375.4</v>
       </c>
-      <c r="C216">
+      <c r="S216">
         <v>0.33684</v>
       </c>
-      <c r="D216">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217">
+      <c r="T216">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="Q217">
         <v>3</v>
       </c>
-      <c r="B217">
+      <c r="R217">
         <v>90738.6</v>
       </c>
-      <c r="C217">
+      <c r="S217">
         <v>0.33062</v>
       </c>
-      <c r="D217">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218">
+      <c r="T217">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="Q218">
         <v>4</v>
       </c>
-      <c r="B218">
+      <c r="R218">
         <v>114387</v>
       </c>
-      <c r="C218">
+      <c r="S218">
         <v>0.34969</v>
       </c>
-      <c r="D218">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219">
+      <c r="T218">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="Q219">
         <v>7</v>
       </c>
-      <c r="B219">
+      <c r="R219">
         <v>196453</v>
       </c>
-      <c r="C219">
+      <c r="S219">
         <v>0.35632</v>
       </c>
-      <c r="D219">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220">
+      <c r="T219">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="Q220">
         <v>8</v>
       </c>
-      <c r="B220">
+      <c r="R220">
         <v>210062</v>
       </c>
-      <c r="C220">
+      <c r="S220">
         <v>0.38084</v>
       </c>
-      <c r="D220">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221">
+      <c r="T220">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="221" spans="17:20">
+      <c r="Q221">
         <v>15</v>
       </c>
-      <c r="B221">
+      <c r="R221">
         <v>355948</v>
       </c>
-      <c r="C221">
+      <c r="S221">
         <v>0.42141</v>
       </c>
-      <c r="D221">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222">
+      <c r="T221">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="222" spans="17:20">
+      <c r="Q222">
         <v>16</v>
       </c>
-      <c r="B222">
+      <c r="R222">
         <v>346553</v>
       </c>
-      <c r="C222">
+      <c r="S222">
         <v>0.46169</v>
       </c>
-      <c r="D222">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223">
+      <c r="T222">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="223" spans="17:20">
+      <c r="Q223">
         <v>31</v>
       </c>
-      <c r="B223">
+      <c r="R223">
         <v>474550</v>
       </c>
-      <c r="C223">
+      <c r="S223">
         <v>0.65325</v>
       </c>
-      <c r="D223">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224">
+      <c r="T223">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="224" spans="17:20">
+      <c r="Q224">
         <v>32</v>
       </c>
-      <c r="B224">
+      <c r="R224">
         <v>498699</v>
       </c>
-      <c r="C224">
+      <c r="S224">
         <v>0.64167</v>
       </c>
-      <c r="D224">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225">
+      <c r="T224">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="225" spans="17:20">
+      <c r="Q225">
         <v>63</v>
       </c>
-      <c r="B225">
+      <c r="R225">
         <v>647715</v>
       </c>
-      <c r="C225">
+      <c r="S225">
         <v>0.97265</v>
       </c>
-      <c r="D225">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226">
+      <c r="T225">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="226" spans="17:20">
+      <c r="Q226">
         <v>64</v>
       </c>
-      <c r="B226">
+      <c r="R226">
         <v>610518</v>
       </c>
-      <c r="C226">
+      <c r="S226">
         <v>1.04829</v>
       </c>
-      <c r="D226">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227">
+      <c r="T226">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="227" spans="17:20">
+      <c r="Q227">
         <v>127</v>
       </c>
-      <c r="B227">
+      <c r="R227">
         <v>742338</v>
       </c>
-      <c r="C227">
+      <c r="S227">
         <v>1.71081</v>
       </c>
-      <c r="D227">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228">
+      <c r="T227">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="228" spans="17:20">
+      <c r="Q228">
         <v>128</v>
       </c>
-      <c r="B228">
+      <c r="R228">
         <v>732550</v>
       </c>
-      <c r="C228">
+      <c r="S228">
         <v>1.74732</v>
       </c>
-      <c r="D228">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229">
+      <c r="T228">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="229" spans="17:20">
+      <c r="Q229">
         <v>255</v>
       </c>
-      <c r="B229">
+      <c r="R229">
         <v>756611</v>
       </c>
-      <c r="C229">
+      <c r="S229">
         <v>3.37029</v>
       </c>
-      <c r="D229">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230">
+      <c r="T229">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="230" spans="17:20">
+      <c r="Q230">
         <v>256</v>
       </c>
-      <c r="B230">
+      <c r="R230">
         <v>760402</v>
       </c>
-      <c r="C230">
+      <c r="S230">
         <v>3.36664</v>
       </c>
-      <c r="D230">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231">
+      <c r="T230">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="231" spans="17:20">
+      <c r="Q231">
         <v>511</v>
       </c>
-      <c r="B231">
+      <c r="R231">
         <v>802343</v>
       </c>
-      <c r="C231">
+      <c r="S231">
         <v>6.36885</v>
       </c>
-      <c r="D231">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232">
+      <c r="T231">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="232" spans="17:20">
+      <c r="Q232">
         <v>512</v>
       </c>
-      <c r="B232">
+      <c r="R232">
         <v>795096</v>
       </c>
-      <c r="C232">
+      <c r="S232">
         <v>6.43947</v>
       </c>
-      <c r="D232">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233">
+      <c r="T232">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="233" spans="17:20">
+      <c r="Q233">
         <v>1</v>
       </c>
-      <c r="B233">
+      <c r="R233">
         <v>31049.2</v>
       </c>
-      <c r="C233">
+      <c r="S233">
         <v>0.32207</v>
       </c>
-      <c r="D233">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234">
+      <c r="T233">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="234" spans="17:20">
+      <c r="Q234">
         <v>2</v>
       </c>
-      <c r="B234">
+      <c r="R234">
         <v>58416.3</v>
       </c>
-      <c r="C234">
+      <c r="S234">
         <v>0.34237</v>
       </c>
-      <c r="D234">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235">
+      <c r="T234">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="235" spans="17:20">
+      <c r="Q235">
         <v>3</v>
       </c>
-      <c r="B235">
+      <c r="R235">
         <v>79681.3</v>
       </c>
-      <c r="C235">
+      <c r="S235">
         <v>0.3765</v>
       </c>
-      <c r="D235">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236">
+      <c r="T235">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="236" spans="17:20">
+      <c r="Q236">
         <v>4</v>
       </c>
-      <c r="B236">
+      <c r="R236">
         <v>109358</v>
       </c>
-      <c r="C236">
+      <c r="S236">
         <v>0.36577</v>
       </c>
-      <c r="D236">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237">
+      <c r="T236">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="237" spans="17:20">
+      <c r="Q237">
         <v>7</v>
       </c>
-      <c r="B237">
+      <c r="R237">
         <v>149391</v>
       </c>
-      <c r="C237">
+      <c r="S237">
         <v>0.46857</v>
       </c>
-      <c r="D237">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238">
+      <c r="T237">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="238" spans="17:20">
+      <c r="Q238">
         <v>8</v>
       </c>
-      <c r="B238">
+      <c r="R238">
         <v>183234</v>
       </c>
-      <c r="C238">
+      <c r="S238">
         <v>0.4366</v>
       </c>
-      <c r="D238">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239">
+      <c r="T238">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="239" spans="17:20">
+      <c r="Q239">
         <v>15</v>
       </c>
-      <c r="B239">
+      <c r="R239">
         <v>333622</v>
       </c>
-      <c r="C239">
+      <c r="S239">
         <v>0.44961</v>
       </c>
-      <c r="D239">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240">
+      <c r="T239">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="240" spans="17:20">
+      <c r="Q240">
         <v>16</v>
       </c>
-      <c r="B240">
+      <c r="R240">
         <v>349132</v>
       </c>
-      <c r="C240">
+      <c r="S240">
         <v>0.45828</v>
       </c>
-      <c r="D240">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241">
+      <c r="T240">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="241" spans="17:20">
+      <c r="Q241">
         <v>31</v>
       </c>
-      <c r="B241">
+      <c r="R241">
         <v>480508</v>
       </c>
-      <c r="C241">
+      <c r="S241">
         <v>0.64515</v>
       </c>
-      <c r="D241">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242">
+      <c r="T241">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="242" spans="17:20">
+      <c r="Q242">
         <v>32</v>
       </c>
-      <c r="B242">
+      <c r="R242">
         <v>482116</v>
       </c>
-      <c r="C242">
+      <c r="S242">
         <v>0.66374</v>
       </c>
-      <c r="D242">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243">
+      <c r="T242">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="243" spans="17:20">
+      <c r="Q243">
         <v>63</v>
       </c>
-      <c r="B243">
+      <c r="R243">
         <v>655158</v>
       </c>
-      <c r="C243">
+      <c r="S243">
         <v>0.9616</v>
       </c>
-      <c r="D243">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244">
+      <c r="T243">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="244" spans="17:20">
+      <c r="Q244">
         <v>64</v>
       </c>
-      <c r="B244">
+      <c r="R244">
         <v>596514</v>
       </c>
-      <c r="C244">
+      <c r="S244">
         <v>1.0729</v>
       </c>
-      <c r="D244">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245">
+      <c r="T244">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="245" spans="17:20">
+      <c r="Q245">
         <v>127</v>
       </c>
-      <c r="B245">
+      <c r="R245">
         <v>736480</v>
       </c>
-      <c r="C245">
+      <c r="S245">
         <v>1.72442</v>
       </c>
-      <c r="D245">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246">
+      <c r="T245">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="246" spans="17:20">
+      <c r="Q246">
         <v>128</v>
       </c>
-      <c r="B246">
+      <c r="R246">
         <v>732806</v>
       </c>
-      <c r="C246">
+      <c r="S246">
         <v>1.74671</v>
       </c>
-      <c r="D246">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247">
+      <c r="T246">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="247" spans="17:20">
+      <c r="Q247">
         <v>255</v>
       </c>
-      <c r="B247">
+      <c r="R247">
         <v>749544</v>
       </c>
-      <c r="C247">
+      <c r="S247">
         <v>3.40207</v>
       </c>
-      <c r="D247">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248">
+      <c r="T247">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="248" spans="17:20">
+      <c r="Q248">
         <v>256</v>
       </c>
-      <c r="B248">
+      <c r="R248">
         <v>757520</v>
       </c>
-      <c r="C248">
+      <c r="S248">
         <v>3.37945</v>
       </c>
-      <c r="D248">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249">
+      <c r="T248">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="249" spans="17:20">
+      <c r="Q249">
         <v>511</v>
       </c>
-      <c r="B249">
+      <c r="R249">
         <v>802229</v>
       </c>
-      <c r="C249">
+      <c r="S249">
         <v>6.36975</v>
       </c>
-      <c r="D249">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250">
+      <c r="T249">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="250" spans="17:20">
+      <c r="Q250">
         <v>512</v>
       </c>
-      <c r="B250">
+      <c r="R250">
         <v>796712</v>
       </c>
-      <c r="C250">
+      <c r="S250">
         <v>6.42641</v>
       </c>
-      <c r="D250">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251">
+      <c r="T250">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="251" spans="9:20">
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="Q251">
         <v>1023</v>
       </c>
-      <c r="B251">
+      <c r="R251">
         <v>838672</v>
       </c>
-      <c r="C251">
+      <c r="S251">
         <v>12.1979</v>
       </c>
-      <c r="D251">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252">
+      <c r="T251">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="252" spans="9:20">
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="Q252">
         <v>1024</v>
       </c>
-      <c r="B252">
+      <c r="R252">
         <v>839296</v>
       </c>
-      <c r="C252">
+      <c r="S252">
         <v>12.2007</v>
       </c>
-      <c r="D252">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253">
+      <c r="T252">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="253" spans="9:20">
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+      <c r="Q253">
         <v>1023</v>
       </c>
-      <c r="B253">
+      <c r="R253">
         <v>838673</v>
       </c>
-      <c r="C253">
+      <c r="S253">
         <v>12.1978</v>
       </c>
-      <c r="D253">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254">
+      <c r="T253">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="254" spans="9:20">
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="Q254">
         <v>1024</v>
       </c>
-      <c r="B254">
+      <c r="R254">
         <v>839947</v>
       </c>
-      <c r="C254">
+      <c r="S254">
         <v>12.1912</v>
       </c>
-      <c r="D254">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255">
+      <c r="T254">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="255" spans="9:20">
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="Q255">
         <v>1023</v>
       </c>
-      <c r="B255">
+      <c r="R255">
         <v>838785</v>
       </c>
-      <c r="C255">
+      <c r="S255">
         <v>12.1962</v>
       </c>
-      <c r="D255">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256">
+      <c r="T255">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="256" spans="9:20">
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+      <c r="Q256">
         <v>1024</v>
       </c>
-      <c r="B256">
+      <c r="R256">
         <v>839743</v>
       </c>
-      <c r="C256">
+      <c r="S256">
         <v>12.1942</v>
       </c>
-      <c r="D256">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257">
+      <c r="T256">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="257" spans="9:20">
+      <c r="I257" s="2"/>
+      <c r="J257" s="2"/>
+      <c r="Q257">
         <v>1023</v>
       </c>
-      <c r="B257">
+      <c r="R257">
         <v>838647</v>
       </c>
-      <c r="C257">
+      <c r="S257">
         <v>12.1982</v>
       </c>
-      <c r="D257">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258">
+      <c r="T257">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="258" spans="9:20">
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+      <c r="Q258">
         <v>1024</v>
       </c>
-      <c r="B258">
+      <c r="R258">
         <v>839537</v>
       </c>
-      <c r="C258">
+      <c r="S258">
         <v>12.1972</v>
       </c>
-      <c r="D258">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259">
+      <c r="T258">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="259" spans="9:20">
+      <c r="I259" s="2"/>
+      <c r="J259" s="2"/>
+      <c r="Q259">
         <v>1023</v>
       </c>
-      <c r="B259">
+      <c r="R259">
         <v>838800</v>
       </c>
-      <c r="C259">
+      <c r="S259">
         <v>12.196</v>
       </c>
-      <c r="D259">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260">
+      <c r="T259">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="260" spans="9:20">
+      <c r="I260" s="2"/>
+      <c r="J260" s="2"/>
+      <c r="Q260">
         <v>1024</v>
       </c>
-      <c r="B260">
+      <c r="R260">
         <v>839954</v>
       </c>
-      <c r="C260">
+      <c r="S260">
         <v>12.1912</v>
       </c>
-      <c r="D260">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261">
+      <c r="T260">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="261" spans="9:20">
+      <c r="I261" s="2"/>
+      <c r="J261" s="2"/>
+      <c r="Q261">
         <v>1023</v>
       </c>
-      <c r="B261">
+      <c r="R261">
         <v>838841</v>
       </c>
-      <c r="C261">
+      <c r="S261">
         <v>12.1954</v>
       </c>
-      <c r="D261">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262">
+      <c r="T261">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="262" spans="9:20">
+      <c r="I262" s="2"/>
+      <c r="J262" s="2"/>
+      <c r="Q262">
         <v>1024</v>
       </c>
-      <c r="B262">
+      <c r="R262">
         <v>840130</v>
       </c>
-      <c r="C262">
+      <c r="S262">
         <v>12.1886</v>
       </c>
-      <c r="D262">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263">
+      <c r="T262">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="263" spans="9:20">
+      <c r="I263" s="2"/>
+      <c r="J263" s="2"/>
+      <c r="Q263">
         <v>1023</v>
       </c>
-      <c r="B263">
+      <c r="R263">
         <v>838703</v>
       </c>
-      <c r="C263">
+      <c r="S263">
         <v>12.1974</v>
       </c>
-      <c r="D263">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264">
+      <c r="T263">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="264" spans="9:20">
+      <c r="I264" s="2"/>
+      <c r="J264" s="2"/>
+      <c r="Q264">
         <v>1024</v>
       </c>
-      <c r="B264">
+      <c r="R264">
         <v>839559</v>
       </c>
-      <c r="C264">
+      <c r="S264">
         <v>12.1969</v>
       </c>
-      <c r="D264">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265">
+      <c r="T264">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="265" spans="9:20">
+      <c r="I265" s="2"/>
+      <c r="J265" s="2"/>
+      <c r="Q265">
         <v>1023</v>
       </c>
-      <c r="B265">
+      <c r="R265">
         <v>838681</v>
       </c>
-      <c r="C265">
+      <c r="S265">
         <v>12.1977</v>
       </c>
-      <c r="D265">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266">
+      <c r="T265">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="266" spans="9:20">
+      <c r="I266" s="2"/>
+      <c r="J266" s="2"/>
+      <c r="Q266">
         <v>1024</v>
       </c>
-      <c r="B266">
+      <c r="R266">
         <v>840671</v>
       </c>
-      <c r="C266">
+      <c r="S266">
         <v>12.1807</v>
       </c>
-      <c r="D266">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267">
+      <c r="T266">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="267" spans="9:20">
+      <c r="I267" s="2"/>
+      <c r="J267" s="2"/>
+      <c r="Q267">
         <v>1023</v>
       </c>
-      <c r="B267">
+      <c r="R267">
         <v>838783</v>
       </c>
-      <c r="C267">
+      <c r="S267">
         <v>12.1962</v>
       </c>
-      <c r="D267">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268">
+      <c r="T267">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="268" spans="9:20">
+      <c r="I268" s="2"/>
+      <c r="J268" s="2"/>
+      <c r="Q268">
         <v>1024</v>
       </c>
-      <c r="B268">
+      <c r="R268">
         <v>839922</v>
       </c>
-      <c r="C268">
+      <c r="S268">
         <v>12.1916</v>
       </c>
-      <c r="D268">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269">
+      <c r="T268">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="269" spans="9:20">
+      <c r="I269" s="2"/>
+      <c r="J269" s="2"/>
+      <c r="Q269">
         <v>1023</v>
       </c>
-      <c r="B269">
+      <c r="R269">
         <v>838839</v>
       </c>
-      <c r="C269">
+      <c r="S269">
         <v>12.1954</v>
       </c>
-      <c r="D269">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270">
+      <c r="T269">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="270" spans="9:20">
+      <c r="I270" s="2"/>
+      <c r="J270" s="2"/>
+      <c r="Q270">
         <v>1024</v>
       </c>
-      <c r="B270">
+      <c r="R270">
         <v>840211</v>
       </c>
-      <c r="C270">
+      <c r="S270">
         <v>12.1874</v>
       </c>
-      <c r="D270">
+      <c r="T270">
         <v>10000</v>
       </c>
     </row>

--- a/Tests/res_in_new_2.xlsx
+++ b/Tests/res_in_new_2.xlsx
@@ -38,40 +38,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,18 +54,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,32 +78,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,15 +101,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +121,66 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -191,25 +191,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,12 +257,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -245,7 +269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,13 +281,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,13 +311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,37 +347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,25 +359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,6 +389,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -424,11 +444,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,32 +474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -487,148 +487,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9708,8 +9708,8 @@
   <sheetPr/>
   <dimension ref="A1:CH602"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D200"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.54545454545455" defaultRowHeight="18"/>
@@ -9726,10 +9726,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>29319.5</v>
+        <v>28839.2</v>
       </c>
       <c r="C1" s="1">
-        <v>0.34107</v>
+        <v>0.34675</v>
       </c>
       <c r="D1" s="1">
         <v>10000</v>
@@ -9752,10 +9752,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>58078.8</v>
+        <v>59352.5</v>
       </c>
       <c r="C2" s="1">
-        <v>0.34436</v>
+        <v>0.33697</v>
       </c>
       <c r="D2" s="1">
         <v>10000</v>
@@ -9778,10 +9778,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>85394.7</v>
+        <v>83542.2</v>
       </c>
       <c r="C3" s="1">
-        <v>0.35131</v>
+        <v>0.3591</v>
       </c>
       <c r="D3" s="1">
         <v>10000</v>
@@ -9804,10 +9804,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>109200</v>
+        <v>108778</v>
       </c>
       <c r="C4" s="1">
-        <v>0.3663</v>
+        <v>0.36772</v>
       </c>
       <c r="D4" s="1">
         <v>10000</v>
@@ -9830,10 +9830,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>181955</v>
+        <v>182539</v>
       </c>
       <c r="C5" s="1">
-        <v>0.38471</v>
+        <v>0.38348</v>
       </c>
       <c r="D5" s="1">
         <v>10000</v>
@@ -9872,10 +9872,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>208366</v>
+        <v>208404</v>
       </c>
       <c r="C6" s="1">
-        <v>0.38394</v>
+        <v>0.38387</v>
       </c>
       <c r="D6" s="1">
         <v>10000</v>
@@ -9914,10 +9914,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>219912</v>
+        <v>220913</v>
       </c>
       <c r="C7" s="1">
-        <v>0.68209</v>
+        <v>0.679</v>
       </c>
       <c r="D7" s="1">
         <v>10000</v>
@@ -9956,10 +9956,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>235360</v>
+        <v>235111</v>
       </c>
       <c r="C8" s="1">
-        <v>0.67981</v>
+        <v>0.68053</v>
       </c>
       <c r="D8" s="1">
         <v>10000</v>
@@ -9998,10 +9998,10 @@
         <v>31</v>
       </c>
       <c r="B9" s="1">
-        <v>387389</v>
+        <v>387762</v>
       </c>
       <c r="C9" s="1">
-        <v>0.80023</v>
+        <v>0.79946</v>
       </c>
       <c r="D9" s="1">
         <v>10000</v>
@@ -10040,10 +10040,10 @@
         <v>32</v>
       </c>
       <c r="B10" s="1">
-        <v>400205</v>
+        <v>400471</v>
       </c>
       <c r="C10" s="1">
-        <v>0.79959</v>
+        <v>0.79906</v>
       </c>
       <c r="D10" s="1">
         <v>10000</v>
@@ -10082,10 +10082,10 @@
         <v>63</v>
       </c>
       <c r="B11" s="1">
-        <v>520549</v>
+        <v>520528</v>
       </c>
       <c r="C11" s="1">
-        <v>1.21026</v>
+        <v>1.21031</v>
       </c>
       <c r="D11" s="1">
         <v>10000</v>
@@ -10124,10 +10124,10 @@
         <v>64</v>
       </c>
       <c r="B12" s="1">
-        <v>422964</v>
+        <v>423171</v>
       </c>
       <c r="C12" s="1">
-        <v>1.51313</v>
+        <v>1.51239</v>
       </c>
       <c r="D12" s="1">
         <v>10000</v>
@@ -10166,10 +10166,10 @@
         <v>127</v>
       </c>
       <c r="B13" s="1">
-        <v>653571</v>
+        <v>650902</v>
       </c>
       <c r="C13" s="1">
-        <v>1.94317</v>
+        <v>1.95114</v>
       </c>
       <c r="D13" s="1">
         <v>10000</v>
@@ -10208,10 +10208,10 @@
         <v>128</v>
       </c>
       <c r="B14" s="1">
-        <v>571822</v>
+        <v>572484</v>
       </c>
       <c r="C14" s="1">
-        <v>2.23846</v>
+        <v>2.23587</v>
       </c>
       <c r="D14" s="1">
         <v>10000</v>
@@ -10247,10 +10247,10 @@
         <v>255</v>
       </c>
       <c r="B15" s="1">
-        <v>751773</v>
+        <v>752237</v>
       </c>
       <c r="C15" s="1">
-        <v>3.39198</v>
+        <v>3.38989</v>
       </c>
       <c r="D15" s="1">
         <v>10000</v>
@@ -10289,10 +10289,10 @@
         <v>256</v>
       </c>
       <c r="B16" s="1">
-        <v>684543</v>
+        <v>684443</v>
       </c>
       <c r="C16" s="1">
-        <v>3.73972</v>
+        <v>3.74027</v>
       </c>
       <c r="D16" s="1">
         <v>10000</v>
@@ -10331,10 +10331,10 @@
         <v>511</v>
       </c>
       <c r="B17" s="1">
-        <v>791307</v>
+        <v>792225</v>
       </c>
       <c r="C17" s="1">
-        <v>6.45767</v>
+        <v>6.45019</v>
       </c>
       <c r="D17" s="1">
         <v>10000</v>
@@ -10373,10 +10373,10 @@
         <v>512</v>
       </c>
       <c r="B18" s="1">
-        <v>788063</v>
+        <v>787548</v>
       </c>
       <c r="C18" s="1">
-        <v>6.49694</v>
+        <v>6.50119</v>
       </c>
       <c r="D18" s="1">
         <v>10000</v>
@@ -10415,10 +10415,10 @@
         <v>1023</v>
       </c>
       <c r="B19" s="1">
-        <v>810010</v>
+        <v>811116</v>
       </c>
       <c r="C19" s="1">
-        <v>12.6295</v>
+        <v>12.6123</v>
       </c>
       <c r="D19" s="1">
         <v>10000</v>
@@ -10457,10 +10457,10 @@
         <v>1024</v>
       </c>
       <c r="B20" s="1">
-        <v>814026</v>
+        <v>813963</v>
       </c>
       <c r="C20" s="1">
-        <v>12.5794</v>
+        <v>12.5804</v>
       </c>
       <c r="D20" s="1">
         <v>10000</v>
@@ -10499,10 +10499,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>29385.8</v>
+        <v>29753</v>
       </c>
       <c r="C21" s="1">
-        <v>0.3403</v>
+        <v>0.3361</v>
       </c>
       <c r="D21" s="1">
         <v>10000</v>
@@ -10541,10 +10541,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="1">
-        <v>57873.7</v>
+        <v>58307.3</v>
       </c>
       <c r="C22" s="1">
-        <v>0.34558</v>
+        <v>0.34301</v>
       </c>
       <c r="D22" s="1">
         <v>10000</v>
@@ -10583,10 +10583,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>83222.4</v>
+        <v>83393.6</v>
       </c>
       <c r="C23" s="1">
-        <v>0.36048</v>
+        <v>0.35974</v>
       </c>
       <c r="D23" s="1">
         <v>10000</v>
@@ -10625,10 +10625,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>109278</v>
+        <v>109430</v>
       </c>
       <c r="C24" s="1">
-        <v>0.36604</v>
+        <v>0.36553</v>
       </c>
       <c r="D24" s="1">
         <v>10000</v>
@@ -10667,10 +10667,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="1">
-        <v>181927</v>
+        <v>182834</v>
       </c>
       <c r="C25" s="1">
-        <v>0.38477</v>
+        <v>0.38286</v>
       </c>
       <c r="D25" s="1">
         <v>10000</v>
@@ -10709,10 +10709,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="1">
-        <v>208035</v>
+        <v>208328</v>
       </c>
       <c r="C26" s="1">
-        <v>0.38455</v>
+        <v>0.38401</v>
       </c>
       <c r="D26" s="1">
         <v>10000</v>
@@ -10751,10 +10751,10 @@
         <v>15</v>
       </c>
       <c r="B27" s="1">
-        <v>220627</v>
+        <v>220829</v>
       </c>
       <c r="C27" s="1">
-        <v>0.67988</v>
+        <v>0.67926</v>
       </c>
       <c r="D27" s="1">
         <v>10000</v>
@@ -10793,10 +10793,10 @@
         <v>16</v>
       </c>
       <c r="B28" s="1">
-        <v>235156</v>
+        <v>235433</v>
       </c>
       <c r="C28" s="1">
-        <v>0.6804</v>
+        <v>0.6796</v>
       </c>
       <c r="D28" s="1">
         <v>10000</v>
@@ -10835,10 +10835,10 @@
         <v>31</v>
       </c>
       <c r="B29" s="1">
-        <v>387728</v>
+        <v>387616</v>
       </c>
       <c r="C29" s="1">
-        <v>0.79953</v>
+        <v>0.79976</v>
       </c>
       <c r="D29" s="1">
         <v>10000</v>
@@ -10877,10 +10877,10 @@
         <v>32</v>
       </c>
       <c r="B30" s="1">
-        <v>399975</v>
+        <v>400140</v>
       </c>
       <c r="C30" s="1">
-        <v>0.80005</v>
+        <v>0.79972</v>
       </c>
       <c r="D30" s="1">
         <v>10000</v>
@@ -10919,10 +10919,10 @@
         <v>63</v>
       </c>
       <c r="B31" s="1">
-        <v>521066</v>
+        <v>520790</v>
       </c>
       <c r="C31" s="1">
-        <v>1.20906</v>
+        <v>1.2097</v>
       </c>
       <c r="D31" s="1">
         <v>10000</v>
@@ -10961,10 +10961,10 @@
         <v>64</v>
       </c>
       <c r="B32" s="1">
-        <v>424175</v>
+        <v>423278</v>
       </c>
       <c r="C32" s="1">
-        <v>1.50881</v>
+        <v>1.51201</v>
       </c>
       <c r="D32" s="1">
         <v>10000</v>
@@ -11003,10 +11003,10 @@
         <v>127</v>
       </c>
       <c r="B33" s="1">
-        <v>653215</v>
+        <v>651817</v>
       </c>
       <c r="C33" s="1">
-        <v>1.94423</v>
+        <v>1.9484</v>
       </c>
       <c r="D33" s="1">
         <v>10000</v>
@@ -11045,10 +11045,10 @@
         <v>128</v>
       </c>
       <c r="B34" s="1">
-        <v>571988</v>
+        <v>571827</v>
       </c>
       <c r="C34" s="1">
-        <v>2.23781</v>
+        <v>2.23844</v>
       </c>
       <c r="D34" s="1">
         <v>10000</v>
@@ -11087,10 +11087,10 @@
         <v>255</v>
       </c>
       <c r="B35" s="1">
-        <v>752106</v>
+        <v>752250</v>
       </c>
       <c r="C35" s="1">
-        <v>3.39048</v>
+        <v>3.38983</v>
       </c>
       <c r="D35" s="1">
         <v>10000</v>
@@ -11129,10 +11129,10 @@
         <v>256</v>
       </c>
       <c r="B36" s="1">
-        <v>685115</v>
+        <v>682537</v>
       </c>
       <c r="C36" s="1">
-        <v>3.7366</v>
+        <v>3.75071</v>
       </c>
       <c r="D36" s="1">
         <v>10000</v>
@@ -11171,10 +11171,10 @@
         <v>511</v>
       </c>
       <c r="B37" s="1">
-        <v>791372</v>
+        <v>792150</v>
       </c>
       <c r="C37" s="1">
-        <v>6.45714</v>
+        <v>6.4508</v>
       </c>
       <c r="D37" s="1">
         <v>10000</v>
@@ -11213,10 +11213,10 @@
         <v>512</v>
       </c>
       <c r="B38" s="1">
-        <v>788199</v>
+        <v>787478</v>
       </c>
       <c r="C38" s="1">
-        <v>6.49582</v>
+        <v>6.50177</v>
       </c>
       <c r="D38" s="1">
         <v>10000</v>
@@ -11255,10 +11255,10 @@
         <v>1023</v>
       </c>
       <c r="B39" s="1">
-        <v>810372</v>
+        <v>810553</v>
       </c>
       <c r="C39" s="1">
-        <v>12.6238</v>
+        <v>12.621</v>
       </c>
       <c r="D39" s="1">
         <v>10000</v>
@@ -11297,10 +11297,10 @@
         <v>1024</v>
       </c>
       <c r="B40" s="1">
-        <v>813978</v>
+        <v>814001</v>
       </c>
       <c r="C40" s="1">
-        <v>12.5802</v>
+        <v>12.5798</v>
       </c>
       <c r="D40" s="1">
         <v>10000</v>
@@ -11339,10 +11339,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="1">
-        <v>29157.1</v>
+        <v>29391</v>
       </c>
       <c r="C41" s="1">
-        <v>0.34297</v>
+        <v>0.34024</v>
       </c>
       <c r="D41" s="1">
         <v>10000</v>
@@ -11381,10 +11381,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="1">
-        <v>57818.5</v>
+        <v>58056.8</v>
       </c>
       <c r="C42" s="1">
-        <v>0.34591</v>
+        <v>0.34449</v>
       </c>
       <c r="D42" s="1">
         <v>10000</v>
@@ -11423,10 +11423,10 @@
         <v>3</v>
       </c>
       <c r="B43" s="1">
-        <v>83280.1</v>
+        <v>82820.3</v>
       </c>
       <c r="C43" s="1">
-        <v>0.36023</v>
+        <v>0.36223</v>
       </c>
       <c r="D43" s="1">
         <v>10000</v>
@@ -11465,10 +11465,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="1">
-        <v>109358</v>
+        <v>109233</v>
       </c>
       <c r="C44" s="1">
-        <v>0.36577</v>
+        <v>0.36619</v>
       </c>
       <c r="D44" s="1">
         <v>10000</v>
@@ -11507,10 +11507,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="1">
-        <v>182734</v>
+        <v>181131</v>
       </c>
       <c r="C45" s="1">
-        <v>0.38307</v>
+        <v>0.38646</v>
       </c>
       <c r="D45" s="1">
         <v>10000</v>
@@ -11549,10 +11549,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="1">
-        <v>207781</v>
+        <v>202650</v>
       </c>
       <c r="C46" s="1">
-        <v>0.38502</v>
+        <v>0.39477</v>
       </c>
       <c r="D46" s="1">
         <v>10000</v>
@@ -11591,10 +11591,10 @@
         <v>15</v>
       </c>
       <c r="B47" s="1">
-        <v>220653</v>
+        <v>219192</v>
       </c>
       <c r="C47" s="1">
-        <v>0.6798</v>
+        <v>0.68433</v>
       </c>
       <c r="D47" s="1">
         <v>10000</v>
@@ -11633,10 +11633,10 @@
         <v>16</v>
       </c>
       <c r="B48" s="1">
-        <v>235388</v>
+        <v>235135</v>
       </c>
       <c r="C48" s="1">
-        <v>0.67973</v>
+        <v>0.68046</v>
       </c>
       <c r="D48" s="1">
         <v>10000</v>
@@ -11675,10 +11675,10 @@
         <v>31</v>
       </c>
       <c r="B49" s="1">
-        <v>387932</v>
+        <v>387956</v>
       </c>
       <c r="C49" s="1">
-        <v>0.79911</v>
+        <v>0.79906</v>
       </c>
       <c r="D49" s="1">
         <v>10000</v>
@@ -11717,10 +11717,10 @@
         <v>32</v>
       </c>
       <c r="B50" s="1">
-        <v>400305</v>
+        <v>398159</v>
       </c>
       <c r="C50" s="1">
-        <v>0.79939</v>
+        <v>0.8037</v>
       </c>
       <c r="D50" s="1">
         <v>10000</v>
@@ -11759,10 +11759,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="1">
-        <v>520571</v>
+        <v>520347</v>
       </c>
       <c r="C51" s="1">
-        <v>1.21021</v>
+        <v>1.21073</v>
       </c>
       <c r="D51" s="1">
         <v>10000</v>
@@ -11801,10 +11801,10 @@
         <v>64</v>
       </c>
       <c r="B52" s="1">
-        <v>423614</v>
+        <v>422942</v>
       </c>
       <c r="C52" s="1">
-        <v>1.51081</v>
+        <v>1.51321</v>
       </c>
       <c r="D52" s="1">
         <v>10000</v>
@@ -11843,10 +11843,10 @@
         <v>127</v>
       </c>
       <c r="B53" s="1">
-        <v>655690</v>
+        <v>652467</v>
       </c>
       <c r="C53" s="1">
-        <v>1.93689</v>
+        <v>1.94646</v>
       </c>
       <c r="D53" s="1">
         <v>10000</v>
@@ -11885,10 +11885,10 @@
         <v>128</v>
       </c>
       <c r="B54" s="1">
-        <v>572902</v>
+        <v>572134</v>
       </c>
       <c r="C54" s="1">
-        <v>2.23424</v>
+        <v>2.23724</v>
       </c>
       <c r="D54" s="1">
         <v>10000</v>
@@ -11927,10 +11927,10 @@
         <v>255</v>
       </c>
       <c r="B55" s="1">
-        <v>751855</v>
+        <v>752053</v>
       </c>
       <c r="C55" s="1">
-        <v>3.39161</v>
+        <v>3.39072</v>
       </c>
       <c r="D55" s="1">
         <v>10000</v>
@@ -11969,10 +11969,10 @@
         <v>256</v>
       </c>
       <c r="B56" s="1">
-        <v>685495</v>
+        <v>683768</v>
       </c>
       <c r="C56" s="1">
-        <v>3.73453</v>
+        <v>3.74396</v>
       </c>
       <c r="D56" s="1">
         <v>10000</v>
@@ -12011,10 +12011,10 @@
         <v>511</v>
       </c>
       <c r="B57" s="1">
-        <v>791237</v>
+        <v>792386</v>
       </c>
       <c r="C57" s="1">
-        <v>6.45824</v>
+        <v>6.44888</v>
       </c>
       <c r="D57" s="1">
         <v>10000</v>
@@ -12053,10 +12053,10 @@
         <v>512</v>
       </c>
       <c r="B58" s="1">
-        <v>787995</v>
+        <v>787645</v>
       </c>
       <c r="C58" s="1">
-        <v>6.4975</v>
+        <v>6.50039</v>
       </c>
       <c r="D58" s="1">
         <v>10000</v>
@@ -12095,10 +12095,10 @@
         <v>1023</v>
       </c>
       <c r="B59" s="1">
-        <v>809995</v>
+        <v>810844</v>
       </c>
       <c r="C59" s="1">
-        <v>12.6297</v>
+        <v>12.6165</v>
       </c>
       <c r="D59" s="1">
         <v>10000</v>
@@ -12137,10 +12137,10 @@
         <v>1024</v>
       </c>
       <c r="B60" s="1">
-        <v>813949</v>
+        <v>814052</v>
       </c>
       <c r="C60" s="1">
-        <v>12.5806</v>
+        <v>12.5791</v>
       </c>
       <c r="D60" s="1">
         <v>10000</v>
@@ -12179,10 +12179,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="1">
-        <v>29368.6</v>
+        <v>29237.2</v>
       </c>
       <c r="C61" s="1">
-        <v>0.3405</v>
+        <v>0.34203</v>
       </c>
       <c r="D61" s="1">
         <v>10000</v>
@@ -12221,10 +12221,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="1">
-        <v>58616.6</v>
+        <v>57865.3</v>
       </c>
       <c r="C62" s="1">
-        <v>0.3412</v>
+        <v>0.34563</v>
       </c>
       <c r="D62" s="1">
         <v>10000</v>
@@ -12263,10 +12263,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="1">
-        <v>83224.7</v>
+        <v>83451.6</v>
       </c>
       <c r="C63" s="1">
-        <v>0.36047</v>
+        <v>0.35949</v>
       </c>
       <c r="D63" s="1">
         <v>10000</v>
@@ -12305,10 +12305,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="1">
-        <v>109260</v>
+        <v>109391</v>
       </c>
       <c r="C64" s="1">
-        <v>0.3661</v>
+        <v>0.36566</v>
       </c>
       <c r="D64" s="1">
         <v>10000</v>
@@ -12347,10 +12347,10 @@
         <v>7</v>
       </c>
       <c r="B65" s="1">
-        <v>180231</v>
+        <v>175751</v>
       </c>
       <c r="C65" s="1">
-        <v>0.38839</v>
+        <v>0.39829</v>
       </c>
       <c r="D65" s="1">
         <v>10000</v>
@@ -12389,10 +12389,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="1">
-        <v>208572</v>
+        <v>201147</v>
       </c>
       <c r="C66" s="1">
-        <v>0.38356</v>
+        <v>0.39772</v>
       </c>
       <c r="D66" s="1">
         <v>10000</v>
@@ -12431,10 +12431,10 @@
         <v>15</v>
       </c>
       <c r="B67" s="1">
-        <v>220287</v>
+        <v>220682</v>
       </c>
       <c r="C67" s="1">
-        <v>0.68093</v>
+        <v>0.67971</v>
       </c>
       <c r="D67" s="1">
         <v>10000</v>
@@ -12473,10 +12473,10 @@
         <v>16</v>
       </c>
       <c r="B68" s="1">
-        <v>235166</v>
+        <v>235353</v>
       </c>
       <c r="C68" s="1">
-        <v>0.68037</v>
+        <v>0.67983</v>
       </c>
       <c r="D68" s="1">
         <v>10000</v>
@@ -12515,10 +12515,10 @@
         <v>31</v>
       </c>
       <c r="B69" s="1">
-        <v>387563</v>
+        <v>387665</v>
       </c>
       <c r="C69" s="1">
-        <v>0.79987</v>
+        <v>0.79966</v>
       </c>
       <c r="D69" s="1">
         <v>10000</v>
@@ -12557,10 +12557,10 @@
         <v>32</v>
       </c>
       <c r="B70" s="1">
-        <v>400380</v>
+        <v>400110</v>
       </c>
       <c r="C70" s="1">
-        <v>0.79924</v>
+        <v>0.79978</v>
       </c>
       <c r="D70" s="1">
         <v>10000</v>
@@ -12599,10 +12599,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="1">
-        <v>520635</v>
+        <v>520468</v>
       </c>
       <c r="C71" s="1">
-        <v>1.21006</v>
+        <v>1.21045</v>
       </c>
       <c r="D71" s="1">
         <v>10000</v>
@@ -12641,10 +12641,10 @@
         <v>64</v>
       </c>
       <c r="B72" s="1">
-        <v>422741</v>
+        <v>424533</v>
       </c>
       <c r="C72" s="1">
-        <v>1.51393</v>
+        <v>1.50754</v>
       </c>
       <c r="D72" s="1">
         <v>10000</v>
@@ -12683,10 +12683,10 @@
         <v>127</v>
       </c>
       <c r="B73" s="1">
-        <v>655173</v>
+        <v>653242</v>
       </c>
       <c r="C73" s="1">
-        <v>1.93842</v>
+        <v>1.94415</v>
       </c>
       <c r="D73" s="1">
         <v>10000</v>
@@ -12725,10 +12725,10 @@
         <v>128</v>
       </c>
       <c r="B74" s="1">
-        <v>573528</v>
+        <v>570901</v>
       </c>
       <c r="C74" s="1">
-        <v>2.2318</v>
+        <v>2.24207</v>
       </c>
       <c r="D74" s="1">
         <v>10000</v>
@@ -12767,10 +12767,10 @@
         <v>255</v>
       </c>
       <c r="B75" s="1">
-        <v>751955</v>
+        <v>752037</v>
       </c>
       <c r="C75" s="1">
-        <v>3.39116</v>
+        <v>3.39079</v>
       </c>
       <c r="D75" s="1">
         <v>10000</v>
@@ -12809,10 +12809,10 @@
         <v>256</v>
       </c>
       <c r="B76" s="1">
-        <v>684961</v>
+        <v>685384</v>
       </c>
       <c r="C76" s="1">
-        <v>3.73744</v>
+        <v>3.73513</v>
       </c>
       <c r="D76" s="1">
         <v>10000</v>
@@ -12851,10 +12851,10 @@
         <v>511</v>
       </c>
       <c r="B77" s="1">
-        <v>791606</v>
+        <v>792652</v>
       </c>
       <c r="C77" s="1">
-        <v>6.45523</v>
+        <v>6.44671</v>
       </c>
       <c r="D77" s="1">
         <v>10000</v>
@@ -12893,10 +12893,10 @@
         <v>512</v>
       </c>
       <c r="B78" s="1">
-        <v>788046</v>
+        <v>787654</v>
       </c>
       <c r="C78" s="1">
-        <v>6.49708</v>
+        <v>6.50032</v>
       </c>
       <c r="D78" s="1">
         <v>10000</v>
@@ -12935,10 +12935,10 @@
         <v>1023</v>
       </c>
       <c r="B79" s="1">
-        <v>809990</v>
+        <v>810703</v>
       </c>
       <c r="C79" s="1">
-        <v>12.6298</v>
+        <v>12.6187</v>
       </c>
       <c r="D79" s="1">
         <v>10000</v>
@@ -12977,10 +12977,10 @@
         <v>1024</v>
       </c>
       <c r="B80" s="1">
-        <v>813970</v>
+        <v>813942</v>
       </c>
       <c r="C80" s="1">
-        <v>12.5803</v>
+        <v>12.5808</v>
       </c>
       <c r="D80" s="1">
         <v>10000</v>
@@ -13019,10 +13019,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="1">
-        <v>29419.6</v>
+        <v>29492.4</v>
       </c>
       <c r="C81" s="1">
-        <v>0.33991</v>
+        <v>0.33907</v>
       </c>
       <c r="D81" s="1">
         <v>10000</v>
@@ -13061,10 +13061,10 @@
         <v>2</v>
       </c>
       <c r="B82" s="1">
-        <v>58285.2</v>
+        <v>58344.8</v>
       </c>
       <c r="C82" s="1">
-        <v>0.34314</v>
+        <v>0.34279</v>
       </c>
       <c r="D82" s="1">
         <v>10000</v>
@@ -13103,10 +13103,10 @@
         <v>3</v>
       </c>
       <c r="B83" s="1">
-        <v>82955.4</v>
+        <v>83114</v>
       </c>
       <c r="C83" s="1">
-        <v>0.36164</v>
+        <v>0.36095</v>
       </c>
       <c r="D83" s="1">
         <v>10000</v>
@@ -13145,10 +13145,10 @@
         <v>4</v>
       </c>
       <c r="B84" s="1">
-        <v>109182</v>
+        <v>109215</v>
       </c>
       <c r="C84" s="1">
-        <v>0.36636</v>
+        <v>0.36625</v>
       </c>
       <c r="D84" s="1">
         <v>10000</v>
@@ -13187,10 +13187,10 @@
         <v>7</v>
       </c>
       <c r="B85" s="1">
-        <v>181507</v>
+        <v>182667</v>
       </c>
       <c r="C85" s="1">
-        <v>0.38566</v>
+        <v>0.38321</v>
       </c>
       <c r="D85" s="1">
         <v>10000</v>
@@ -13229,10 +13229,10 @@
         <v>8</v>
       </c>
       <c r="B86" s="1">
-        <v>201918</v>
+        <v>208529</v>
       </c>
       <c r="C86" s="1">
-        <v>0.3962</v>
+        <v>0.38364</v>
       </c>
       <c r="D86" s="1">
         <v>10000</v>
@@ -13271,10 +13271,10 @@
         <v>15</v>
       </c>
       <c r="B87" s="1">
-        <v>220216</v>
+        <v>219427</v>
       </c>
       <c r="C87" s="1">
-        <v>0.68115</v>
+        <v>0.6836</v>
       </c>
       <c r="D87" s="1">
         <v>10000</v>
@@ -13313,10 +13313,10 @@
         <v>16</v>
       </c>
       <c r="B88" s="1">
-        <v>235426</v>
+        <v>235211</v>
       </c>
       <c r="C88" s="1">
-        <v>0.67962</v>
+        <v>0.68024</v>
       </c>
       <c r="D88" s="1">
         <v>10000</v>
@@ -13345,10 +13345,10 @@
         <v>31</v>
       </c>
       <c r="B89" s="1">
-        <v>387355</v>
+        <v>387040</v>
       </c>
       <c r="C89" s="1">
-        <v>0.8003</v>
+        <v>0.80095</v>
       </c>
       <c r="D89" s="1">
         <v>10000</v>
@@ -13377,10 +13377,10 @@
         <v>32</v>
       </c>
       <c r="B90" s="1">
-        <v>400140</v>
+        <v>400155</v>
       </c>
       <c r="C90" s="1">
-        <v>0.79972</v>
+        <v>0.79969</v>
       </c>
       <c r="D90" s="1">
         <v>10000</v>
@@ -13409,10 +13409,10 @@
         <v>63</v>
       </c>
       <c r="B91" s="1">
-        <v>519305</v>
+        <v>521100</v>
       </c>
       <c r="C91" s="1">
-        <v>1.21316</v>
+        <v>1.20898</v>
       </c>
       <c r="D91" s="1">
         <v>10000</v>
@@ -13441,10 +13441,10 @@
         <v>64</v>
       </c>
       <c r="B92" s="1">
-        <v>424482</v>
+        <v>424420</v>
       </c>
       <c r="C92" s="1">
-        <v>1.50772</v>
+        <v>1.50794</v>
       </c>
       <c r="D92" s="1">
         <v>10000</v>
@@ -13473,10 +13473,10 @@
         <v>127</v>
       </c>
       <c r="B93" s="1">
-        <v>655105</v>
+        <v>652423</v>
       </c>
       <c r="C93" s="1">
-        <v>1.93862</v>
+        <v>1.94659</v>
       </c>
       <c r="D93" s="1">
         <v>10000</v>
@@ -13505,10 +13505,10 @@
         <v>128</v>
       </c>
       <c r="B94" s="1">
-        <v>573680</v>
+        <v>568970</v>
       </c>
       <c r="C94" s="1">
-        <v>2.23121</v>
+        <v>2.24968</v>
       </c>
       <c r="D94" s="1">
         <v>10000</v>
@@ -13537,10 +13537,10 @@
         <v>255</v>
       </c>
       <c r="B95" s="1">
-        <v>752055</v>
+        <v>751909</v>
       </c>
       <c r="C95" s="1">
-        <v>3.39071</v>
+        <v>3.39137</v>
       </c>
       <c r="D95" s="1">
         <v>10000</v>
@@ -13569,10 +13569,10 @@
         <v>256</v>
       </c>
       <c r="B96" s="1">
-        <v>685954</v>
+        <v>686022</v>
       </c>
       <c r="C96" s="1">
-        <v>3.73203</v>
+        <v>3.73166</v>
       </c>
       <c r="D96" s="1">
         <v>10000</v>
@@ -13601,10 +13601,10 @@
         <v>511</v>
       </c>
       <c r="B97" s="1">
-        <v>791703</v>
+        <v>792446</v>
       </c>
       <c r="C97" s="1">
-        <v>6.45444</v>
+        <v>6.44839</v>
       </c>
       <c r="D97" s="1">
         <v>10000</v>
@@ -13633,10 +13633,10 @@
         <v>512</v>
       </c>
       <c r="B98" s="1">
-        <v>787932</v>
+        <v>787841</v>
       </c>
       <c r="C98" s="1">
-        <v>6.49802</v>
+        <v>6.49877</v>
       </c>
       <c r="D98" s="1">
         <v>10000</v>
@@ -13665,10 +13665,10 @@
         <v>1023</v>
       </c>
       <c r="B99" s="1">
-        <v>810037</v>
+        <v>810804</v>
       </c>
       <c r="C99" s="1">
-        <v>12.6291</v>
+        <v>12.6171</v>
       </c>
       <c r="D99" s="1">
         <v>10000</v>
@@ -13697,10 +13697,10 @@
         <v>1024</v>
       </c>
       <c r="B100" s="1">
-        <v>813977</v>
+        <v>813926</v>
       </c>
       <c r="C100" s="1">
-        <v>12.5802</v>
+        <v>12.581</v>
       </c>
       <c r="D100" s="1">
         <v>10000</v>
@@ -13729,10 +13729,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="1">
-        <v>29442.1</v>
+        <v>29348.8</v>
       </c>
       <c r="C101" s="1">
-        <v>0.33965</v>
+        <v>0.34073</v>
       </c>
       <c r="D101" s="1">
         <v>10000</v>
@@ -13761,10 +13761,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="1">
-        <v>58046.7</v>
+        <v>59229.4</v>
       </c>
       <c r="C102" s="1">
-        <v>0.34455</v>
+        <v>0.33767</v>
       </c>
       <c r="D102" s="1">
         <v>10000</v>
@@ -13793,10 +13793,10 @@
         <v>3</v>
       </c>
       <c r="B103" s="1">
-        <v>82708.4</v>
+        <v>85130.5</v>
       </c>
       <c r="C103" s="1">
-        <v>0.36272</v>
+        <v>0.3524</v>
       </c>
       <c r="D103" s="1">
         <v>10000</v>
@@ -13825,10 +13825,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="1">
-        <v>109236</v>
+        <v>109072</v>
       </c>
       <c r="C104" s="1">
-        <v>0.36618</v>
+        <v>0.36673</v>
       </c>
       <c r="D104" s="1">
         <v>10000</v>
@@ -13857,10 +13857,10 @@
         <v>7</v>
       </c>
       <c r="B105" s="1">
-        <v>176647</v>
+        <v>182254</v>
       </c>
       <c r="C105" s="1">
-        <v>0.39627</v>
+        <v>0.38408</v>
       </c>
       <c r="D105" s="1">
         <v>10000</v>
@@ -13889,10 +13889,10 @@
         <v>8</v>
       </c>
       <c r="B106" s="1">
-        <v>202122</v>
+        <v>208883</v>
       </c>
       <c r="C106" s="1">
-        <v>0.3958</v>
+        <v>0.38299</v>
       </c>
       <c r="D106" s="1">
         <v>10000</v>
@@ -13921,10 +13921,10 @@
         <v>15</v>
       </c>
       <c r="B107" s="1">
-        <v>219690</v>
+        <v>219684</v>
       </c>
       <c r="C107" s="1">
-        <v>0.68278</v>
+        <v>0.6828</v>
       </c>
       <c r="D107" s="1">
         <v>10000</v>
@@ -13953,10 +13953,10 @@
         <v>16</v>
       </c>
       <c r="B108" s="1">
-        <v>235294</v>
+        <v>235218</v>
       </c>
       <c r="C108" s="1">
-        <v>0.68</v>
+        <v>0.68022</v>
       </c>
       <c r="D108" s="1">
         <v>10000</v>
@@ -13985,10 +13985,10 @@
         <v>31</v>
       </c>
       <c r="B109" s="1">
-        <v>387820</v>
+        <v>387791</v>
       </c>
       <c r="C109" s="1">
-        <v>0.79934</v>
+        <v>0.7994</v>
       </c>
       <c r="D109" s="1">
         <v>10000</v>
@@ -14017,10 +14017,10 @@
         <v>32</v>
       </c>
       <c r="B110" s="1">
-        <v>400310</v>
+        <v>400325</v>
       </c>
       <c r="C110" s="1">
-        <v>0.79938</v>
+        <v>0.79935</v>
       </c>
       <c r="D110" s="1">
         <v>10000</v>
@@ -14049,10 +14049,10 @@
         <v>63</v>
       </c>
       <c r="B111" s="1">
-        <v>520339</v>
+        <v>520657</v>
       </c>
       <c r="C111" s="1">
-        <v>1.21075</v>
+        <v>1.21001</v>
       </c>
       <c r="D111" s="1">
         <v>10000</v>
@@ -14081,10 +14081,10 @@
         <v>64</v>
       </c>
       <c r="B112" s="1">
-        <v>424116</v>
+        <v>422010</v>
       </c>
       <c r="C112" s="1">
-        <v>1.50902</v>
+        <v>1.51655</v>
       </c>
       <c r="D112" s="1">
         <v>10000</v>
@@ -14113,10 +14113,10 @@
         <v>127</v>
       </c>
       <c r="B113" s="1">
-        <v>654541</v>
+        <v>650158</v>
       </c>
       <c r="C113" s="1">
-        <v>1.94029</v>
+        <v>1.95337</v>
       </c>
       <c r="D113" s="1">
         <v>10000</v>
@@ -14145,10 +14145,10 @@
         <v>128</v>
       </c>
       <c r="B114" s="1">
-        <v>572689</v>
+        <v>571834</v>
       </c>
       <c r="C114" s="1">
-        <v>2.23507</v>
+        <v>2.23841</v>
       </c>
       <c r="D114" s="1">
         <v>10000</v>
@@ -14177,10 +14177,10 @@
         <v>255</v>
       </c>
       <c r="B115" s="1">
-        <v>752057</v>
+        <v>752053</v>
       </c>
       <c r="C115" s="1">
-        <v>3.3907</v>
+        <v>3.39072</v>
       </c>
       <c r="D115" s="1">
         <v>10000</v>
@@ -14209,10 +14209,10 @@
         <v>256</v>
       </c>
       <c r="B116" s="1">
-        <v>685807</v>
+        <v>683936</v>
       </c>
       <c r="C116" s="1">
-        <v>3.73283</v>
+        <v>3.74304</v>
       </c>
       <c r="D116" s="1">
         <v>10000</v>
@@ -14241,10 +14241,10 @@
         <v>511</v>
       </c>
       <c r="B117" s="1">
-        <v>791682</v>
+        <v>792052</v>
       </c>
       <c r="C117" s="1">
-        <v>6.45461</v>
+        <v>6.4516</v>
       </c>
       <c r="D117" s="1">
         <v>10000</v>
@@ -14273,10 +14273,10 @@
         <v>512</v>
       </c>
       <c r="B118" s="1">
-        <v>787772</v>
+        <v>787735</v>
       </c>
       <c r="C118" s="1">
-        <v>6.49934</v>
+        <v>6.49965</v>
       </c>
       <c r="D118" s="1">
         <v>10000</v>
@@ -14305,10 +14305,10 @@
         <v>1023</v>
       </c>
       <c r="B119" s="1">
-        <v>810089</v>
+        <v>810762</v>
       </c>
       <c r="C119" s="1">
-        <v>12.6282</v>
+        <v>12.6178</v>
       </c>
       <c r="D119" s="1">
         <v>10000</v>
@@ -14337,10 +14337,10 @@
         <v>1024</v>
       </c>
       <c r="B120" s="1">
-        <v>814024</v>
+        <v>814100</v>
       </c>
       <c r="C120" s="1">
-        <v>12.5795</v>
+        <v>12.5783</v>
       </c>
       <c r="D120" s="1">
         <v>10000</v>
@@ -14369,10 +14369,10 @@
         <v>1</v>
       </c>
       <c r="B121" s="1">
-        <v>29242.3</v>
+        <v>29322.9</v>
       </c>
       <c r="C121" s="1">
-        <v>0.34197</v>
+        <v>0.34103</v>
       </c>
       <c r="D121" s="1">
         <v>10000</v>
@@ -14401,10 +14401,10 @@
         <v>2</v>
       </c>
       <c r="B122" s="1">
-        <v>58253</v>
+        <v>59192.6</v>
       </c>
       <c r="C122" s="1">
-        <v>0.34333</v>
+        <v>0.33788</v>
       </c>
       <c r="D122" s="1">
         <v>10000</v>
@@ -14433,10 +14433,10 @@
         <v>3</v>
       </c>
       <c r="B123" s="1">
-        <v>82710.7</v>
+        <v>82882.1</v>
       </c>
       <c r="C123" s="1">
-        <v>0.36271</v>
+        <v>0.36196</v>
       </c>
       <c r="D123" s="1">
         <v>10000</v>
@@ -14465,10 +14465,10 @@
         <v>4</v>
       </c>
       <c r="B124" s="1">
-        <v>109099</v>
+        <v>109230</v>
       </c>
       <c r="C124" s="1">
-        <v>0.36664</v>
+        <v>0.3662</v>
       </c>
       <c r="D124" s="1">
         <v>10000</v>
@@ -14497,10 +14497,10 @@
         <v>7</v>
       </c>
       <c r="B125" s="1">
-        <v>175840</v>
+        <v>181418</v>
       </c>
       <c r="C125" s="1">
-        <v>0.39809</v>
+        <v>0.38585</v>
       </c>
       <c r="D125" s="1">
         <v>10000</v>
@@ -14529,10 +14529,10 @@
         <v>8</v>
       </c>
       <c r="B126" s="1">
-        <v>202250</v>
+        <v>209046</v>
       </c>
       <c r="C126" s="1">
-        <v>0.39555</v>
+        <v>0.38269</v>
       </c>
       <c r="D126" s="1">
         <v>10000</v>
@@ -14561,10 +14561,10 @@
         <v>15</v>
       </c>
       <c r="B127" s="1">
-        <v>219729</v>
+        <v>220465</v>
       </c>
       <c r="C127" s="1">
-        <v>0.68266</v>
+        <v>0.68038</v>
       </c>
       <c r="D127" s="1">
         <v>10000</v>
@@ -14593,10 +14593,10 @@
         <v>16</v>
       </c>
       <c r="B128" s="1">
-        <v>235194</v>
+        <v>235156</v>
       </c>
       <c r="C128" s="1">
-        <v>0.68029</v>
+        <v>0.6804</v>
       </c>
       <c r="D128" s="1">
         <v>10000</v>
@@ -14625,10 +14625,10 @@
         <v>31</v>
       </c>
       <c r="B129" s="1">
-        <v>387757</v>
+        <v>387946</v>
       </c>
       <c r="C129" s="1">
-        <v>0.79947</v>
+        <v>0.79908</v>
       </c>
       <c r="D129" s="1">
         <v>10000</v>
@@ -14657,10 +14657,10 @@
         <v>32</v>
       </c>
       <c r="B130" s="1">
-        <v>400095</v>
+        <v>400360</v>
       </c>
       <c r="C130" s="1">
-        <v>0.79981</v>
+        <v>0.79928</v>
       </c>
       <c r="D130" s="1">
         <v>10000</v>
@@ -14689,10 +14689,10 @@
         <v>63</v>
       </c>
       <c r="B131" s="1">
-        <v>520433</v>
+        <v>520369</v>
       </c>
       <c r="C131" s="1">
-        <v>1.21053</v>
+        <v>1.21068</v>
       </c>
       <c r="D131" s="1">
         <v>10000</v>
@@ -14721,10 +14721,10 @@
         <v>64</v>
       </c>
       <c r="B132" s="1">
-        <v>424783</v>
+        <v>422880</v>
       </c>
       <c r="C132" s="1">
-        <v>1.50665</v>
+        <v>1.51343</v>
       </c>
       <c r="D132" s="1">
         <v>10000</v>
@@ -14753,10 +14753,10 @@
         <v>127</v>
       </c>
       <c r="B133" s="1">
-        <v>655497</v>
+        <v>653037</v>
       </c>
       <c r="C133" s="1">
-        <v>1.93746</v>
+        <v>1.94476</v>
       </c>
       <c r="D133" s="1">
         <v>10000</v>
@@ -14785,10 +14785,10 @@
         <v>128</v>
       </c>
       <c r="B134" s="1">
-        <v>572638</v>
+        <v>572469</v>
       </c>
       <c r="C134" s="1">
-        <v>2.23527</v>
+        <v>2.23593</v>
       </c>
       <c r="D134" s="1">
         <v>10000</v>
@@ -14817,10 +14817,10 @@
         <v>255</v>
       </c>
       <c r="B135" s="1">
-        <v>751858</v>
+        <v>752323</v>
       </c>
       <c r="C135" s="1">
-        <v>3.3916</v>
+        <v>3.3895</v>
       </c>
       <c r="D135" s="1">
         <v>10000</v>
@@ -14849,10 +14849,10 @@
         <v>256</v>
       </c>
       <c r="B136" s="1">
-        <v>686870</v>
+        <v>683764</v>
       </c>
       <c r="C136" s="1">
-        <v>3.72705</v>
+        <v>3.74398</v>
       </c>
       <c r="D136" s="1">
         <v>10000</v>
@@ -14881,10 +14881,10 @@
         <v>511</v>
       </c>
       <c r="B137" s="1">
-        <v>791123</v>
+        <v>791926</v>
       </c>
       <c r="C137" s="1">
-        <v>6.45917</v>
+        <v>6.45262</v>
       </c>
       <c r="D137" s="1">
         <v>10000</v>
@@ -14913,10 +14913,10 @@
         <v>512</v>
       </c>
       <c r="B138" s="1">
-        <v>787875</v>
+        <v>787801</v>
       </c>
       <c r="C138" s="1">
-        <v>6.49849</v>
+        <v>6.4991</v>
       </c>
       <c r="D138" s="1">
         <v>10000</v>
@@ -14945,10 +14945,10 @@
         <v>1023</v>
       </c>
       <c r="B139" s="1">
-        <v>809713</v>
+        <v>810298</v>
       </c>
       <c r="C139" s="1">
-        <v>12.6341</v>
+        <v>12.625</v>
       </c>
       <c r="D139" s="1">
         <v>10000</v>
@@ -14977,10 +14977,10 @@
         <v>1024</v>
       </c>
       <c r="B140" s="1">
-        <v>813954</v>
+        <v>813714</v>
       </c>
       <c r="C140" s="1">
-        <v>12.5806</v>
+        <v>12.5843</v>
       </c>
       <c r="D140" s="1">
         <v>10000</v>
@@ -15009,10 +15009,10 @@
         <v>1</v>
       </c>
       <c r="B141" s="1">
-        <v>29525.5</v>
+        <v>29497.7</v>
       </c>
       <c r="C141" s="1">
-        <v>0.33869</v>
+        <v>0.33901</v>
       </c>
       <c r="D141" s="1">
         <v>10000</v>
@@ -15041,10 +15041,10 @@
         <v>2</v>
       </c>
       <c r="B142" s="1">
-        <v>58131.1</v>
+        <v>58348.2</v>
       </c>
       <c r="C142" s="1">
-        <v>0.34405</v>
+        <v>0.34277</v>
       </c>
       <c r="D142" s="1">
         <v>10000</v>
@@ -15073,10 +15073,10 @@
         <v>3</v>
       </c>
       <c r="B143" s="1">
-        <v>82754.1</v>
+        <v>84779.3</v>
       </c>
       <c r="C143" s="1">
-        <v>0.36252</v>
+        <v>0.35386</v>
       </c>
       <c r="D143" s="1">
         <v>10000</v>
@@ -15105,10 +15105,10 @@
         <v>4</v>
       </c>
       <c r="B144" s="1">
-        <v>109105</v>
+        <v>109233</v>
       </c>
       <c r="C144" s="1">
-        <v>0.36662</v>
+        <v>0.36619</v>
       </c>
       <c r="D144" s="1">
         <v>10000</v>
@@ -15137,10 +15137,10 @@
         <v>7</v>
       </c>
       <c r="B145" s="1">
-        <v>182036</v>
+        <v>175986</v>
       </c>
       <c r="C145" s="1">
-        <v>0.38454</v>
+        <v>0.39776</v>
       </c>
       <c r="D145" s="1">
         <v>10000</v>
@@ -15169,10 +15169,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="1">
-        <v>200557</v>
+        <v>201157</v>
       </c>
       <c r="C146" s="1">
-        <v>0.39889</v>
+        <v>0.3977</v>
       </c>
       <c r="D146" s="1">
         <v>10000</v>
@@ -15201,10 +15201,10 @@
         <v>15</v>
       </c>
       <c r="B147" s="1">
-        <v>219893</v>
+        <v>220900</v>
       </c>
       <c r="C147" s="1">
-        <v>0.68215</v>
+        <v>0.67904</v>
       </c>
       <c r="D147" s="1">
         <v>10000</v>
@@ -15233,10 +15233,10 @@
         <v>16</v>
       </c>
       <c r="B148" s="1">
-        <v>235090</v>
+        <v>235589</v>
       </c>
       <c r="C148" s="1">
-        <v>0.68059</v>
+        <v>0.67915</v>
       </c>
       <c r="D148" s="1">
         <v>10000</v>
@@ -15265,10 +15265,10 @@
         <v>31</v>
       </c>
       <c r="B149" s="1">
-        <v>387762</v>
+        <v>387534</v>
       </c>
       <c r="C149" s="1">
-        <v>0.79946</v>
+        <v>0.79993</v>
       </c>
       <c r="D149" s="1">
         <v>10000</v>
@@ -15297,10 +15297,10 @@
         <v>32</v>
       </c>
       <c r="B150" s="1">
-        <v>400410</v>
+        <v>400300</v>
       </c>
       <c r="C150" s="1">
-        <v>0.79918</v>
+        <v>0.7994</v>
       </c>
       <c r="D150" s="1">
         <v>10000</v>
@@ -15329,10 +15329,10 @@
         <v>63</v>
       </c>
       <c r="B151" s="1">
-        <v>518501</v>
+        <v>520588</v>
       </c>
       <c r="C151" s="1">
-        <v>1.21504</v>
+        <v>1.21017</v>
       </c>
       <c r="D151" s="1">
         <v>10000</v>
@@ -15361,10 +15361,10 @@
         <v>64</v>
       </c>
       <c r="B152" s="1">
-        <v>425068</v>
+        <v>423922</v>
       </c>
       <c r="C152" s="1">
-        <v>1.50564</v>
+        <v>1.50971</v>
       </c>
       <c r="D152" s="1">
         <v>10000</v>
@@ -15393,10 +15393,10 @@
         <v>127</v>
       </c>
       <c r="B153" s="1">
-        <v>655589</v>
+        <v>653400</v>
       </c>
       <c r="C153" s="1">
-        <v>1.93719</v>
+        <v>1.94368</v>
       </c>
       <c r="D153" s="1">
         <v>10000</v>
@@ -15425,10 +15425,10 @@
         <v>128</v>
       </c>
       <c r="B154" s="1">
-        <v>573189</v>
+        <v>571740</v>
       </c>
       <c r="C154" s="1">
-        <v>2.23312</v>
+        <v>2.23878</v>
       </c>
       <c r="D154" s="1">
         <v>10000</v>
@@ -15457,10 +15457,10 @@
         <v>255</v>
       </c>
       <c r="B155" s="1">
-        <v>751833</v>
+        <v>751689</v>
       </c>
       <c r="C155" s="1">
-        <v>3.39171</v>
+        <v>3.39236</v>
       </c>
       <c r="D155" s="1">
         <v>10000</v>
@@ -15489,10 +15489,10 @@
         <v>256</v>
       </c>
       <c r="B156" s="1">
-        <v>687738</v>
+        <v>684924</v>
       </c>
       <c r="C156" s="1">
-        <v>3.72235</v>
+        <v>3.73764</v>
       </c>
       <c r="D156" s="1">
         <v>10000</v>
@@ -15521,10 +15521,10 @@
         <v>511</v>
       </c>
       <c r="B157" s="1">
-        <v>791312</v>
+        <v>792330</v>
       </c>
       <c r="C157" s="1">
-        <v>6.45763</v>
+        <v>6.44933</v>
       </c>
       <c r="D157" s="1">
         <v>10000</v>
@@ -15553,10 +15553,10 @@
         <v>512</v>
       </c>
       <c r="B158" s="1">
-        <v>787804</v>
+        <v>787610</v>
       </c>
       <c r="C158" s="1">
-        <v>6.49908</v>
+        <v>6.50068</v>
       </c>
       <c r="D158" s="1">
         <v>10000</v>
@@ -15585,10 +15585,10 @@
         <v>1023</v>
       </c>
       <c r="B159" s="1">
-        <v>809952</v>
+        <v>810330</v>
       </c>
       <c r="C159" s="1">
-        <v>12.6304</v>
+        <v>12.6245</v>
       </c>
       <c r="D159" s="1">
         <v>10000</v>
@@ -15617,10 +15617,10 @@
         <v>1024</v>
       </c>
       <c r="B160" s="1">
-        <v>813950</v>
+        <v>814002</v>
       </c>
       <c r="C160" s="1">
-        <v>12.5806</v>
+        <v>12.5798</v>
       </c>
       <c r="D160" s="1">
         <v>10000</v>
@@ -15649,10 +15649,10 @@
         <v>1</v>
       </c>
       <c r="B161" s="1">
-        <v>29347.9</v>
+        <v>29716.8</v>
       </c>
       <c r="C161" s="1">
-        <v>0.34074</v>
+        <v>0.33651</v>
       </c>
       <c r="D161" s="1">
         <v>10000</v>
@@ -15681,10 +15681,10 @@
         <v>2</v>
       </c>
       <c r="B162" s="1">
-        <v>58038.3</v>
+        <v>58163.2</v>
       </c>
       <c r="C162" s="1">
-        <v>0.3446</v>
+        <v>0.34386</v>
       </c>
       <c r="D162" s="1">
         <v>10000</v>
@@ -15713,10 +15713,10 @@
         <v>3</v>
       </c>
       <c r="B163" s="1">
-        <v>83160.1</v>
+        <v>83402.8</v>
       </c>
       <c r="C163" s="1">
-        <v>0.36075</v>
+        <v>0.3597</v>
       </c>
       <c r="D163" s="1">
         <v>10000</v>
@@ -15745,10 +15745,10 @@
         <v>4</v>
       </c>
       <c r="B164" s="1">
-        <v>109299</v>
+        <v>109239</v>
       </c>
       <c r="C164" s="1">
-        <v>0.36597</v>
+        <v>0.36617</v>
       </c>
       <c r="D164" s="1">
         <v>10000</v>
@@ -15777,10 +15777,10 @@
         <v>7</v>
       </c>
       <c r="B165" s="1">
-        <v>181847</v>
+        <v>182610</v>
       </c>
       <c r="C165" s="1">
-        <v>0.38494</v>
+        <v>0.38333</v>
       </c>
       <c r="D165" s="1">
         <v>10000</v>
@@ -15809,10 +15809,10 @@
         <v>8</v>
       </c>
       <c r="B166" s="1">
-        <v>208057</v>
+        <v>201258</v>
       </c>
       <c r="C166" s="1">
-        <v>0.38451</v>
+        <v>0.3975</v>
       </c>
       <c r="D166" s="1">
         <v>10000</v>
@@ -15841,10 +15841,10 @@
         <v>15</v>
       </c>
       <c r="B167" s="1">
-        <v>220429</v>
+        <v>220501</v>
       </c>
       <c r="C167" s="1">
-        <v>0.68049</v>
+        <v>0.68027</v>
       </c>
       <c r="D167" s="1">
         <v>10000</v>
@@ -15873,10 +15873,10 @@
         <v>16</v>
       </c>
       <c r="B168" s="1">
-        <v>235384</v>
+        <v>234973</v>
       </c>
       <c r="C168" s="1">
-        <v>0.67974</v>
+        <v>0.68093</v>
       </c>
       <c r="D168" s="1">
         <v>10000</v>
@@ -15905,10 +15905,10 @@
         <v>31</v>
       </c>
       <c r="B169" s="1">
-        <v>387437</v>
+        <v>387888</v>
       </c>
       <c r="C169" s="1">
-        <v>0.80013</v>
+        <v>0.7992</v>
       </c>
       <c r="D169" s="1">
         <v>10000</v>
@@ -15937,10 +15937,10 @@
         <v>32</v>
       </c>
       <c r="B170" s="1">
-        <v>400125</v>
+        <v>400285</v>
       </c>
       <c r="C170" s="1">
-        <v>0.79975</v>
+        <v>0.79943</v>
       </c>
       <c r="D170" s="1">
         <v>10000</v>
@@ -15969,10 +15969,10 @@
         <v>63</v>
       </c>
       <c r="B171" s="1">
-        <v>520803</v>
+        <v>519438</v>
       </c>
       <c r="C171" s="1">
-        <v>1.20967</v>
+        <v>1.21285</v>
       </c>
       <c r="D171" s="1">
         <v>10000</v>
@@ -16001,10 +16001,10 @@
         <v>64</v>
       </c>
       <c r="B172" s="1">
-        <v>423844</v>
+        <v>424496</v>
       </c>
       <c r="C172" s="1">
-        <v>1.50999</v>
+        <v>1.50767</v>
       </c>
       <c r="D172" s="1">
         <v>10000</v>
@@ -16033,10 +16033,10 @@
         <v>127</v>
       </c>
       <c r="B173" s="1">
-        <v>655406</v>
+        <v>653158</v>
       </c>
       <c r="C173" s="1">
-        <v>1.93773</v>
+        <v>1.9444</v>
       </c>
       <c r="D173" s="1">
         <v>10000</v>
@@ -16065,10 +16065,10 @@
         <v>128</v>
       </c>
       <c r="B174" s="1">
-        <v>572563</v>
+        <v>571702</v>
       </c>
       <c r="C174" s="1">
-        <v>2.23556</v>
+        <v>2.23893</v>
       </c>
       <c r="D174" s="1">
         <v>10000</v>
@@ -16097,10 +16097,10 @@
         <v>255</v>
       </c>
       <c r="B175" s="1">
-        <v>751725</v>
+        <v>752081</v>
       </c>
       <c r="C175" s="1">
-        <v>3.3922</v>
+        <v>3.39059</v>
       </c>
       <c r="D175" s="1">
         <v>10000</v>
@@ -16129,10 +16129,10 @@
         <v>256</v>
       </c>
       <c r="B176" s="1">
-        <v>685899</v>
+        <v>684150</v>
       </c>
       <c r="C176" s="1">
-        <v>3.73233</v>
+        <v>3.74187</v>
       </c>
       <c r="D176" s="1">
         <v>10000</v>
@@ -16161,10 +16161,10 @@
         <v>511</v>
       </c>
       <c r="B177" s="1">
-        <v>791511</v>
+        <v>789936</v>
       </c>
       <c r="C177" s="1">
-        <v>6.45601</v>
+        <v>6.46888</v>
       </c>
       <c r="D177" s="1">
         <v>10000</v>
@@ -16193,10 +16193,10 @@
         <v>512</v>
       </c>
       <c r="B178" s="1">
-        <v>787644</v>
+        <v>787707</v>
       </c>
       <c r="C178" s="1">
-        <v>6.5004</v>
+        <v>6.49988</v>
       </c>
       <c r="D178" s="1">
         <v>10000</v>
@@ -16225,10 +16225,10 @@
         <v>1023</v>
       </c>
       <c r="B179" s="1">
-        <v>810452</v>
+        <v>810558</v>
       </c>
       <c r="C179" s="1">
-        <v>12.6226</v>
+        <v>12.6209</v>
       </c>
       <c r="D179" s="1">
         <v>10000</v>
@@ -16257,10 +16257,10 @@
         <v>1024</v>
       </c>
       <c r="B180" s="1">
-        <v>814018</v>
+        <v>814036</v>
       </c>
       <c r="C180" s="1">
-        <v>12.5796</v>
+        <v>12.5793</v>
       </c>
       <c r="D180" s="1">
         <v>10000</v>
@@ -16289,10 +16289,10 @@
         <v>1</v>
       </c>
       <c r="B181" s="1">
-        <v>29129</v>
+        <v>29679.8</v>
       </c>
       <c r="C181" s="1">
-        <v>0.3433</v>
+        <v>0.33693</v>
       </c>
       <c r="D181" s="1">
         <v>10000</v>
@@ -16321,10 +16321,10 @@
         <v>2</v>
       </c>
       <c r="B182" s="1">
-        <v>59319</v>
+        <v>59497.2</v>
       </c>
       <c r="C182" s="1">
-        <v>0.33716</v>
+        <v>0.33615</v>
       </c>
       <c r="D182" s="1">
         <v>10000</v>
@@ -16353,10 +16353,10 @@
         <v>3</v>
       </c>
       <c r="B183" s="1">
-        <v>83444.6</v>
+        <v>83282.4</v>
       </c>
       <c r="C183" s="1">
-        <v>0.35952</v>
+        <v>0.36022</v>
       </c>
       <c r="D183" s="1">
         <v>10000</v>
@@ -16385,10 +16385,10 @@
         <v>4</v>
       </c>
       <c r="B184" s="1">
-        <v>109254</v>
+        <v>109290</v>
       </c>
       <c r="C184" s="1">
-        <v>0.36612</v>
+        <v>0.366</v>
       </c>
       <c r="D184" s="1">
         <v>10000</v>
@@ -16417,10 +16417,10 @@
         <v>7</v>
       </c>
       <c r="B185" s="1">
-        <v>181993</v>
+        <v>182825</v>
       </c>
       <c r="C185" s="1">
-        <v>0.38463</v>
+        <v>0.38288</v>
       </c>
       <c r="D185" s="1">
         <v>10000</v>
@@ -16449,10 +16449,10 @@
         <v>8</v>
       </c>
       <c r="B186" s="1">
-        <v>208263</v>
+        <v>207781</v>
       </c>
       <c r="C186" s="1">
-        <v>0.38413</v>
+        <v>0.38502</v>
       </c>
       <c r="D186" s="1">
         <v>10000</v>
@@ -16481,10 +16481,10 @@
         <v>15</v>
       </c>
       <c r="B187" s="1">
-        <v>220287</v>
+        <v>219896</v>
       </c>
       <c r="C187" s="1">
-        <v>0.68093</v>
+        <v>0.68214</v>
       </c>
       <c r="D187" s="1">
         <v>10000</v>
@@ -16513,10 +16513,10 @@
         <v>16</v>
       </c>
       <c r="B188" s="1">
-        <v>235332</v>
+        <v>234980</v>
       </c>
       <c r="C188" s="1">
-        <v>0.67989</v>
+        <v>0.68091</v>
       </c>
       <c r="D188" s="1">
         <v>10000</v>
@@ -16545,10 +16545,10 @@
         <v>31</v>
       </c>
       <c r="B189" s="1">
-        <v>387825</v>
+        <v>387868</v>
       </c>
       <c r="C189" s="1">
-        <v>0.79933</v>
+        <v>0.79924</v>
       </c>
       <c r="D189" s="1">
         <v>10000</v>
@@ -16577,10 +16577,10 @@
         <v>32</v>
       </c>
       <c r="B190" s="1">
-        <v>400155</v>
+        <v>400150</v>
       </c>
       <c r="C190" s="1">
-        <v>0.79969</v>
+        <v>0.7997</v>
       </c>
       <c r="D190" s="1">
         <v>10000</v>
@@ -16609,10 +16609,10 @@
         <v>63</v>
       </c>
       <c r="B191" s="1">
-        <v>520696</v>
+        <v>520902</v>
       </c>
       <c r="C191" s="1">
-        <v>1.20992</v>
+        <v>1.20944</v>
       </c>
       <c r="D191" s="1">
         <v>10000</v>
@@ -16641,10 +16641,10 @@
         <v>64</v>
       </c>
       <c r="B192" s="1">
-        <v>425654</v>
+        <v>423160</v>
       </c>
       <c r="C192" s="1">
-        <v>1.50357</v>
+        <v>1.51243</v>
       </c>
       <c r="D192" s="1">
         <v>10000</v>
@@ -16673,10 +16673,10 @@
         <v>127</v>
       </c>
       <c r="B193" s="1">
-        <v>654670</v>
+        <v>651683</v>
       </c>
       <c r="C193" s="1">
-        <v>1.93991</v>
+        <v>1.9488</v>
       </c>
       <c r="D193" s="1">
         <v>10000</v>
@@ -16699,10 +16699,10 @@
         <v>128</v>
       </c>
       <c r="B194" s="1">
-        <v>571898</v>
+        <v>571720</v>
       </c>
       <c r="C194" s="1">
-        <v>2.23816</v>
+        <v>2.23886</v>
       </c>
       <c r="D194" s="1">
         <v>10000</v>
@@ -16725,10 +16725,10 @@
         <v>255</v>
       </c>
       <c r="B195" s="1">
-        <v>751957</v>
+        <v>752006</v>
       </c>
       <c r="C195" s="1">
-        <v>3.39115</v>
+        <v>3.39093</v>
       </c>
       <c r="D195" s="1">
         <v>10000</v>
@@ -16751,10 +16751,10 @@
         <v>256</v>
       </c>
       <c r="B196" s="1">
-        <v>685588</v>
+        <v>684446</v>
       </c>
       <c r="C196" s="1">
-        <v>3.73402</v>
+        <v>3.74025</v>
       </c>
       <c r="D196" s="1">
         <v>10000</v>
@@ -16777,10 +16777,10 @@
         <v>511</v>
       </c>
       <c r="B197" s="1">
-        <v>791739</v>
+        <v>792693</v>
       </c>
       <c r="C197" s="1">
-        <v>6.45415</v>
+        <v>6.44638</v>
       </c>
       <c r="D197" s="1">
         <v>10000</v>
@@ -16803,10 +16803,10 @@
         <v>512</v>
       </c>
       <c r="B198" s="1">
-        <v>788001</v>
+        <v>787465</v>
       </c>
       <c r="C198" s="1">
-        <v>6.49745</v>
+        <v>6.50188</v>
       </c>
       <c r="D198" s="1">
         <v>10000</v>
@@ -16829,10 +16829,10 @@
         <v>1023</v>
       </c>
       <c r="B199" s="1">
-        <v>810124</v>
+        <v>811092</v>
       </c>
       <c r="C199" s="1">
-        <v>12.6277</v>
+        <v>12.6126</v>
       </c>
       <c r="D199" s="1">
         <v>10000</v>
@@ -16855,10 +16855,10 @@
         <v>1024</v>
       </c>
       <c r="B200" s="1">
-        <v>814060</v>
+        <v>813806</v>
       </c>
       <c r="C200" s="1">
-        <v>12.5789</v>
+        <v>12.5829</v>
       </c>
       <c r="D200" s="1">
         <v>10000</v>
